--- a/QuantLibXL/Data2/XLS/AUD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_YCSTDBootstrapping.xlsx
@@ -508,9 +508,6 @@
     <t>Modified Following</t>
   </si>
   <si>
-    <t>0D</t>
-  </si>
-  <si>
     <t>Spread</t>
   </si>
   <si>
@@ -629,6 +626,9 @@
   </si>
   <si>
     <t>SN</t>
+  </si>
+  <si>
+    <t>1D</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2011,7 @@
     <row r="1" spans="1:31" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="D4" s="170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2341,7 +2341,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="24">
-        <v>41816.639224537037</v>
+        <v>41820.435497685183</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2352,7 +2352,7 @@
         <v>81</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="3"/>
@@ -2427,10 +2427,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="33"/>
       <c r="J13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="3"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_AUDYCSTD#0003</v>
+        <v>_AUDYCSTD#0004</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2469,10 +2469,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="66"/>
       <c r="J14" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="65"/>
       <c r="M14" s="3"/>
@@ -2506,7 +2506,7 @@
         <v/>
       </c>
       <c r="E15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="27"/>
@@ -2617,7 +2617,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2797,11 +2797,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.5467405630092217E-2</v>
+        <v>4.4960729122119091E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2836,11 +2836,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52775</v>
+        <v>52779</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.6192588652084126E-2</v>
+        <v>2.6193527123962577E-2</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2951,7 +2951,7 @@
       <c r="A27" s="87"/>
       <c r="B27" s="4"/>
       <c r="C27" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="42" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
@@ -4273,7 +4273,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="105" t="s">
         <v>45</v>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C2" s="107" t="str">
         <f>Deposits!J3</f>
-        <v>obj_0022b#0001</v>
+        <v>obj_00209#0000</v>
       </c>
       <c r="D2" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C2),"LastFixing","D"),"Libor","")</f>
@@ -4327,11 +4327,11 @@
       </c>
       <c r="J2" s="109">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K2" s="110">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>41817</v>
+        <v>41821</v>
       </c>
       <c r="L2" s="60">
         <v>10</v>
@@ -4343,11 +4343,11 @@
     <row r="3" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
       <c r="B3" s="107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="107" t="str">
         <f>Deposits!J4</f>
-        <v>obj_001f6#0001</v>
+        <v>obj_001e7#0000</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C3),"LastFixing","D"),"Libor","")</f>
@@ -4370,22 +4370,22 @@
       </c>
       <c r="J3" s="109">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K3" s="110">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>41817</v>
+        <v>41821</v>
       </c>
       <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
       <c r="B4" s="107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="107" t="str">
         <f>Deposits!J5</f>
-        <v>obj_001f7#0001</v>
+        <v>obj_001e8#0000</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C4),"LastFixing","D"),"Libor","")</f>
@@ -4408,11 +4408,11 @@
       </c>
       <c r="J4" s="109">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K4" s="110">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="L4" s="60"/>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C5" s="107" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0021c#0001</v>
+        <v>obj_001f3#0000</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C5),"LastFixing","D"),"Libor","")</f>
@@ -4447,11 +4447,11 @@
       </c>
       <c r="J5" s="109">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K5" s="110">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="L5" s="60">
         <v>60</v>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C6" s="107" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00229#0001</v>
+        <v>obj_001fd#0000</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C6),"LastFixing","D"),"Libor","")</f>
@@ -4491,11 +4491,11 @@
       </c>
       <c r="J6" s="109">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K6" s="110">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="C7" s="107" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00233#0001</v>
+        <v>obj_00208#0000</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C7),"LastFixing","D"),"Libor","")</f>
@@ -4528,11 +4528,11 @@
       </c>
       <c r="J7" s="109">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K7" s="110">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>41837</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C8" s="107" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00231#0001</v>
+        <v>obj_001ff#0000</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C8),"LastFixing","D"),"Libor","")</f>
@@ -4566,11 +4566,11 @@
       </c>
       <c r="J8" s="109">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K8" s="110">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>41848</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C9" s="107" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0022a#0001</v>
+        <v>obj_00206#0000</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C9),"LastFixing","D"),"Libor","")</f>
@@ -4604,11 +4604,11 @@
       </c>
       <c r="J9" s="109">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K9" s="110">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>41877</v>
+        <v>41880</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="C10" s="107" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00237#0001</v>
+        <v>obj_00205#0000</v>
       </c>
       <c r="D10" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C10),"LastFixing","D"),"Libor","")</f>
@@ -4642,11 +4642,11 @@
       </c>
       <c r="J10" s="109">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K10" s="110">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>41908</v>
+        <v>41912</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="C11" s="107" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0022d#0001</v>
+        <v>obj_00201#0000</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C11),"LastFixing","D"),"Libor","")</f>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="J11" s="109">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K11" s="110">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
-        <v>41939</v>
+        <v>41943</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C12" s="107" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0022f#0001</v>
+        <v>obj_00207#0000</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C12),"LastFixing","D"),"Libor","")</f>
@@ -4718,11 +4718,11 @@
       </c>
       <c r="J12" s="109">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K12" s="110">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
-        <v>41969</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C13" s="107" t="str">
         <f>Deposits!J14</f>
-        <v>obj_0022e#0001</v>
+        <v>obj_00203#0000</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C13),"LastFixing","D"),"Libor","")</f>
@@ -4756,11 +4756,11 @@
       </c>
       <c r="J13" s="109">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K13" s="110">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42002</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C14" s="107" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00232#0001</v>
+        <v>obj_00204#0000</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C14),"LastFixing","D"),"Libor","")</f>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="J14" s="109">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K14" s="110">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42031</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="C15" s="107" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00230#0001</v>
+        <v>obj_001fb#0000</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C15),"LastFixing","D"),"Libor","")</f>
@@ -4830,11 +4830,11 @@
       </c>
       <c r="J15" s="109">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K15" s="110">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
-        <v>42061</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="C16" s="107" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0022c#0001</v>
+        <v>obj_001fe#0000</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C16),"LastFixing","D"),"Libor","")</f>
@@ -4867,11 +4867,11 @@
       </c>
       <c r="J16" s="109">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K16" s="110">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42089</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="C17" s="107" t="str">
         <f>Deposits!J18</f>
-        <v>obj_00236#0001</v>
+        <v>obj_00202#0000</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C17),"LastFixing","D"),"Libor","")</f>
@@ -4904,11 +4904,11 @@
       </c>
       <c r="J17" s="109">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K17" s="110">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42121</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C18" s="107" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00234#0001</v>
+        <v>obj_001fc#0000</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C18),"LastFixing","D"),"Libor","")</f>
@@ -4941,11 +4941,11 @@
       </c>
       <c r="J18" s="109">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K18" s="110">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42150</v>
+        <v>42153</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C19" s="107" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00235#0001</v>
+        <v>obj_00200#0000</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C19),"LastFixing","D"),"Libor","")</f>
@@ -4978,11 +4978,11 @@
       </c>
       <c r="J19" s="109">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="K19" s="110">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42181</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C20" s="120" t="str">
         <f>Futures!H3</f>
-        <v>obj_0024c#0001</v>
+        <v>obj_0021a#0000</v>
       </c>
       <c r="D20" s="120" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C20),"LastFixing","D"),"Libor","")</f>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!H4</f>
-        <v>obj_00239#0001</v>
+        <v>obj_00229#0000</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C21),"LastFixing","D"),"Libor","")</f>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!H5</f>
-        <v>obj_00249#0001</v>
+        <v>obj_0022a#0000</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C22),"LastFixing","D"),"Libor","")</f>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!H6</f>
-        <v>obj_0025f#0001</v>
+        <v>obj_00215#0000</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C23),"LastFixing","D"),"Libor","")</f>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!H7</f>
-        <v>obj_00248#0001</v>
+        <v>obj_00222#0000</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C24),"LastFixing","D"),"Libor","")</f>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!H8</f>
-        <v>obj_00265#0001</v>
+        <v>obj_00211#0000</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C25),"LastFixing","D"),"Libor","")</f>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="E25" s="118">
         <f>_xll.qlRateHelperQuoteValue(C25,Trigger)</f>
-        <v>97.375</v>
+        <v>97.39500000000001</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C25,Trigger)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!H9</f>
-        <v>obj_00238#0001</v>
+        <v>obj_00220#0000</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C26),"LastFixing","D"),"Libor","")</f>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!H10</f>
-        <v>obj_00251#0001</v>
+        <v>obj_00214#0000</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C27),"LastFixing","D"),"Libor","")</f>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!H11</f>
-        <v>obj_0025e#0001</v>
+        <v>obj_00225#0000</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C28),"LastFixing","D"),"Libor","")</f>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="E28" s="118">
         <f>_xll.qlRateHelperQuoteValue(C28,Trigger)</f>
-        <v>97.365000000000009</v>
+        <v>97.384999999999991</v>
       </c>
       <c r="F28" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C28,Trigger)</f>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!H12</f>
-        <v>obj_00257#0001</v>
+        <v>obj_00224#0000</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C29),"LastFixing","D"),"Libor","")</f>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!H13</f>
-        <v>obj_00252#0001</v>
+        <v>obj_00217#0000</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C30),"LastFixing","D"),"Libor","")</f>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!H14</f>
-        <v>obj_0024e#0001</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C31),"LastFixing","D"),"Libor","")</f>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="E31" s="118">
         <f>_xll.qlRateHelperQuoteValue(C31,Trigger)</f>
-        <v>97.295000000000002</v>
+        <v>97.325000000000003</v>
       </c>
       <c r="F31" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C31,Trigger)</f>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!H15</f>
-        <v>obj_00242#0001</v>
+        <v>obj_00237#0000</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C32),"LastFixing","D"),"Libor","")</f>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E32" s="118">
         <f>_xll.qlRateHelperQuoteValue(C32,Trigger)</f>
-        <v>97.194999999999993</v>
+        <v>97.235000000000014</v>
       </c>
       <c r="F32" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C32,Trigger)</f>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!H16</f>
-        <v>obj_00267#0001</v>
+        <v>obj_0022c#0000</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C33),"LastFixing","D"),"Libor","")</f>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="E33" s="118">
         <f>_xll.qlRateHelperQuoteValue(C33,Trigger)</f>
-        <v>97.094999999999999</v>
+        <v>97.125</v>
       </c>
       <c r="F33" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C33,Trigger)</f>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!H17</f>
-        <v>obj_00266#0001</v>
+        <v>obj_00226#0000</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C34),"LastFixing","D"),"Libor","")</f>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E34" s="118">
         <f>_xll.qlRateHelperQuoteValue(C34,Trigger)</f>
-        <v>96.995000000000005</v>
+        <v>97.025000000000006</v>
       </c>
       <c r="F34" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C34,Trigger)</f>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!H18</f>
-        <v>obj_00253#0001</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C35),"LastFixing","D"),"Libor","")</f>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E35" s="118">
         <f>_xll.qlRateHelperQuoteValue(C35,Trigger)</f>
-        <v>96.9</v>
+        <v>96.92</v>
       </c>
       <c r="F35" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C35,Trigger)</f>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!H19</f>
-        <v>obj_00241#0001</v>
+        <v>obj_00213#0000</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C36),"LastFixing","D"),"Libor","")</f>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="E36" s="118">
         <f>_xll.qlRateHelperQuoteValue(C36,Trigger)</f>
-        <v>96.805000000000007</v>
+        <v>96.825000000000003</v>
       </c>
       <c r="F36" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C36,Trigger)</f>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!H20</f>
-        <v>obj_00247#0001</v>
+        <v>obj_0020f#0000</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C37),"LastFixing","D"),"Libor","")</f>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="E37" s="118">
         <f>_xll.qlRateHelperQuoteValue(C37,Trigger)</f>
-        <v>96.710000000000008</v>
+        <v>96.735000000000014</v>
       </c>
       <c r="F37" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C37,Trigger)</f>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!H21</f>
-        <v>obj_00263#0001</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C38),"LastFixing","D"),"Libor","")</f>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E38" s="118">
         <f>_xll.qlRateHelperQuoteValue(C38,Trigger)</f>
-        <v>96.62</v>
+        <v>96.655000000000001</v>
       </c>
       <c r="F38" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C38,Trigger)</f>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!H22</f>
-        <v>obj_00243#0001</v>
+        <v>obj_00218#0000</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C39),"LastFixing","D"),"Libor","")</f>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E39" s="118">
         <f>_xll.qlRateHelperQuoteValue(C39,Trigger)</f>
-        <v>96.525000000000006</v>
+        <v>96.555000000000007</v>
       </c>
       <c r="F39" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C39,Trigger)</f>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!H23</f>
-        <v>obj_0025a#0001</v>
+        <v>obj_00219#0000</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C40),"LastFixing","D"),"Libor","")</f>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!H24</f>
-        <v>obj_00264#0001</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C41),"LastFixing","D"),"Libor","")</f>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!H25</f>
-        <v>obj_0024b#0001</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C42),"LastFixing","D"),"Libor","")</f>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!H26</f>
-        <v>obj_0024a#0001</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C43),"LastFixing","D"),"Libor","")</f>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!H27</f>
-        <v>obj_0025b#0001</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C44),"LastFixing","D"),"Libor","")</f>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!H28</f>
-        <v>obj_00258#0001</v>
+        <v>obj_0022b#0000</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C45),"LastFixing","D"),"Libor","")</f>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!H29</f>
-        <v>obj_00246#0001</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C46),"LastFixing","D"),"Libor","")</f>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!H30</f>
-        <v>obj_0023f#0001</v>
+        <v>obj_0020e#0000</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C47),"LastFixing","D"),"Libor","")</f>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!H31</f>
-        <v>obj_00260#0001</v>
+        <v>obj_00238#0000</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C48),"LastFixing","D"),"Libor","")</f>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!H32</f>
-        <v>obj_00254#0001</v>
+        <v>obj_00233#0000</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C49),"LastFixing","D"),"Libor","")</f>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!H33</f>
-        <v>obj_00259#0001</v>
+        <v>obj_00230#0000</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C50),"LastFixing","D"),"Libor","")</f>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="C51" s="107" t="str">
         <f>Futures!H34</f>
-        <v>obj_00245#0001</v>
+        <v>obj_0023a#0000</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C51),"LastFixing","D"),"Libor","")</f>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="C52" s="107" t="str">
         <f>Futures!H35</f>
-        <v>obj_00240#0001</v>
+        <v>obj_00221#0000</v>
       </c>
       <c r="D52" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C52),"LastFixing","D"),"Libor","")</f>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="C53" s="107" t="str">
         <f>Futures!H36</f>
-        <v>obj_00262#0001</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="D53" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C53),"LastFixing","D"),"Libor","")</f>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="C54" s="107" t="str">
         <f>Futures!H37</f>
-        <v>obj_0023e#0001</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C54),"LastFixing","D"),"Libor","")</f>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="C55" s="107" t="str">
         <f>Futures!H38</f>
-        <v>obj_00250#0001</v>
+        <v>obj_00223#0000</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C55),"LastFixing","D"),"Libor","")</f>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C56" s="107" t="str">
         <f>Futures!H39</f>
-        <v>obj_0023d#0001</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C56),"LastFixing","D"),"Libor","")</f>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="C57" s="107" t="str">
         <f>Futures!H40</f>
-        <v>obj_0024f#0001</v>
+        <v>obj_00210#0000</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C57),"LastFixing","D"),"Libor","")</f>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="C58" s="107" t="str">
         <f>Futures!H41</f>
-        <v>obj_0025c#0001</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C58),"LastFixing","D"),"Libor","")</f>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C59" s="107" t="str">
         <f>Futures!H42</f>
-        <v>obj_00261#0001</v>
+        <v>obj_00232#0000</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C59),"LastFixing","D"),"Libor","")</f>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="C60" s="107" t="str">
         <f>Futures!H43</f>
-        <v>obj_0023c#0001</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C60),"LastFixing","D"),"Libor","")</f>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C61" s="112" t="str">
         <f>Futures!H44</f>
-        <v>obj_00256#0001</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="D61" s="112" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C61),"LastFixing","D"),"Libor","")</f>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="C62" s="107" t="str">
         <f>Swaps!K6</f>
-        <v>obj_0023b#0001</v>
+        <v>obj_00231#0001</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C62),"LastFixing","D"),"Libor","")</f>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="E62" s="121">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>2.6699999999999998E-2</v>
+        <v>2.6325000000000001E-2</v>
       </c>
       <c r="F62" s="121">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -6803,11 +6803,11 @@
       </c>
       <c r="J62" s="123">
         <f>_xll.qlRateHelperEarliestDate($C62,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K62" s="124">
         <f>_xll.qlRateHelperLatestDate($C62,Trigger)</f>
-        <v>42181</v>
+        <v>42186</v>
       </c>
       <c r="M62" s="125"/>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="C63" s="107" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00255#0001</v>
+        <v>obj_00235#0003</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C63),"LastFixing","D"),"Libor","")</f>
@@ -6844,11 +6844,11 @@
       </c>
       <c r="J63" s="109">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K63" s="110">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="M63" s="125"/>
     </row>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C64" s="107" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0023a#0001</v>
+        <v>obj_0022f#0003</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C64),"LastFixing","D"),"Libor","")</f>
@@ -6885,11 +6885,11 @@
       </c>
       <c r="J64" s="109">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K64" s="110">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>42367</v>
+        <v>42373</v>
       </c>
       <c r="M64" s="125"/>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="C65" s="107" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00244#0001</v>
+        <v>obj_00239#0003</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C65),"LastFixing","D"),"Libor","")</f>
@@ -6926,11 +6926,11 @@
       </c>
       <c r="J65" s="109">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K65" s="110">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="M65" s="125"/>
     </row>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C66" s="107" t="str">
         <f>Swaps!K10</f>
-        <v>obj_0025d#0001</v>
+        <v>obj_00252#0003</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C66),"LastFixing","D"),"Libor","")</f>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>2.7700000000000006E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -6967,11 +6967,11 @@
       </c>
       <c r="J66" s="109">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K66" s="110">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>42548</v>
+        <v>42552</v>
       </c>
       <c r="M66" s="125"/>
     </row>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="C67" s="107" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0024d#0001</v>
+        <v>obj_0021c#0003</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C67),"LastFixing","D"),"Libor","")</f>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="E67" s="108">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>2.9175000000000003E-2</v>
+        <v>2.8875000000000001E-2</v>
       </c>
       <c r="F67" s="108">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7008,11 +7008,11 @@
       </c>
       <c r="J67" s="109">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K67" s="110">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>42912</v>
+        <v>42919</v>
       </c>
       <c r="M67" s="125"/>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C68" s="120" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0020b#0001</v>
+        <v>obj_0020b#0003</v>
       </c>
       <c r="D68" s="120" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C68),"LastFixing","D"),"Libor","")</f>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="E68" s="121">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>3.1600000000000003E-2</v>
+        <v>3.1275000000000004E-2</v>
       </c>
       <c r="F68" s="121">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7049,11 +7049,11 @@
       </c>
       <c r="J68" s="123">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K68" s="124">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>43277</v>
+        <v>43283</v>
       </c>
       <c r="M68" s="125"/>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="C69" s="107" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00209#0001</v>
+        <v>obj_00240#0003</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C69),"LastFixing","D"),"Libor","")</f>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="E69" s="108">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>3.3250000000000002E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="F69" s="108">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7090,11 +7090,11 @@
       </c>
       <c r="J69" s="109">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K69" s="110">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>43642</v>
+        <v>43647</v>
       </c>
       <c r="M69" s="125"/>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="C70" s="107" t="str">
         <f>Swaps!K14</f>
-        <v>obj_001fc#0001</v>
+        <v>obj_0021f#0003</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C70),"LastFixing","D"),"Libor","")</f>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="E70" s="108">
         <f>_xll.qlRateHelperQuoteValue($C70,Trigger)</f>
-        <v>3.4874999999999996E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="F70" s="108">
         <f>_xll.qlSwapRateHelperSpread($C70,Trigger)</f>
@@ -7131,11 +7131,11 @@
       </c>
       <c r="J70" s="109">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K70" s="110">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>44008</v>
+        <v>44013</v>
       </c>
       <c r="M70" s="125"/>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="C71" s="107" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00205#0001</v>
+        <v>obj_0023b#0003</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C71),"LastFixing","D"),"Libor","")</f>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="E71" s="108">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>3.635E-2</v>
+        <v>3.5950000000000003E-2</v>
       </c>
       <c r="F71" s="108">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7172,11 +7172,11 @@
       </c>
       <c r="J71" s="109">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K71" s="110">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="M71" s="125"/>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C72" s="107" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00200#0001</v>
+        <v>obj_0022d#0003</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C72),"LastFixing","D"),"Libor","")</f>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="E72" s="108">
         <f>_xll.qlRateHelperQuoteValue($C72,Trigger)</f>
-        <v>3.7575000000000004E-2</v>
+        <v>3.7175E-2</v>
       </c>
       <c r="F72" s="108">
         <f>_xll.qlSwapRateHelperSpread($C72,Trigger)</f>
@@ -7213,11 +7213,11 @@
       </c>
       <c r="J72" s="109">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K72" s="110">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="M72" s="125"/>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C73" s="107" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00202#0001</v>
+        <v>obj_0020c#0003</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C73),"LastFixing","D"),"Libor","")</f>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="E73" s="108">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>3.8675000000000008E-2</v>
+        <v>3.8224999999999995E-2</v>
       </c>
       <c r="F73" s="108">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7254,11 +7254,11 @@
       </c>
       <c r="J73" s="109">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K73" s="110">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="M73" s="125"/>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C74" s="107" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00204#0001</v>
+        <v>obj_00257#0003</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C74),"LastFixing","D"),"Libor","")</f>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="E74" s="108">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>3.9599999999999996E-2</v>
+        <v>3.9149999999999997E-2</v>
       </c>
       <c r="F74" s="108">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7295,11 +7295,11 @@
       </c>
       <c r="J74" s="109">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K74" s="110">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="M74" s="125"/>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C75" s="107" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00206#0001</v>
+        <v>obj_0023d#0003</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C75),"LastFixing","D"),"Libor","")</f>
@@ -7336,11 +7336,11 @@
       </c>
       <c r="J75" s="109">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K75" s="110">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>45834</v>
+        <v>45839</v>
       </c>
       <c r="M75" s="125"/>
     </row>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="C76" s="107" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00217#0001</v>
+        <v>obj_00228#0003</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C76),"LastFixing","D"),"Libor","")</f>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="E76" s="108">
         <f>_xll.qlRateHelperQuoteValue($C76,Trigger)</f>
-        <v>4.1200000000000001E-2</v>
+        <v>4.0750000000000001E-2</v>
       </c>
       <c r="F76" s="108">
         <f>_xll.qlSwapRateHelperSpread($C76,Trigger)</f>
@@ -7377,11 +7377,11 @@
       </c>
       <c r="J76" s="109">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K76" s="110">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>46199</v>
+        <v>46204</v>
       </c>
       <c r="M76" s="125"/>
     </row>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="C77" s="107" t="str">
         <f>Swaps!K21</f>
-        <v>obj_001fe#0001</v>
+        <v>obj_00236#0003</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C77),"LastFixing","D"),"Libor","")</f>
@@ -7418,11 +7418,11 @@
       </c>
       <c r="J77" s="109">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K77" s="110">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>46566</v>
+        <v>46569</v>
       </c>
       <c r="M77" s="125"/>
     </row>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="C78" s="107" t="str">
         <f>Swaps!K22</f>
-        <v>obj_0020c#0001</v>
+        <v>obj_0021d#0003</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C78),"LastFixing","D"),"Libor","")</f>
@@ -7459,11 +7459,11 @@
       </c>
       <c r="J78" s="109">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K78" s="110">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>46930</v>
+        <v>46937</v>
       </c>
       <c r="M78" s="125"/>
     </row>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="C79" s="107" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0020e#0001</v>
+        <v>obj_00255#0003</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C79),"LastFixing","D"),"Libor","")</f>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="E79" s="108">
         <f>_xll.qlRateHelperQuoteValue($C79,Trigger)</f>
-        <v>4.2700000000000002E-2</v>
+        <v>4.2224999999999999E-2</v>
       </c>
       <c r="F79" s="108">
         <f>_xll.qlSwapRateHelperSpread($C79,Trigger)</f>
@@ -7500,11 +7500,11 @@
       </c>
       <c r="J79" s="109">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K79" s="110">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>47295</v>
+        <v>47301</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C80" s="107" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00210#0001</v>
+        <v>obj_00234#0003</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C80),"LastFixing","D"),"Libor","")</f>
@@ -7540,11 +7540,11 @@
       </c>
       <c r="J80" s="109">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K80" s="110">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>47660</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="C81" s="107" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00213#0001</v>
+        <v>obj_0024c#0003</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C81),"LastFixing","D"),"Libor","")</f>
@@ -7580,11 +7580,11 @@
       </c>
       <c r="J81" s="109">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K81" s="110">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>48025</v>
+        <v>48030</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="C82" s="107" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00215#0001</v>
+        <v>obj_00227#0003</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C82),"LastFixing","D"),"Libor","")</f>
@@ -7620,11 +7620,11 @@
       </c>
       <c r="J82" s="109">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K82" s="110">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>48393</v>
+        <v>48396</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C83" s="107" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00218#0001</v>
+        <v>obj_0024b#0003</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C83),"LastFixing","D"),"Libor","")</f>
@@ -7660,11 +7660,11 @@
       </c>
       <c r="J83" s="109">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K83" s="110">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>48757</v>
+        <v>48761</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="C84" s="107" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00208#0001</v>
+        <v>obj_0022e#0003</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C84),"LastFixing","D"),"Libor","")</f>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="E84" s="108">
         <f>_xll.qlRateHelperQuoteValue($C84,Trigger)</f>
-        <v>4.3875000000000004E-2</v>
+        <v>4.3425000000000005E-2</v>
       </c>
       <c r="F84" s="108">
         <f>_xll.qlSwapRateHelperSpread($C84,Trigger)</f>
@@ -7700,11 +7700,11 @@
       </c>
       <c r="J84" s="109">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K84" s="110">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>49121</v>
+        <v>49128</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="C85" s="107" t="str">
         <f>Swaps!K29</f>
-        <v>obj_0020a#0001</v>
+        <v>obj_00245#0003</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C85),"LastFixing","D"),"Libor","")</f>
@@ -7740,11 +7740,11 @@
       </c>
       <c r="J85" s="109">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K85" s="110">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>49486</v>
+        <v>49492</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="C86" s="107" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00201#0001</v>
+        <v>obj_00246#0003</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C86),"LastFixing","D"),"Libor","")</f>
@@ -7780,11 +7780,11 @@
       </c>
       <c r="J86" s="109">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K86" s="110">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>49852</v>
+        <v>49857</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="C87" s="107" t="str">
         <f>Swaps!K31</f>
-        <v>obj_001ff#0001</v>
+        <v>obj_00216#0003</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C87),"LastFixing","D"),"Libor","")</f>
@@ -7820,11 +7820,11 @@
       </c>
       <c r="J87" s="109">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K87" s="110">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>50217</v>
+        <v>50222</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C88" s="107" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0020d#0001</v>
+        <v>obj_0020a#0003</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C88),"LastFixing","D"),"Libor","")</f>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="J88" s="109">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K88" s="110">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>50584</v>
+        <v>50587</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C89" s="107" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00203#0001</v>
+        <v>obj_0023e#0003</v>
       </c>
       <c r="D89" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C89),"LastFixing","D"),"Libor","")</f>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="E89" s="108">
         <f>_xll.qlRateHelperQuoteValue($C89,Trigger)</f>
-        <v>4.4350000000000007E-2</v>
+        <v>4.3875000000000004E-2</v>
       </c>
       <c r="F89" s="108">
         <f>_xll.qlSwapRateHelperSpread($C89,Trigger)</f>
@@ -7900,11 +7900,11 @@
       </c>
       <c r="J89" s="109">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K89" s="110">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>50948</v>
+        <v>50952</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="C90" s="107" t="str">
         <f>Swaps!K34</f>
-        <v>obj_001fd#0001</v>
+        <v>obj_0020d#0003</v>
       </c>
       <c r="D90" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C90),"LastFixing","D"),"Libor","")</f>
@@ -7940,11 +7940,11 @@
       </c>
       <c r="J90" s="109">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K90" s="110">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>51313</v>
+        <v>51319</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C91" s="107" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00207#0001</v>
+        <v>obj_00244#0003</v>
       </c>
       <c r="D91" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C91),"LastFixing","D"),"Libor","")</f>
@@ -7980,11 +7980,11 @@
       </c>
       <c r="J91" s="109">
         <f>_xll.qlRateHelperEarliestDate($C91,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K91" s="110">
         <f>_xll.qlRateHelperLatestDate($C91,Trigger)</f>
-        <v>51678</v>
+        <v>51683</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="C92" s="107" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00216#0001</v>
+        <v>obj_0023f#0003</v>
       </c>
       <c r="D92" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C92),"LastFixing","D"),"Libor","")</f>
@@ -8020,11 +8020,11 @@
       </c>
       <c r="J92" s="109">
         <f>_xll.qlRateHelperEarliestDate($C92,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K92" s="110">
         <f>_xll.qlRateHelperLatestDate($C92,Trigger)</f>
-        <v>52043</v>
+        <v>52048</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="C93" s="107" t="str">
         <f>Swaps!K37</f>
-        <v>obj_001fb#0001</v>
+        <v>obj_00243#0003</v>
       </c>
       <c r="D93" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C93),"LastFixing","D"),"Libor","")</f>
@@ -8060,11 +8060,11 @@
       </c>
       <c r="J93" s="109">
         <f>_xll.qlRateHelperEarliestDate($C93,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K93" s="110">
         <f>_xll.qlRateHelperLatestDate($C93,Trigger)</f>
-        <v>52408</v>
+        <v>52413</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="C94" s="107" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00212#0001</v>
+        <v>obj_00212#0003</v>
       </c>
       <c r="D94" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C94),"LastFixing","D"),"Libor","")</f>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="E94" s="108">
         <f>_xll.qlRateHelperQuoteValue($C94,Trigger)</f>
-        <v>4.4424999999999999E-2</v>
+        <v>4.3950000000000003E-2</v>
       </c>
       <c r="F94" s="108">
         <f>_xll.qlSwapRateHelperSpread($C94,Trigger)</f>
@@ -8100,11 +8100,11 @@
       </c>
       <c r="J94" s="109">
         <f>_xll.qlRateHelperEarliestDate($C94,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K94" s="110">
         <f>_xll.qlRateHelperLatestDate($C94,Trigger)</f>
-        <v>52775</v>
+        <v>52779</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="C95" s="107" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0020f#0001</v>
+        <v>obj_0021b#0003</v>
       </c>
       <c r="D95" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C95),"LastFixing","D"),"Libor","")</f>
@@ -8140,11 +8140,11 @@
       </c>
       <c r="J95" s="109">
         <f>_xll.qlRateHelperEarliestDate($C95,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K95" s="110">
         <f>_xll.qlRateHelperLatestDate($C95,Trigger)</f>
-        <v>54602</v>
+        <v>54605</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="C96" s="107" t="str">
         <f>Swaps!K40</f>
-        <v>obj_00219#0001</v>
+        <v>obj_0021e#0003</v>
       </c>
       <c r="D96" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C96),"LastFixing","D"),"Libor","")</f>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E96" s="108">
         <f>_xll.qlRateHelperQuoteValue($C96,Trigger)</f>
-        <v>4.4025000000000002E-2</v>
+        <v>4.3550000000000005E-2</v>
       </c>
       <c r="F96" s="108">
         <f>_xll.qlSwapRateHelperSpread($C96,Trigger)</f>
@@ -8180,11 +8180,11 @@
       </c>
       <c r="J96" s="109">
         <f>_xll.qlRateHelperEarliestDate($C96,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K96" s="110">
         <f>_xll.qlRateHelperLatestDate($C96,Trigger)</f>
-        <v>56426</v>
+        <v>56431</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="C97" s="107" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00214#0001</v>
+        <v>obj_0024a#0003</v>
       </c>
       <c r="D97" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C97),"LastFixing","D"),"Libor","")</f>
@@ -8220,11 +8220,11 @@
       </c>
       <c r="J97" s="109">
         <f>_xll.qlRateHelperEarliestDate($C97,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K97" s="110">
         <f>_xll.qlRateHelperLatestDate($C97,Trigger)</f>
-        <v>60079</v>
+        <v>60084</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="C98" s="107" t="str">
         <f>Swaps!K42</f>
-        <v>obj_001fa#0001</v>
+        <v>obj_0024d#0003</v>
       </c>
       <c r="D98" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C98),"LastFixing","D"),"Libor","")</f>
@@ -8260,11 +8260,11 @@
       </c>
       <c r="J98" s="115">
         <f>_xll.qlRateHelperEarliestDate($C98,Trigger)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="K98" s="116">
         <f>_xll.qlRateHelperLatestDate($C98,Trigger)</f>
-        <v>63731</v>
+        <v>63737</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>45</v>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="D2" s="75" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_001f6</v>
+        <v>obj_001e7</v>
       </c>
       <c r="E2" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -8354,11 +8354,11 @@
       </c>
       <c r="H2" s="83">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I2" s="84">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41817</v>
+        <v>41821</v>
       </c>
       <c r="J2" s="72">
         <v>2.6249056124033918E-2</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="75" t="str">
-        <v>obj_001f7</v>
+        <v>obj_001e8</v>
       </c>
       <c r="E3" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -8389,14 +8389,14 @@
       </c>
       <c r="H3" s="83">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I3" s="84">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="J3" s="72">
-        <v>2.6246225039021527E-2</v>
+        <v>2.6248112338557436E-2</v>
       </c>
       <c r="K3" s="77"/>
     </row>
@@ -8408,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="75" t="str">
-        <v>obj_0021c</v>
+        <v>obj_001f3</v>
       </c>
       <c r="E4" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -8424,14 +8424,14 @@
       </c>
       <c r="H4" s="83">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I4" s="84">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="J4" s="72">
-        <v>2.6243394768107445E-2</v>
+        <v>2.6243394768099917E-2</v>
       </c>
       <c r="K4" s="77"/>
     </row>
@@ -8443,7 +8443,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="75" t="str">
-        <v>obj_00229</v>
+        <v>obj_001fd</v>
       </c>
       <c r="E5" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -8459,20 +8459,20 @@
       </c>
       <c r="H5" s="83">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I5" s="84">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
       <c r="J5" s="72">
-        <v>2.6236793966321816E-2</v>
+        <v>2.6236793966322329E-2</v>
       </c>
       <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="75" t="str">
-        <v>obj_00231</v>
+        <v>obj_001ff</v>
       </c>
       <c r="E6" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -8488,20 +8488,20 @@
       </c>
       <c r="H6" s="83">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I6" s="84">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41848</v>
+        <v>41851</v>
       </c>
       <c r="J6" s="72">
-        <v>2.6219840783358584E-2</v>
+        <v>2.6220781860683422E-2</v>
       </c>
       <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="75" t="str">
-        <v>obj_0022a</v>
+        <v>obj_00206</v>
       </c>
       <c r="E7" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -8517,20 +8517,20 @@
       </c>
       <c r="H7" s="83">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I7" s="84">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41877</v>
+        <v>41880</v>
       </c>
       <c r="J7" s="72">
-        <v>2.6192588652084126E-2</v>
+        <v>2.6193527123962577E-2</v>
       </c>
       <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="75" t="str">
-        <v>obj_00237</v>
+        <v>obj_00205</v>
       </c>
       <c r="E8" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
@@ -8546,20 +8546,20 @@
       </c>
       <c r="H8" s="83">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I8" s="84">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41908</v>
+        <v>41912</v>
       </c>
       <c r="J8" s="72">
-        <v>2.6660222840894286E-2</v>
+        <v>2.6660222840895125E-2</v>
       </c>
       <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="75" t="str">
-        <v>obj_0022d</v>
+        <v>obj_00201</v>
       </c>
       <c r="E9" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
@@ -8575,20 +8575,20 @@
       </c>
       <c r="H9" s="83">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I9" s="84">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41939</v>
+        <v>41943</v>
       </c>
       <c r="J9" s="72">
-        <v>2.7125644021980293E-2</v>
+        <v>2.7125644022131301E-2</v>
       </c>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="75" t="str">
-        <v>obj_0022f</v>
+        <v>obj_00207</v>
       </c>
       <c r="E10" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
@@ -8604,20 +8604,20 @@
       </c>
       <c r="H10" s="83">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I10" s="84">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41969</v>
+        <v>41971</v>
       </c>
       <c r="J10" s="72">
-        <v>2.7095542132073446E-2</v>
+        <v>2.7097546156212779E-2</v>
       </c>
       <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="75" t="str">
-        <v>obj_0022e</v>
+        <v>obj_00203</v>
       </c>
       <c r="E11" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="H11" s="83">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="I11" s="84">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="J11" s="72">
-        <v>2.7062532635831426E-2</v>
+        <v>2.7064530162451316E-2</v>
       </c>
       <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="75" t="str">
-        <v>obj_0023b</v>
+        <v>obj_00231</v>
       </c>
       <c r="E12" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="F12" s="76">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.6699999999999998E-2</v>
+        <v>2.6325000000000001E-2</v>
       </c>
       <c r="G12" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8662,20 +8662,20 @@
       </c>
       <c r="H12" s="83">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I12" s="84">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42181</v>
+        <v>42186</v>
       </c>
       <c r="J12" s="72">
-        <v>2.6608433682287869E-2</v>
+        <v>2.6233228799472933E-2</v>
       </c>
       <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="75" t="str">
-        <v>obj_0025d</v>
+        <v>obj_00252</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="F13" s="76">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.7700000000000006E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="G13" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8691,20 +8691,20 @@
       </c>
       <c r="H13" s="83">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I13" s="84">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42548</v>
+        <v>42552</v>
       </c>
       <c r="J13" s="72">
-        <v>2.7618882024267166E-2</v>
+        <v>2.7319172153558023E-2</v>
       </c>
       <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="75" t="str">
-        <v>obj_0024d</v>
+        <v>obj_0021c</v>
       </c>
       <c r="E14" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="F14" s="76">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.9175000000000003E-2</v>
+        <v>2.8875000000000001E-2</v>
       </c>
       <c r="G14" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8720,14 +8720,14 @@
       </c>
       <c r="H14" s="83">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I14" s="84">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42912</v>
+        <v>42919</v>
       </c>
       <c r="J14" s="72">
-        <v>2.9125410963452468E-2</v>
+        <v>2.8824165650756874E-2</v>
       </c>
       <c r="K14" s="77"/>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F15" s="76">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.1600000000000003E-2</v>
+        <v>3.1275000000000004E-2</v>
       </c>
       <c r="G15" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8749,20 +8749,20 @@
       </c>
       <c r="H15" s="83">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I15" s="84">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43277</v>
+        <v>43283</v>
       </c>
       <c r="J15" s="72">
-        <v>3.151224638718414E-2</v>
+        <v>3.1186083115662889E-2</v>
       </c>
       <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="75" t="str">
-        <v>obj_00209</v>
+        <v>obj_00240</v>
       </c>
       <c r="E16" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="F16" s="76">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.3250000000000002E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="G16" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8778,19 +8778,19 @@
       </c>
       <c r="H16" s="83">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I16" s="84">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43642</v>
+        <v>43647</v>
       </c>
       <c r="J16" s="72">
-        <v>3.3226107250177168E-2</v>
+        <v>3.2873118616616216E-2</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="75" t="str">
-        <v>obj_00205</v>
+        <v>obj_0023b</v>
       </c>
       <c r="E17" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="F17" s="76">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>3.635E-2</v>
+        <v>3.5950000000000003E-2</v>
       </c>
       <c r="G17" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8806,19 +8806,19 @@
       </c>
       <c r="H17" s="83">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I17" s="84">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="J17" s="72">
-        <v>3.6529627731411607E-2</v>
+        <v>3.6120584750176571E-2</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="75" t="str">
-        <v>obj_00204</v>
+        <v>obj_00257</v>
       </c>
       <c r="E18" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="F18" s="76">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>3.9599999999999996E-2</v>
+        <v>3.9149999999999997E-2</v>
       </c>
       <c r="G18" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8834,19 +8834,19 @@
       </c>
       <c r="H18" s="83">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I18" s="84">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="J18" s="72">
-        <v>4.0128583562196112E-2</v>
+        <v>3.9658338154086509E-2</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="75" t="str">
-        <v>obj_00217</v>
+        <v>obj_00228</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="F19" s="76">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>4.1200000000000001E-2</v>
+        <v>4.0750000000000001E-2</v>
       </c>
       <c r="G19" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8862,19 +8862,19 @@
       </c>
       <c r="H19" s="83">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I19" s="84">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>46199</v>
+        <v>46204</v>
       </c>
       <c r="J19" s="72">
-        <v>4.19730590992346E-2</v>
+        <v>4.1501847654894258E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="75" t="str">
-        <v>obj_0020e</v>
+        <v>obj_00255</v>
       </c>
       <c r="E20" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="F20" s="76">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>4.2700000000000002E-2</v>
+        <v>4.2224999999999999E-2</v>
       </c>
       <c r="G20" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8890,19 +8890,19 @@
       </c>
       <c r="H20" s="83">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I20" s="84">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>47295</v>
+        <v>47301</v>
       </c>
       <c r="J20" s="72">
-        <v>4.373146772790177E-2</v>
+        <v>4.3225607689703162E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="75" t="str">
-        <v>obj_00208</v>
+        <v>obj_0022e</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="F21" s="76">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>4.3875000000000004E-2</v>
+        <v>4.3425000000000005E-2</v>
       </c>
       <c r="G21" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8918,14 +8918,14 @@
       </c>
       <c r="H21" s="83">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I21" s="84">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>49121</v>
+        <v>49128</v>
       </c>
       <c r="J21" s="72">
-        <v>4.5084402291233699E-2</v>
+        <v>4.4617551209608232E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="F22" s="76">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.4424999999999999E-2</v>
+        <v>4.3950000000000003E-2</v>
       </c>
       <c r="G22" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8946,14 +8946,14 @@
       </c>
       <c r="H22" s="83">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41816</v>
+        <v>41821</v>
       </c>
       <c r="I22" s="84">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>52775</v>
+        <v>52779</v>
       </c>
       <c r="J22" s="72">
-        <v>4.5467405630092217E-2</v>
+        <v>4.4960729122119091E-2</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
@@ -11900,7 +11900,7 @@
     <col min="8" max="8" width="15.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="43" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="43" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="43"/>
   </cols>
@@ -11930,22 +11930,22 @@
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
       <c r="B2" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="D2" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="E2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>125</v>
-      </c>
       <c r="F2" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="59" t="s">
         <v>127</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>128</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>77</v>
@@ -11972,19 +11972,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="50" t="str">
         <f t="shared" ref="I3:I20" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="J3" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0001</v>
+        <v>obj_00209#0000</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -12003,26 +12003,26 @@
     <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="55">
         <v>0</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="50" t="str">
         <f>_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f5#0001</v>
+        <v>obj_001e6#0000</v>
       </c>
       <c r="I4" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="J4" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f6#0001</v>
+        <v>obj_001e7#0000</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="47"/>
@@ -12038,26 +12038,26 @@
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="55">
         <v>0</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="50" t="str">
         <f>_xll.qlIborIndex(,,"2D",C5,Currency,D5,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f4#0001</v>
+        <v>obj_001e5#0000</v>
       </c>
       <c r="I5" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="J5" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f7#0001</v>
+        <v>obj_001e8#0000</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="47"/>
@@ -12079,20 +12079,20 @@
         <v>0</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="50" t="str">
         <f>_xll.qlIborIndex(,,"1W",C6,Currency,D6,E6,F6,G6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f8#0001</v>
+        <v>obj_001eb#0000</v>
       </c>
       <c r="I6" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="J6" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021c#0001</v>
+        <v>obj_001f3#0000</v>
       </c>
       <c r="K6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12111,26 +12111,26 @@
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="55">
         <v>0</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="50" t="str">
         <f>_xll.qlIborIndex(,,B7,C7,Currency,D7,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00223#0001</v>
+        <v>obj_001f6#0000</v>
       </c>
       <c r="I7" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="J7" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0001</v>
+        <v>obj_001fd#0000</v>
       </c>
       <c r="K7" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12149,26 +12149,26 @@
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="55">
         <v>0</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" s="50" t="str">
         <f>_xll.qlIborIndex(,,B8,C8,Currency,D8,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00220#0001</v>
+        <v>obj_001ef#0000</v>
       </c>
       <c r="I8" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="J8" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00233#0001</v>
+        <v>obj_00208#0000</v>
       </c>
       <c r="K8" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>96</v>
@@ -12202,11 +12202,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="50" t="str">
         <f>_xll.qlIborIndex(,,B9,C9,Currency,D9,E9,F9,G9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021f#0001</v>
+        <v>obj_001ec#0000</v>
       </c>
       <c r="I9" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="J9" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00231#0001</v>
+        <v>obj_001ff#0000</v>
       </c>
       <c r="K9" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>96</v>
@@ -12240,11 +12240,11 @@
         <v>1</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" s="50" t="str">
         <f>_xll.qlIborIndex(,,B10,C10,Currency,D10,E10,F10,G10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00224#0001</v>
+        <v>obj_001f7#0000</v>
       </c>
       <c r="I10" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="J10" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0001</v>
+        <v>obj_00206#0000</v>
       </c>
       <c r="K10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>96</v>
@@ -12278,11 +12278,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="50" t="str">
         <f>_xll.qlIborIndex(,,B11,C11,Currency,D11,E11,F11,G11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021d#0001</v>
+        <v>obj_001f5#0000</v>
       </c>
       <c r="I11" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="J11" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00237#0001</v>
+        <v>obj_00205#0000</v>
       </c>
       <c r="K11" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -12301,13 +12301,13 @@
     <row r="12" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="55">
         <v>0</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>96</v>
@@ -12316,11 +12316,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="50" t="str">
         <f>_xll.qlIborIndex(,,B12,C12,Currency,D12,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021a#0001</v>
+        <v>obj_001ee#0000</v>
       </c>
       <c r="I12" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="J12" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022d#0001</v>
+        <v>obj_00201#0000</v>
       </c>
       <c r="K12" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -12339,13 +12339,13 @@
     <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="55">
         <v>0</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>96</v>
@@ -12354,11 +12354,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="50" t="str">
         <f>_xll.qlIborIndex(,,B13,C13,Currency,D13,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00222#0001</v>
+        <v>obj_001f4#0000</v>
       </c>
       <c r="I13" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="J13" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022f#0001</v>
+        <v>obj_00207#0000</v>
       </c>
       <c r="K13" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="55" t="s">
         <v>96</v>
@@ -12392,11 +12392,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="50" t="str">
         <f>_xll.qlIborIndex(,,B14,C14,Currency,D14,E14,F14,G14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021b#0001</v>
+        <v>obj_001f1#0000</v>
       </c>
       <c r="I14" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="J14" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022e#0001</v>
+        <v>obj_00203#0000</v>
       </c>
       <c r="K14" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -12415,13 +12415,13 @@
     <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="55">
         <v>0</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="55" t="s">
         <v>96</v>
@@ -12430,11 +12430,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="50" t="str">
         <f>_xll.qlIborIndex(,,B15,C15,Currency,D15,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0001</v>
+        <v>obj_001f0#0000</v>
       </c>
       <c r="I15" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="J15" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0001</v>
+        <v>obj_00204#0000</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -12453,13 +12453,13 @@
     <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="55">
         <v>0</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="55" t="s">
         <v>96</v>
@@ -12468,11 +12468,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="50" t="str">
         <f>_xll.qlIborIndex(,,B16,C16,Currency,D16,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0001</v>
+        <v>obj_001ed#0000</v>
       </c>
       <c r="I16" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="J16" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00230#0001</v>
+        <v>obj_001fb#0000</v>
       </c>
       <c r="K16" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -12491,13 +12491,13 @@
     <row r="17" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="55">
         <v>0</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="55" t="s">
         <v>96</v>
@@ -12506,11 +12506,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="50" t="str">
         <f>_xll.qlIborIndex(,,B17,C17,Currency,D17,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00221#0001</v>
+        <v>obj_001f2#0000</v>
       </c>
       <c r="I17" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="J17" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022c#0001</v>
+        <v>obj_001fe#0000</v>
       </c>
       <c r="K17" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -12529,13 +12529,13 @@
     <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="55">
         <v>0</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="55" t="s">
         <v>96</v>
@@ -12544,11 +12544,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="50" t="str">
         <f>_xll.qlIborIndex(,,B18,C18,Currency,D18,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00226#0001</v>
+        <v>obj_001fa#0000</v>
       </c>
       <c r="I18" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="J18" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00236#0001</v>
+        <v>obj_00202#0000</v>
       </c>
       <c r="K18" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -12567,13 +12567,13 @@
     <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="55">
         <v>0</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="55" t="s">
         <v>96</v>
@@ -12582,11 +12582,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="50" t="str">
         <f>_xll.qlIborIndex(,,B19,C19,Currency,D19,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00225#0001</v>
+        <v>obj_001f9#0000</v>
       </c>
       <c r="I19" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="J19" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00234#0001</v>
+        <v>obj_001fc#0000</v>
       </c>
       <c r="K19" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>96</v>
@@ -12620,11 +12620,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="50" t="str">
         <f>_xll.qlIborIndex(,,B20,C20,Currency,D20,E20,F20,G20,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021e#0001</v>
+        <v>obj_001f8#0000</v>
       </c>
       <c r="I20" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="J20" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00235#0001</v>
+        <v>obj_00200#0000</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="47"/>
@@ -12686,8 +12686,8 @@
     <col min="6" max="6" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="43" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="H3" s="137" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024c#0001</v>
+        <v>obj_0021a#0000</v>
       </c>
       <c r="I3" s="53" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00239#0001</v>
+        <v>obj_00229#0000</v>
       </c>
       <c r="I4" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00249#0001</v>
+        <v>obj_0022a#0000</v>
       </c>
       <c r="I5" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -12869,7 +12869,7 @@
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025f#0001</v>
+        <v>obj_00215#0000</v>
       </c>
       <c r="I6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00248#0001</v>
+        <v>obj_00222#0000</v>
       </c>
       <c r="I7" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00265#0001</v>
+        <v>obj_00211#0000</v>
       </c>
       <c r="I8" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00238#0001</v>
+        <v>obj_00220#0000</v>
       </c>
       <c r="I9" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00251#0001</v>
+        <v>obj_00214#0000</v>
       </c>
       <c r="I10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025e#0001</v>
+        <v>obj_00225#0000</v>
       </c>
       <c r="I11" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00257#0001</v>
+        <v>obj_00224#0000</v>
       </c>
       <c r="I12" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00252#0001</v>
+        <v>obj_00217#0000</v>
       </c>
       <c r="I13" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024e#0001</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="I14" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00242#0001</v>
+        <v>obj_00237#0000</v>
       </c>
       <c r="I15" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00267#0001</v>
+        <v>obj_0022c#0000</v>
       </c>
       <c r="I16" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00266#0001</v>
+        <v>obj_00226#0000</v>
       </c>
       <c r="I17" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00253#0001</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="I18" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00241#0001</v>
+        <v>obj_00213#0000</v>
       </c>
       <c r="I19" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00247#0001</v>
+        <v>obj_0020f#0000</v>
       </c>
       <c r="I20" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00263#0001</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="I21" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00243#0001</v>
+        <v>obj_00218#0000</v>
       </c>
       <c r="I22" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025a#0001</v>
+        <v>obj_00219#0000</v>
       </c>
       <c r="I23" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00264#0001</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="I24" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024b#0001</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="I25" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024a#0001</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="I26" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025b#0001</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="I27" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -13617,7 +13617,7 @@
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00258#0001</v>
+        <v>obj_0022b#0000</v>
       </c>
       <c r="I28" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -13651,7 +13651,7 @@
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00246#0001</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="I29" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023f#0001</v>
+        <v>obj_0020e#0000</v>
       </c>
       <c r="I30" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00260#0001</v>
+        <v>obj_00238#0000</v>
       </c>
       <c r="I31" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00254#0001</v>
+        <v>obj_00233#0000</v>
       </c>
       <c r="I32" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00259#0001</v>
+        <v>obj_00230#0000</v>
       </c>
       <c r="I33" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00245#0001</v>
+        <v>obj_0023a#0000</v>
       </c>
       <c r="I34" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -13855,7 +13855,7 @@
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00240#0001</v>
+        <v>obj_00221#0000</v>
       </c>
       <c r="I35" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00262#0001</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="I36" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023e#0001</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="I37" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -13957,7 +13957,7 @@
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00250#0001</v>
+        <v>obj_00223#0000</v>
       </c>
       <c r="I38" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023d#0001</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="I39" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -14025,7 +14025,7 @@
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024f#0001</v>
+        <v>obj_00210#0000</v>
       </c>
       <c r="I40" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025c#0001</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="I41" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00261#0001</v>
+        <v>obj_00232#0000</v>
       </c>
       <c r="I42" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023c#0001</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="I43" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00256#0001</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="I44" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -14203,7 +14203,7 @@
     <col min="9" max="9" width="8" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="153" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="43" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" style="43" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="43" customWidth="1"/>
     <col min="14" max="14" width="2.5703125" style="43" customWidth="1"/>
     <col min="15" max="15" width="4" style="43" bestFit="1" customWidth="1"/>
@@ -14238,22 +14238,22 @@
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
       <c r="B2" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59"/>
       <c r="F2" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>76</v>
@@ -14281,7 +14281,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="167" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IndexTenor,NDays,Currency,Calendar,"mf",TRUE,"Actual/365 (fixed)",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00211#0001</v>
+        <v>obj_001ea#0000</v>
       </c>
       <c r="L3" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -14302,7 +14302,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="168" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"6M",NDays,Currency,Calendar,"mf",TRUE,"Actual/365 (fixed)",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f9#0001</v>
+        <v>obj_001e9#0000</v>
       </c>
       <c r="L4" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -14331,25 +14331,25 @@
     <row r="6" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="160" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C6" s="160" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="160" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="161" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="162">
         <v>0</v>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0023b#0001</v>
+        <v>obj_00231#0001</v>
       </c>
       <c r="L6" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14374,25 +14374,25 @@
     <row r="7" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="160" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C7" s="160" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="160" t="s">
-        <v>131</v>
-      </c>
       <c r="F7" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="165" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="162">
         <v>0</v>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00255#0001</v>
+        <v>obj_00235#0003</v>
       </c>
       <c r="L7" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14417,25 +14417,25 @@
     <row r="8" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="160" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C8" s="160" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="160" t="s">
-        <v>131</v>
-      </c>
       <c r="F8" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="165" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="162">
         <v>0</v>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0023a#0001</v>
+        <v>obj_0022f#0003</v>
       </c>
       <c r="L8" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14460,25 +14460,25 @@
     <row r="9" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="160" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C9" s="160" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="160" t="s">
-        <v>131</v>
-      </c>
       <c r="F9" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="165" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="162">
         <v>0</v>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00244#0001</v>
+        <v>obj_00239#0003</v>
       </c>
       <c r="L9" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14503,25 +14503,25 @@
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="160" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C10" s="160" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="160" t="s">
-        <v>131</v>
-      </c>
       <c r="F10" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="165" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="162">
         <v>0</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0025d#0001</v>
+        <v>obj_00252#0003</v>
       </c>
       <c r="L10" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14546,25 +14546,25 @@
     <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="160" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C11" s="160" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="160" t="s">
-        <v>131</v>
-      </c>
       <c r="F11" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="165" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="162">
         <v>0</v>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0024d#0001</v>
+        <v>obj_0021c#0003</v>
       </c>
       <c r="L11" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14589,25 +14589,25 @@
     <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C12" s="148" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F12" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H12" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="149">
         <v>0</v>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="K12" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020b#0001</v>
+        <v>obj_0020b#0003</v>
       </c>
       <c r="L12" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -14631,25 +14631,25 @@
     <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C13" s="148" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F13" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H13" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="149">
         <v>0</v>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="K13" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00209#0001</v>
+        <v>obj_00240#0003</v>
       </c>
       <c r="L13" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -14673,25 +14673,25 @@
     <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C14" s="148" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F14" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="149">
         <v>0</v>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="K14" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_001fc#0001</v>
+        <v>obj_0021f#0003</v>
       </c>
       <c r="L14" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -14714,25 +14714,25 @@
     <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C15" s="148" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" s="149">
         <v>0</v>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="K15" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00205#0001</v>
+        <v>obj_0023b#0003</v>
       </c>
       <c r="L15" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -14755,25 +14755,25 @@
     <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F16" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H16" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="149">
         <v>0</v>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="K16" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00200#0001</v>
+        <v>obj_0022d#0003</v>
       </c>
       <c r="L16" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -14796,25 +14796,25 @@
     <row r="17" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C17" s="148" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F17" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="149">
         <v>0</v>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="K17" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00202#0001</v>
+        <v>obj_0020c#0003</v>
       </c>
       <c r="L17" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -14837,25 +14837,25 @@
     <row r="18" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C18" s="148" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F18" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H18" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="149">
         <v>0</v>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="K18" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00204#0001</v>
+        <v>obj_00257#0003</v>
       </c>
       <c r="L18" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -14878,25 +14878,25 @@
     <row r="19" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C19" s="148" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F19" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="149">
         <v>0</v>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="K19" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00206#0001</v>
+        <v>obj_0023d#0003</v>
       </c>
       <c r="L19" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -14918,25 +14918,25 @@
     <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C20" s="148" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H20" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" s="149">
         <v>0</v>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="K20" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00217#0001</v>
+        <v>obj_00228#0003</v>
       </c>
       <c r="L20" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -14958,25 +14958,25 @@
     <row r="21" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
       <c r="B21" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C21" s="148" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F21" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I21" s="149">
         <v>0</v>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="K21" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_001fe#0001</v>
+        <v>obj_00236#0003</v>
       </c>
       <c r="L21" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -14998,25 +14998,25 @@
     <row r="22" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="B22" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C22" s="148" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F22" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" s="149">
         <v>0</v>
@@ -15027,7 +15027,7 @@
       </c>
       <c r="K22" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020c#0001</v>
+        <v>obj_0021d#0003</v>
       </c>
       <c r="L22" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -15038,25 +15038,25 @@
     <row r="23" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="B23" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C23" s="148" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F23" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="149">
         <v>0</v>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="K23" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020e#0001</v>
+        <v>obj_00255#0003</v>
       </c>
       <c r="L23" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -15078,25 +15078,25 @@
     <row r="24" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C24" s="148" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F24" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H24" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" s="149">
         <v>0</v>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="K24" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00210#0001</v>
+        <v>obj_00234#0003</v>
       </c>
       <c r="L24" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -15118,25 +15118,25 @@
     <row r="25" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C25" s="148" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F25" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" s="149">
         <v>0</v>
@@ -15147,7 +15147,7 @@
       </c>
       <c r="K25" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00213#0001</v>
+        <v>obj_0024c#0003</v>
       </c>
       <c r="L25" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -15158,25 +15158,25 @@
     <row r="26" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
       <c r="B26" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C26" s="148" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F26" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I26" s="149">
         <v>0</v>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="K26" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00215#0001</v>
+        <v>obj_00227#0003</v>
       </c>
       <c r="L26" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -15198,25 +15198,25 @@
     <row r="27" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C27" s="148" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F27" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I27" s="149">
         <v>0</v>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="K27" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00218#0001</v>
+        <v>obj_0024b#0003</v>
       </c>
       <c r="L27" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15238,25 +15238,25 @@
     <row r="28" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
       <c r="B28" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C28" s="148" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F28" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H28" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="149">
         <v>0</v>
@@ -15267,7 +15267,7 @@
       </c>
       <c r="K28" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00208#0001</v>
+        <v>obj_0022e#0003</v>
       </c>
       <c r="L28" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15278,25 +15278,25 @@
     <row r="29" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
       <c r="B29" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C29" s="148" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F29" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H29" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I29" s="149">
         <v>0</v>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="K29" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020a#0001</v>
+        <v>obj_00245#0003</v>
       </c>
       <c r="L29" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15318,25 +15318,25 @@
     <row r="30" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C30" s="148" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F30" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H30" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I30" s="149">
         <v>0</v>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="K30" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00201#0001</v>
+        <v>obj_00246#0003</v>
       </c>
       <c r="L30" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15358,25 +15358,25 @@
     <row r="31" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
       <c r="B31" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C31" s="148" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F31" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H31" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="149">
         <v>0</v>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="K31" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_001ff#0001</v>
+        <v>obj_00216#0003</v>
       </c>
       <c r="L31" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15398,25 +15398,25 @@
     <row r="32" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
       <c r="B32" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C32" s="148" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F32" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" s="149">
         <v>0</v>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="K32" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020d#0001</v>
+        <v>obj_0020a#0003</v>
       </c>
       <c r="L32" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15438,25 +15438,25 @@
     <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C33" s="148" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F33" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I33" s="149">
         <v>0</v>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="K33" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00203#0001</v>
+        <v>obj_0023e#0003</v>
       </c>
       <c r="L33" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15478,25 +15478,25 @@
     <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
       <c r="B34" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C34" s="148" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F34" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H34" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="149">
         <v>0</v>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="K34" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_001fd#0001</v>
+        <v>obj_0020d#0003</v>
       </c>
       <c r="L34" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -15518,25 +15518,25 @@
     <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C35" s="148" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F35" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H35" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="149">
         <v>0</v>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="K35" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00207#0001</v>
+        <v>obj_00244#0003</v>
       </c>
       <c r="L35" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -15558,25 +15558,25 @@
     <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C36" s="148" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F36" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H36" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="149">
         <v>0</v>
@@ -15587,7 +15587,7 @@
       </c>
       <c r="K36" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00216#0001</v>
+        <v>obj_0023f#0003</v>
       </c>
       <c r="L36" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -15598,25 +15598,25 @@
     <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C37" s="148" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F37" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H37" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="149">
         <v>0</v>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="K37" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_001fb#0001</v>
+        <v>obj_00243#0003</v>
       </c>
       <c r="L37" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -15638,25 +15638,25 @@
     <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C38" s="148" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F38" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H38" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I38" s="149">
         <v>0</v>
@@ -15667,7 +15667,7 @@
       </c>
       <c r="K38" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00212#0001</v>
+        <v>obj_00212#0003</v>
       </c>
       <c r="L38" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -15678,25 +15678,25 @@
     <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C39" s="148" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F39" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H39" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I39" s="149">
         <v>0</v>
@@ -15707,7 +15707,7 @@
       </c>
       <c r="K39" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020f#0001</v>
+        <v>obj_0021b#0003</v>
       </c>
       <c r="L39" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -15718,25 +15718,25 @@
     <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52"/>
       <c r="B40" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C40" s="148" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F40" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H40" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I40" s="149">
         <v>0</v>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="K40" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00219#0001</v>
+        <v>obj_0021e#0003</v>
       </c>
       <c r="L40" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -15758,25 +15758,25 @@
     <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C41" s="148" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F41" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G41" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H41" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="149">
         <v>0</v>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="K41" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00214#0001</v>
+        <v>obj_0024a#0003</v>
       </c>
       <c r="L41" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -15798,25 +15798,25 @@
     <row r="42" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="148" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C42" s="148" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="148" t="s">
-        <v>135</v>
-      </c>
       <c r="F42" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="135" t="s">
         <v>96</v>
       </c>
       <c r="H42" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I42" s="149">
         <v>0</v>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="K42" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_001fa#0001</v>
+        <v>obj_0024d#0003</v>
       </c>
       <c r="L42" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/AUD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_YCSTDBootstrapping.xlsx
@@ -14,6 +14,9 @@
     <sheet name="Futures" sheetId="9" r:id="rId5"/>
     <sheet name="Swaps" sheetId="13" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$K$13</definedName>
@@ -1701,6 +1704,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="BBSW"/>
+      <sheetName val="BBSWSwapForBasisCalc"/>
+      <sheetName val="OIS"/>
+      <sheetName val="MT_OIS"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures1M"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="BasisSwap1M3M"/>
+      <sheetName val="BasisSwap3M6M"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="J13" t="str">
+            <v>AUDSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2011,7 +2059,7 @@
     <row r="1" spans="1:31" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2340,9 +2388,7 @@
       <c r="C11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="24">
-        <v>41820.435497685183</v>
-      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="27"/>
@@ -2461,7 +2507,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_AUDYCSTD#0004</v>
+        <v>_AUDYCSTD#0001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2797,11 +2843,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.4960729122119091E-2</v>
+        <v>4.3481067070813298E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2836,11 +2882,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52779</v>
+        <v>52904</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.6193527123962577E-2</v>
+        <v>2.6192588652085007E-2</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2912,8 +2958,8 @@
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
-        <f>Currency&amp;"STD"</f>
-        <v>AUDSTD</v>
+        <f>[1]BBSW!$J$13</f>
+        <v>AUDSTD#0000</v>
       </c>
       <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -4305,7 +4351,7 @@
       </c>
       <c r="C2" s="107" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00209#0000</v>
+        <v>obj_00401#0001</v>
       </c>
       <c r="D2" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C2),"LastFixing","D"),"Libor","")</f>
@@ -4327,11 +4373,11 @@
       </c>
       <c r="J2" s="109">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K2" s="110">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="L2" s="60">
         <v>10</v>
@@ -4347,7 +4393,7 @@
       </c>
       <c r="C3" s="107" t="str">
         <f>Deposits!J4</f>
-        <v>obj_001e7#0000</v>
+        <v>obj_003ed#0001</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C3),"LastFixing","D"),"Libor","")</f>
@@ -4370,11 +4416,11 @@
       </c>
       <c r="J3" s="109">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K3" s="110">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="L3" s="60"/>
     </row>
@@ -4385,7 +4431,7 @@
       </c>
       <c r="C4" s="107" t="str">
         <f>Deposits!J5</f>
-        <v>obj_001e8#0000</v>
+        <v>obj_003ee#0001</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C4),"LastFixing","D"),"Libor","")</f>
@@ -4408,11 +4454,11 @@
       </c>
       <c r="J4" s="109">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K4" s="110">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>41822</v>
+        <v>41947</v>
       </c>
       <c r="L4" s="60"/>
     </row>
@@ -4424,7 +4470,7 @@
       </c>
       <c r="C5" s="107" t="str">
         <f>Deposits!J6</f>
-        <v>obj_001f3#0000</v>
+        <v>obj_003f2#0001</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C5),"LastFixing","D"),"Libor","")</f>
@@ -4447,11 +4493,11 @@
       </c>
       <c r="J5" s="109">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K5" s="110">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>41827</v>
+        <v>41950</v>
       </c>
       <c r="L5" s="60">
         <v>60</v>
@@ -4468,7 +4514,7 @@
       </c>
       <c r="C6" s="107" t="str">
         <f>Deposits!J7</f>
-        <v>obj_001fd#0000</v>
+        <v>obj_00408#0001</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C6),"LastFixing","D"),"Libor","")</f>
@@ -4491,11 +4537,11 @@
       </c>
       <c r="J6" s="109">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K6" s="110">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>41834</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,7 +4552,7 @@
       </c>
       <c r="C7" s="107" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00208#0000</v>
+        <v>obj_0040d#0001</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C7),"LastFixing","D"),"Libor","")</f>
@@ -4528,11 +4574,11 @@
       </c>
       <c r="J7" s="109">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K7" s="110">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>41841</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,7 +4589,7 @@
       </c>
       <c r="C8" s="107" t="str">
         <f>Deposits!J9</f>
-        <v>obj_001ff#0000</v>
+        <v>obj_0040c#0001</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C8),"LastFixing","D"),"Libor","")</f>
@@ -4566,11 +4612,11 @@
       </c>
       <c r="J8" s="109">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K8" s="110">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>41851</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4581,7 +4627,7 @@
       </c>
       <c r="C9" s="107" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00206#0000</v>
+        <v>obj_00409#0001</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C9),"LastFixing","D"),"Libor","")</f>
@@ -4604,11 +4650,11 @@
       </c>
       <c r="J9" s="109">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K9" s="110">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>41880</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,7 +4665,7 @@
       </c>
       <c r="C10" s="107" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00205#0000</v>
+        <v>obj_00407#0001</v>
       </c>
       <c r="D10" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C10),"LastFixing","D"),"Libor","")</f>
@@ -4627,7 +4673,7 @@
       </c>
       <c r="E10" s="108">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
-        <v>2.6750000000000003E-2</v>
+        <v>2.6749999999999999E-2</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="62" t="b">
@@ -4642,11 +4688,11 @@
       </c>
       <c r="J10" s="109">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K10" s="110">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>41912</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,7 +4703,7 @@
       </c>
       <c r="C11" s="107" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00201#0000</v>
+        <v>obj_00402#0001</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C11),"LastFixing","D"),"Libor","")</f>
@@ -4680,11 +4726,11 @@
       </c>
       <c r="J11" s="109">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K11" s="110">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
-        <v>41943</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,7 +4741,7 @@
       </c>
       <c r="C12" s="107" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00207#0000</v>
+        <v>obj_0040b#0001</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C12),"LastFixing","D"),"Libor","")</f>
@@ -4718,11 +4764,11 @@
       </c>
       <c r="J12" s="109">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K12" s="110">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
-        <v>41971</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,7 +4779,7 @@
       </c>
       <c r="C13" s="107" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00203#0000</v>
+        <v>obj_00403#0001</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C13),"LastFixing","D"),"Libor","")</f>
@@ -4756,11 +4802,11 @@
       </c>
       <c r="J13" s="109">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K13" s="110">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42004</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4817,7 @@
       </c>
       <c r="C14" s="107" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00204#0000</v>
+        <v>obj_00405#0001</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C14),"LastFixing","D"),"Libor","")</f>
@@ -4793,11 +4839,11 @@
       </c>
       <c r="J14" s="109">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K14" s="110">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42034</v>
+        <v>42153</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,7 +4854,7 @@
       </c>
       <c r="C15" s="107" t="str">
         <f>Deposits!J16</f>
-        <v>obj_001fb#0000</v>
+        <v>obj_00404#0001</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C15),"LastFixing","D"),"Libor","")</f>
@@ -4830,11 +4876,11 @@
       </c>
       <c r="J15" s="109">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K15" s="110">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4845,7 +4891,7 @@
       </c>
       <c r="C16" s="107" t="str">
         <f>Deposits!J17</f>
-        <v>obj_001fe#0000</v>
+        <v>obj_0040a#0001</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C16),"LastFixing","D"),"Libor","")</f>
@@ -4867,11 +4913,11 @@
       </c>
       <c r="J16" s="109">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K16" s="110">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42094</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,7 +4928,7 @@
       </c>
       <c r="C17" s="107" t="str">
         <f>Deposits!J18</f>
-        <v>obj_00202#0000</v>
+        <v>obj_0040f#0001</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C17),"LastFixing","D"),"Libor","")</f>
@@ -4904,11 +4950,11 @@
       </c>
       <c r="J17" s="109">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K17" s="110">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42124</v>
+        <v>42247</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4919,7 +4965,7 @@
       </c>
       <c r="C18" s="107" t="str">
         <f>Deposits!J19</f>
-        <v>obj_001fc#0000</v>
+        <v>obj_00406#0001</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C18),"LastFixing","D"),"Libor","")</f>
@@ -4927,7 +4973,7 @@
       </c>
       <c r="E18" s="108">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>2.9250000000000002E-2</v>
+        <v>2.9249999999999998E-2</v>
       </c>
       <c r="F18" s="108"/>
       <c r="G18" s="62" t="b">
@@ -4941,11 +4987,11 @@
       </c>
       <c r="J18" s="109">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K18" s="110">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42153</v>
+        <v>42277</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4956,7 +5002,7 @@
       </c>
       <c r="C19" s="107" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00200#0000</v>
+        <v>obj_0040e#0001</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C19),"LastFixing","D"),"Libor","")</f>
@@ -4978,11 +5024,11 @@
       </c>
       <c r="J19" s="109">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="K19" s="110">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42185</v>
+        <v>42307</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,15 +5037,15 @@
       </c>
       <c r="B20" s="120" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(D20,"AUDFUT3M",""),"_Quote","")</f>
-        <v>N4</v>
+        <v>X4</v>
       </c>
       <c r="C20" s="120" t="str">
         <f>Futures!H3</f>
-        <v>obj_0021a#0000</v>
+        <v>obj_00440#0001</v>
       </c>
       <c r="D20" s="120" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C20),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MN4_Quote</v>
+        <v>AUDFUT3MX4_Quote</v>
       </c>
       <c r="E20" s="169" t="e">
         <f>_xll.qlRateHelperQuoteValue(C20,Trigger)</f>
@@ -5020,11 +5066,11 @@
       </c>
       <c r="J20" s="123">
         <f>_xll.qlRateHelperEarliestDate($C20,Trigger)</f>
-        <v>41836</v>
+        <v>41962</v>
       </c>
       <c r="K20" s="124">
         <f>_xll.qlRateHelperLatestDate($C20,Trigger)</f>
-        <v>41928</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5033,23 +5079,23 @@
       </c>
       <c r="B21" s="107" t="str">
         <f t="shared" ref="B21:B61" si="3">SUBSTITUTE(SUBSTITUTE(D21,"AUDFUT3M",""),"_Quote","")</f>
-        <v>Q4</v>
+        <v>Z4</v>
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!H4</f>
-        <v>obj_00229#0000</v>
+        <v>obj_0044f#0001</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C21),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MQ4_Quote</v>
-      </c>
-      <c r="E21" s="118" t="e">
+        <v>AUDFUT3MZ4_Quote</v>
+      </c>
+      <c r="E21" s="118">
         <f>_xll.qlRateHelperQuoteValue(C21,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F21" s="108" t="e">
+        <v>97.295000000000002</v>
+      </c>
+      <c r="F21" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G21" s="62" t="b">
         <v>0</v>
@@ -5062,11 +5108,11 @@
       </c>
       <c r="J21" s="109">
         <f>_xll.qlRateHelperEarliestDate($C21,Trigger)</f>
-        <v>41871</v>
+        <v>41990</v>
       </c>
       <c r="K21" s="110">
         <f>_xll.qlRateHelperLatestDate($C21,Trigger)</f>
-        <v>41963</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5075,19 +5121,19 @@
       </c>
       <c r="B22" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U4</v>
+        <v>F5</v>
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!H5</f>
-        <v>obj_0022a#0000</v>
+        <v>obj_00452#0001</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C22),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU4_Quote</v>
+        <v>AUDFUT3MF5_Quote</v>
       </c>
       <c r="E22" s="118">
         <f>_xll.qlRateHelperQuoteValue(C22,Trigger)</f>
-        <v>97.344999999999999</v>
+        <v>97.324999999999989</v>
       </c>
       <c r="F22" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C22,Trigger)</f>
@@ -5104,11 +5150,11 @@
       </c>
       <c r="J22" s="109">
         <f>_xll.qlRateHelperEarliestDate($C22,Trigger)</f>
-        <v>41899</v>
+        <v>42025</v>
       </c>
       <c r="K22" s="110">
         <f>_xll.qlRateHelperLatestDate($C22,Trigger)</f>
-        <v>41990</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,15 +5163,15 @@
       </c>
       <c r="B23" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>V4</v>
+        <v>G5</v>
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!H6</f>
-        <v>obj_00215#0000</v>
+        <v>obj_00432#0001</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C23),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MV4_Quote</v>
+        <v>AUDFUT3MG5_Quote</v>
       </c>
       <c r="E23" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C23,Trigger)</f>
@@ -5146,11 +5192,11 @@
       </c>
       <c r="J23" s="109">
         <f>_xll.qlRateHelperEarliestDate($C23,Trigger)</f>
-        <v>41927</v>
+        <v>42053</v>
       </c>
       <c r="K23" s="110">
         <f>_xll.qlRateHelperLatestDate($C23,Trigger)</f>
-        <v>42019</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5159,23 +5205,23 @@
       </c>
       <c r="B24" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>X4</v>
+        <v>H5</v>
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!H7</f>
-        <v>obj_00222#0000</v>
+        <v>obj_00429#0001</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C24),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MX4_Quote</v>
-      </c>
-      <c r="E24" s="118" t="e">
+        <v>AUDFUT3MH5_Quote</v>
+      </c>
+      <c r="E24" s="118">
         <f>_xll.qlRateHelperQuoteValue(C24,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F24" s="108" t="e">
+        <v>97.324999999999989</v>
+      </c>
+      <c r="F24" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C24,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G24" s="62" t="b">
         <v>0</v>
@@ -5188,11 +5234,11 @@
       </c>
       <c r="J24" s="109">
         <f>_xll.qlRateHelperEarliestDate($C24,Trigger)</f>
-        <v>41962</v>
+        <v>42081</v>
       </c>
       <c r="K24" s="110">
         <f>_xll.qlRateHelperLatestDate($C24,Trigger)</f>
-        <v>42054</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5201,19 +5247,19 @@
       </c>
       <c r="B25" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z4</v>
+        <v>J5</v>
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!H8</f>
-        <v>obj_00211#0000</v>
+        <v>obj_00424#0001</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C25),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ4_Quote</v>
+        <v>AUDFUT3MJ5_Quote</v>
       </c>
       <c r="E25" s="118">
         <f>_xll.qlRateHelperQuoteValue(C25,Trigger)</f>
-        <v>97.39500000000001</v>
+        <v>97.305000000000007</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C25,Trigger)</f>
@@ -5230,11 +5276,11 @@
       </c>
       <c r="J25" s="109">
         <f>_xll.qlRateHelperEarliestDate($C25,Trigger)</f>
-        <v>41990</v>
+        <v>42109</v>
       </c>
       <c r="K25" s="110">
         <f>_xll.qlRateHelperLatestDate($C25,Trigger)</f>
-        <v>42080</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,15 +5289,15 @@
       </c>
       <c r="B26" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>F5</v>
+        <v>K5</v>
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!H9</f>
-        <v>obj_00220#0000</v>
+        <v>obj_00420#0001</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C26),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MF5_Quote</v>
+        <v>AUDFUT3MK5_Quote</v>
       </c>
       <c r="E26" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C26,Trigger)</f>
@@ -5272,11 +5318,11 @@
       </c>
       <c r="J26" s="109">
         <f>_xll.qlRateHelperEarliestDate($C26,Trigger)</f>
-        <v>42025</v>
+        <v>42144</v>
       </c>
       <c r="K26" s="110">
         <f>_xll.qlRateHelperLatestDate($C26,Trigger)</f>
-        <v>42115</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,23 +5331,23 @@
       </c>
       <c r="B27" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>G5</v>
+        <v>M5</v>
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!H10</f>
-        <v>obj_00214#0000</v>
+        <v>obj_00446#0001</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C27),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MG5_Quote</v>
-      </c>
-      <c r="E27" s="118" t="e">
+        <v>AUDFUT3MM5_Quote</v>
+      </c>
+      <c r="E27" s="118">
         <f>_xll.qlRateHelperQuoteValue(C27,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F27" s="108" t="e">
+        <v>97.35499999999999</v>
+      </c>
+      <c r="F27" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C27,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G27" s="62" t="b">
         <v>0</v>
@@ -5314,11 +5360,11 @@
       </c>
       <c r="J27" s="109">
         <f>_xll.qlRateHelperEarliestDate($C27,Trigger)</f>
-        <v>42053</v>
+        <v>42172</v>
       </c>
       <c r="K27" s="110">
         <f>_xll.qlRateHelperLatestDate($C27,Trigger)</f>
-        <v>42142</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5327,19 +5373,19 @@
       </c>
       <c r="B28" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H5</v>
+        <v>N5</v>
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!H11</f>
-        <v>obj_00225#0000</v>
+        <v>obj_0045e#0001</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C28),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH5_Quote</v>
+        <v>AUDFUT3MN5_Quote</v>
       </c>
       <c r="E28" s="118">
         <f>_xll.qlRateHelperQuoteValue(C28,Trigger)</f>
-        <v>97.384999999999991</v>
+        <v>97.275000000000006</v>
       </c>
       <c r="F28" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C28,Trigger)</f>
@@ -5356,11 +5402,11 @@
       </c>
       <c r="J28" s="109">
         <f>_xll.qlRateHelperEarliestDate($C28,Trigger)</f>
-        <v>42081</v>
+        <v>42200</v>
       </c>
       <c r="K28" s="110">
         <f>_xll.qlRateHelperLatestDate($C28,Trigger)</f>
-        <v>42173</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5369,15 +5415,15 @@
       </c>
       <c r="B29" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>J5</v>
+        <v>Q5</v>
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!H12</f>
-        <v>obj_00224#0000</v>
+        <v>obj_00459#0001</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C29),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MJ5_Quote</v>
+        <v>AUDFUT3MQ5_Quote</v>
       </c>
       <c r="E29" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C29,Trigger)</f>
@@ -5398,11 +5444,11 @@
       </c>
       <c r="J29" s="109">
         <f>_xll.qlRateHelperEarliestDate($C29,Trigger)</f>
-        <v>42109</v>
+        <v>42235</v>
       </c>
       <c r="K29" s="110">
         <f>_xll.qlRateHelperLatestDate($C29,Trigger)</f>
-        <v>42200</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5411,23 +5457,23 @@
       </c>
       <c r="B30" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!H13</f>
-        <v>obj_00217#0000</v>
+        <v>obj_0041a#0001</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C30),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MK5_Quote</v>
-      </c>
-      <c r="E30" s="118" t="e">
+        <v>AUDFUT3MU5_Quote</v>
+      </c>
+      <c r="E30" s="118">
         <f>_xll.qlRateHelperQuoteValue(C30,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F30" s="108" t="e">
+        <v>97.335000000000008</v>
+      </c>
+      <c r="F30" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C30,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G30" s="62" t="b">
         <v>0</v>
@@ -5440,11 +5486,11 @@
       </c>
       <c r="J30" s="109">
         <f>_xll.qlRateHelperEarliestDate($C30,Trigger)</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="K30" s="110">
         <f>_xll.qlRateHelperLatestDate($C30,Trigger)</f>
-        <v>42236</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,19 +5499,19 @@
       </c>
       <c r="B31" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!H14</f>
-        <v>obj_00250#0000</v>
+        <v>obj_00423#0001</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C31),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM5_Quote</v>
+        <v>AUDFUT3MV5_Quote</v>
       </c>
       <c r="E31" s="118">
         <f>_xll.qlRateHelperQuoteValue(C31,Trigger)</f>
-        <v>97.325000000000003</v>
+        <v>97.234999999999999</v>
       </c>
       <c r="F31" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C31,Trigger)</f>
@@ -5482,11 +5528,11 @@
       </c>
       <c r="J31" s="109">
         <f>_xll.qlRateHelperEarliestDate($C31,Trigger)</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="K31" s="110">
         <f>_xll.qlRateHelperLatestDate($C31,Trigger)</f>
-        <v>42264</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5495,19 +5541,19 @@
       </c>
       <c r="B32" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!H15</f>
-        <v>obj_00237#0000</v>
+        <v>obj_00436#0001</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C32),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU5_Quote</v>
+        <v>AUDFUT3MZ5_Quote</v>
       </c>
       <c r="E32" s="118">
         <f>_xll.qlRateHelperQuoteValue(C32,Trigger)</f>
-        <v>97.235000000000014</v>
+        <v>97.295000000000002</v>
       </c>
       <c r="F32" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C32,Trigger)</f>
@@ -5524,11 +5570,11 @@
       </c>
       <c r="J32" s="109">
         <f>_xll.qlRateHelperEarliestDate($C32,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="K32" s="110">
         <f>_xll.qlRateHelperLatestDate($C32,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5537,19 +5583,19 @@
       </c>
       <c r="B33" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!H16</f>
-        <v>obj_0022c#0000</v>
+        <v>obj_00447#0001</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C33),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ5_Quote</v>
+        <v>AUDFUT3MH6_Quote</v>
       </c>
       <c r="E33" s="118">
         <f>_xll.qlRateHelperQuoteValue(C33,Trigger)</f>
-        <v>97.125</v>
+        <v>97.224999999999994</v>
       </c>
       <c r="F33" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C33,Trigger)</f>
@@ -5566,11 +5612,11 @@
       </c>
       <c r="J33" s="109">
         <f>_xll.qlRateHelperEarliestDate($C33,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="K33" s="110">
         <f>_xll.qlRateHelperLatestDate($C33,Trigger)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,19 +5625,19 @@
       </c>
       <c r="B34" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!H17</f>
-        <v>obj_00226#0000</v>
+        <v>obj_00413#0001</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C34),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH6_Quote</v>
+        <v>AUDFUT3MM6_Quote</v>
       </c>
       <c r="E34" s="118">
         <f>_xll.qlRateHelperQuoteValue(C34,Trigger)</f>
-        <v>97.025000000000006</v>
+        <v>97.16</v>
       </c>
       <c r="F34" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C34,Trigger)</f>
@@ -5608,11 +5654,11 @@
       </c>
       <c r="J34" s="109">
         <f>_xll.qlRateHelperEarliestDate($C34,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="K34" s="110">
         <f>_xll.qlRateHelperLatestDate($C34,Trigger)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5621,19 +5667,19 @@
       </c>
       <c r="B35" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!H18</f>
-        <v>obj_0023c#0000</v>
+        <v>obj_00448#0001</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C35),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM6_Quote</v>
+        <v>AUDFUT3MU6_Quote</v>
       </c>
       <c r="E35" s="118">
         <f>_xll.qlRateHelperQuoteValue(C35,Trigger)</f>
-        <v>96.92</v>
+        <v>97.09</v>
       </c>
       <c r="F35" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C35,Trigger)</f>
@@ -5650,11 +5696,11 @@
       </c>
       <c r="J35" s="109">
         <f>_xll.qlRateHelperEarliestDate($C35,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="K35" s="110">
         <f>_xll.qlRateHelperLatestDate($C35,Trigger)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,19 +5709,19 @@
       </c>
       <c r="B36" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!H19</f>
-        <v>obj_00213#0000</v>
+        <v>obj_00455#0001</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C36),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="E36" s="118">
         <f>_xll.qlRateHelperQuoteValue(C36,Trigger)</f>
-        <v>96.825000000000003</v>
+        <v>97.025000000000006</v>
       </c>
       <c r="F36" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C36,Trigger)</f>
@@ -5692,11 +5738,11 @@
       </c>
       <c r="J36" s="109">
         <f>_xll.qlRateHelperEarliestDate($C36,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="K36" s="110">
         <f>_xll.qlRateHelperLatestDate($C36,Trigger)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5705,19 +5751,19 @@
       </c>
       <c r="B37" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!H20</f>
-        <v>obj_0020f#0000</v>
+        <v>obj_0044a#0001</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C37),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="E37" s="118">
         <f>_xll.qlRateHelperQuoteValue(C37,Trigger)</f>
-        <v>96.735000000000014</v>
+        <v>96.960000000000008</v>
       </c>
       <c r="F37" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C37,Trigger)</f>
@@ -5734,11 +5780,11 @@
       </c>
       <c r="J37" s="109">
         <f>_xll.qlRateHelperEarliestDate($C37,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="K37" s="110">
         <f>_xll.qlRateHelperLatestDate($C37,Trigger)</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5747,19 +5793,19 @@
       </c>
       <c r="B38" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!H21</f>
-        <v>obj_00242#0000</v>
+        <v>obj_00441#0001</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C38),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="E38" s="118">
         <f>_xll.qlRateHelperQuoteValue(C38,Trigger)</f>
-        <v>96.655000000000001</v>
+        <v>96.885000000000005</v>
       </c>
       <c r="F38" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C38,Trigger)</f>
@@ -5776,11 +5822,11 @@
       </c>
       <c r="J38" s="109">
         <f>_xll.qlRateHelperEarliestDate($C38,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="K38" s="110">
         <f>_xll.qlRateHelperLatestDate($C38,Trigger)</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,19 +5835,19 @@
       </c>
       <c r="B39" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!H22</f>
-        <v>obj_00218#0000</v>
+        <v>obj_00439#0001</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C39),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM7_Quote</v>
+        <v>AUDFUT3MU7_Quote</v>
       </c>
       <c r="E39" s="118">
         <f>_xll.qlRateHelperQuoteValue(C39,Trigger)</f>
-        <v>96.555000000000007</v>
+        <v>96.814999999999998</v>
       </c>
       <c r="F39" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C39,Trigger)</f>
@@ -5818,11 +5864,11 @@
       </c>
       <c r="J39" s="109">
         <f>_xll.qlRateHelperEarliestDate($C39,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="K39" s="110">
         <f>_xll.qlRateHelperLatestDate($C39,Trigger)</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,23 +5877,23 @@
       </c>
       <c r="B40" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!H23</f>
-        <v>obj_00219#0000</v>
+        <v>obj_0043d#0001</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C40),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU7_Quote</v>
-      </c>
-      <c r="E40" s="118" t="e">
+        <v>AUDFUT3MZ7_Quote</v>
+      </c>
+      <c r="E40" s="118">
         <f>_xll.qlRateHelperQuoteValue(C40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F40" s="108" t="e">
+        <v>96.745000000000005</v>
+      </c>
+      <c r="F40" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C40,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G40" s="62" t="b">
         <v>0</v>
@@ -5860,11 +5906,11 @@
       </c>
       <c r="J40" s="109">
         <f>_xll.qlRateHelperEarliestDate($C40,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="K40" s="110">
         <f>_xll.qlRateHelperLatestDate($C40,Trigger)</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,23 +5919,23 @@
       </c>
       <c r="B41" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!H24</f>
-        <v>obj_00253#0000</v>
+        <v>obj_00445#0001</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C41),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ7_Quote</v>
-      </c>
-      <c r="E41" s="118" t="e">
+        <v>AUDFUT3MH8_Quote</v>
+      </c>
+      <c r="E41" s="118">
         <f>_xll.qlRateHelperQuoteValue(C41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F41" s="108" t="e">
+        <v>96.674999999999997</v>
+      </c>
+      <c r="F41" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C41,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G41" s="62" t="b">
         <v>0</v>
@@ -5902,11 +5948,11 @@
       </c>
       <c r="J41" s="109">
         <f>_xll.qlRateHelperEarliestDate($C41,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="K41" s="110">
         <f>_xll.qlRateHelperLatestDate($C41,Trigger)</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
       <c r="L41" s="119"/>
     </row>
@@ -5916,23 +5962,23 @@
       </c>
       <c r="B42" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!H25</f>
-        <v>obj_00241#0000</v>
+        <v>obj_00450#0001</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C42),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH8_Quote</v>
-      </c>
-      <c r="E42" s="118" t="e">
+        <v>AUDFUT3MM8_Quote</v>
+      </c>
+      <c r="E42" s="118">
         <f>_xll.qlRateHelperQuoteValue(C42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F42" s="108" t="e">
+        <v>96.61</v>
+      </c>
+      <c r="F42" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C42,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G42" s="62" t="b">
         <v>0</v>
@@ -5945,11 +5991,11 @@
       </c>
       <c r="J42" s="109">
         <f>_xll.qlRateHelperEarliestDate($C42,Trigger)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="K42" s="110">
         <f>_xll.qlRateHelperLatestDate($C42,Trigger)</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
       <c r="M42" s="125"/>
     </row>
@@ -5959,23 +6005,23 @@
       </c>
       <c r="B43" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!H26</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00449#0001</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C43),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM8_Quote</v>
-      </c>
-      <c r="E43" s="118" t="e">
+        <v>AUDFUT3MU8_Quote</v>
+      </c>
+      <c r="E43" s="118">
         <f>_xll.qlRateHelperQuoteValue(C43,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F43" s="108" t="e">
+        <v>96.539999999999992</v>
+      </c>
+      <c r="F43" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C43,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G43" s="62" t="b">
         <v>0</v>
@@ -5988,11 +6034,11 @@
       </c>
       <c r="J43" s="109">
         <f>_xll.qlRateHelperEarliestDate($C43,Trigger)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="K43" s="110">
         <f>_xll.qlRateHelperLatestDate($C43,Trigger)</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
       <c r="M43" s="125"/>
     </row>
@@ -6002,23 +6048,23 @@
       </c>
       <c r="B44" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!H27</f>
-        <v>obj_00256#0000</v>
+        <v>obj_00419#0001</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C44),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU8_Quote</v>
-      </c>
-      <c r="E44" s="118" t="e">
+        <v>AUDFUT3MZ8_Quote</v>
+      </c>
+      <c r="E44" s="118">
         <f>_xll.qlRateHelperQuoteValue(C44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F44" s="108" t="e">
+        <v>96.064999999999998</v>
+      </c>
+      <c r="F44" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(C44,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G44" s="62" t="b">
         <v>0</v>
@@ -6031,11 +6077,11 @@
       </c>
       <c r="J44" s="109">
         <f>_xll.qlRateHelperEarliestDate($C44,Trigger)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="K44" s="110">
         <f>_xll.qlRateHelperLatestDate($C44,Trigger)</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
       <c r="M44" s="125"/>
     </row>
@@ -6045,15 +6091,15 @@
       </c>
       <c r="B45" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!H28</f>
-        <v>obj_0022b#0000</v>
+        <v>obj_00456#0001</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C45),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ8_Quote</v>
+        <v>AUDFUT3MH9_Quote</v>
       </c>
       <c r="E45" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C45,Trigger)</f>
@@ -6074,11 +6120,11 @@
       </c>
       <c r="J45" s="109">
         <f>_xll.qlRateHelperEarliestDate($C45,Trigger)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="K45" s="110">
         <f>_xll.qlRateHelperLatestDate($C45,Trigger)</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
       <c r="M45" s="125"/>
     </row>
@@ -6088,15 +6134,15 @@
       </c>
       <c r="B46" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!H29</f>
-        <v>obj_0024f#0000</v>
+        <v>obj_0041e#0001</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C46),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH9_Quote</v>
+        <v>AUDFUT3MM9_Quote</v>
       </c>
       <c r="E46" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C46,Trigger)</f>
@@ -6117,11 +6163,11 @@
       </c>
       <c r="J46" s="109">
         <f>_xll.qlRateHelperEarliestDate($C46,Trigger)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="K46" s="110">
         <f>_xll.qlRateHelperLatestDate($C46,Trigger)</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
       <c r="M46" s="125"/>
     </row>
@@ -6131,15 +6177,15 @@
       </c>
       <c r="B47" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!H30</f>
-        <v>obj_0020e#0000</v>
+        <v>obj_00458#0001</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C47),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM9_Quote</v>
+        <v>AUDFUT3MU9_Quote</v>
       </c>
       <c r="E47" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C47,Trigger)</f>
@@ -6160,11 +6206,11 @@
       </c>
       <c r="J47" s="109">
         <f>_xll.qlRateHelperEarliestDate($C47,Trigger)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="K47" s="110">
         <f>_xll.qlRateHelperLatestDate($C47,Trigger)</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
       <c r="M47" s="125"/>
     </row>
@@ -6174,15 +6220,15 @@
       </c>
       <c r="B48" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!H31</f>
-        <v>obj_00238#0000</v>
+        <v>obj_00422#0001</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C48),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU9_Quote</v>
+        <v>AUDFUT3MZ9_Quote</v>
       </c>
       <c r="E48" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C48,Trigger)</f>
@@ -6203,11 +6249,11 @@
       </c>
       <c r="J48" s="109">
         <f>_xll.qlRateHelperEarliestDate($C48,Trigger)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="K48" s="110">
         <f>_xll.qlRateHelperLatestDate($C48,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="M48" s="125"/>
     </row>
@@ -6217,15 +6263,15 @@
       </c>
       <c r="B49" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!H32</f>
-        <v>obj_00233#0000</v>
+        <v>obj_0042d#0001</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C49),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ9_Quote</v>
+        <v>AUDFUT3MH0_Quote</v>
       </c>
       <c r="E49" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C49,Trigger)</f>
@@ -6246,11 +6292,11 @@
       </c>
       <c r="J49" s="109">
         <f>_xll.qlRateHelperEarliestDate($C49,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="K49" s="110">
         <f>_xll.qlRateHelperLatestDate($C49,Trigger)</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="M49" s="125"/>
     </row>
@@ -6260,15 +6306,15 @@
       </c>
       <c r="B50" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!H33</f>
-        <v>obj_00230#0000</v>
+        <v>obj_0043a#0001</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C50),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH0_Quote</v>
+        <v>AUDFUT3MM0_Quote</v>
       </c>
       <c r="E50" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C50,Trigger)</f>
@@ -6289,11 +6335,11 @@
       </c>
       <c r="J50" s="109">
         <f>_xll.qlRateHelperEarliestDate($C50,Trigger)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="K50" s="110">
         <f>_xll.qlRateHelperLatestDate($C50,Trigger)</f>
-        <v>44000</v>
+        <v>44091</v>
       </c>
       <c r="M50" s="125"/>
     </row>
@@ -6303,15 +6349,15 @@
       </c>
       <c r="B51" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="C51" s="107" t="str">
         <f>Futures!H34</f>
-        <v>obj_0023a#0000</v>
+        <v>obj_0042a#0001</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C51),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM0_Quote</v>
+        <v>AUDFUT3MU0_Quote</v>
       </c>
       <c r="E51" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C51,Trigger)</f>
@@ -6332,11 +6378,11 @@
       </c>
       <c r="J51" s="109">
         <f>_xll.qlRateHelperEarliestDate($C51,Trigger)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="K51" s="110">
         <f>_xll.qlRateHelperLatestDate($C51,Trigger)</f>
-        <v>44091</v>
+        <v>44181</v>
       </c>
       <c r="M51" s="125"/>
     </row>
@@ -6346,15 +6392,15 @@
       </c>
       <c r="B52" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="C52" s="107" t="str">
         <f>Futures!H35</f>
-        <v>obj_00221#0000</v>
+        <v>obj_00425#0001</v>
       </c>
       <c r="D52" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C52),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU0_Quote</v>
+        <v>AUDFUT3MZ0_Quote</v>
       </c>
       <c r="E52" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C52,Trigger)</f>
@@ -6375,11 +6421,11 @@
       </c>
       <c r="J52" s="109">
         <f>_xll.qlRateHelperEarliestDate($C52,Trigger)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="K52" s="110">
         <f>_xll.qlRateHelperLatestDate($C52,Trigger)</f>
-        <v>44181</v>
+        <v>44271</v>
       </c>
       <c r="M52" s="125"/>
     </row>
@@ -6389,15 +6435,15 @@
       </c>
       <c r="B53" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="C53" s="107" t="str">
         <f>Futures!H36</f>
-        <v>obj_00248#0000</v>
+        <v>obj_0044d#0001</v>
       </c>
       <c r="D53" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C53),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ0_Quote</v>
+        <v>AUDFUT3MH1_Quote</v>
       </c>
       <c r="E53" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C53,Trigger)</f>
@@ -6418,11 +6464,11 @@
       </c>
       <c r="J53" s="109">
         <f>_xll.qlRateHelperEarliestDate($C53,Trigger)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="K53" s="110">
         <f>_xll.qlRateHelperLatestDate($C53,Trigger)</f>
-        <v>44271</v>
+        <v>44364</v>
       </c>
       <c r="M53" s="125"/>
     </row>
@@ -6432,15 +6478,15 @@
       </c>
       <c r="B54" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="C54" s="107" t="str">
         <f>Futures!H37</f>
-        <v>obj_0024e#0000</v>
+        <v>obj_00418#0001</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C54),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH1_Quote</v>
+        <v>AUDFUT3MM1_Quote</v>
       </c>
       <c r="E54" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C54,Trigger)</f>
@@ -6461,11 +6507,11 @@
       </c>
       <c r="J54" s="109">
         <f>_xll.qlRateHelperEarliestDate($C54,Trigger)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="K54" s="110">
         <f>_xll.qlRateHelperLatestDate($C54,Trigger)</f>
-        <v>44364</v>
+        <v>44455</v>
       </c>
       <c r="M54" s="125"/>
     </row>
@@ -6475,15 +6521,15 @@
       </c>
       <c r="B55" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="C55" s="107" t="str">
         <f>Futures!H38</f>
-        <v>obj_00223#0000</v>
+        <v>obj_00443#0001</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C55),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM1_Quote</v>
+        <v>AUDFUT3MU1_Quote</v>
       </c>
       <c r="E55" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C55,Trigger)</f>
@@ -6504,11 +6550,11 @@
       </c>
       <c r="J55" s="109">
         <f>_xll.qlRateHelperEarliestDate($C55,Trigger)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="K55" s="110">
         <f>_xll.qlRateHelperLatestDate($C55,Trigger)</f>
-        <v>44455</v>
+        <v>44545</v>
       </c>
       <c r="M55" s="125"/>
     </row>
@@ -6518,15 +6564,15 @@
       </c>
       <c r="B56" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="C56" s="107" t="str">
         <f>Futures!H39</f>
-        <v>obj_00249#0000</v>
+        <v>obj_00427#0001</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C56),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU1_Quote</v>
+        <v>AUDFUT3MZ1_Quote</v>
       </c>
       <c r="E56" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C56,Trigger)</f>
@@ -6547,11 +6593,11 @@
       </c>
       <c r="J56" s="109">
         <f>_xll.qlRateHelperEarliestDate($C56,Trigger)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="K56" s="110">
         <f>_xll.qlRateHelperLatestDate($C56,Trigger)</f>
-        <v>44545</v>
+        <v>44635</v>
       </c>
       <c r="M56" s="125"/>
     </row>
@@ -6561,15 +6607,15 @@
       </c>
       <c r="B57" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="C57" s="107" t="str">
         <f>Futures!H40</f>
-        <v>obj_00210#0000</v>
+        <v>obj_00410#0001</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C57),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ1_Quote</v>
+        <v>AUDFUT3MH2_Quote</v>
       </c>
       <c r="E57" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C57,Trigger)</f>
@@ -6590,11 +6636,11 @@
       </c>
       <c r="J57" s="109">
         <f>_xll.qlRateHelperEarliestDate($C57,Trigger)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="K57" s="110">
         <f>_xll.qlRateHelperLatestDate($C57,Trigger)</f>
-        <v>44635</v>
+        <v>44728</v>
       </c>
       <c r="M57" s="125"/>
     </row>
@@ -6604,15 +6650,15 @@
       </c>
       <c r="B58" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="C58" s="107" t="str">
         <f>Futures!H41</f>
-        <v>obj_00258#0000</v>
+        <v>obj_0043c#0001</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C58),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MH2_Quote</v>
+        <v>AUDFUT3MM2_Quote</v>
       </c>
       <c r="E58" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C58,Trigger)</f>
@@ -6633,11 +6679,11 @@
       </c>
       <c r="J58" s="109">
         <f>_xll.qlRateHelperEarliestDate($C58,Trigger)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="K58" s="110">
         <f>_xll.qlRateHelperLatestDate($C58,Trigger)</f>
-        <v>44728</v>
+        <v>44819</v>
       </c>
       <c r="M58" s="125"/>
     </row>
@@ -6647,15 +6693,15 @@
       </c>
       <c r="B59" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="C59" s="107" t="str">
         <f>Futures!H42</f>
-        <v>obj_00232#0000</v>
+        <v>obj_00453#0001</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C59),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MM2_Quote</v>
+        <v>AUDFUT3MU2_Quote</v>
       </c>
       <c r="E59" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C59,Trigger)</f>
@@ -6676,11 +6722,11 @@
       </c>
       <c r="J59" s="109">
         <f>_xll.qlRateHelperEarliestDate($C59,Trigger)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="K59" s="110">
         <f>_xll.qlRateHelperLatestDate($C59,Trigger)</f>
-        <v>44819</v>
+        <v>44916</v>
       </c>
       <c r="M59" s="125"/>
     </row>
@@ -6690,15 +6736,15 @@
       </c>
       <c r="B60" s="107" t="str">
         <f t="shared" si="3"/>
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="C60" s="107" t="str">
         <f>Futures!H43</f>
-        <v>obj_00247#0000</v>
+        <v>obj_00437#0001</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C60),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MU2_Quote</v>
+        <v>AUDFUT3MZ2_Quote</v>
       </c>
       <c r="E60" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C60,Trigger)</f>
@@ -6719,11 +6765,11 @@
       </c>
       <c r="J60" s="109">
         <f>_xll.qlRateHelperEarliestDate($C60,Trigger)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="K60" s="110">
         <f>_xll.qlRateHelperLatestDate($C60,Trigger)</f>
-        <v>44916</v>
+        <v>45006</v>
       </c>
       <c r="M60" s="125"/>
     </row>
@@ -6733,15 +6779,15 @@
       </c>
       <c r="B61" s="112" t="str">
         <f t="shared" si="3"/>
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="C61" s="112" t="str">
         <f>Futures!H44</f>
-        <v>obj_00251#0000</v>
+        <v>obj_0043f#0001</v>
       </c>
       <c r="D61" s="112" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C61),"LastFixing","D"),"Libor","")</f>
-        <v>AUDFUT3MZ2_Quote</v>
+        <v>AUDFUT3MH3_Quote</v>
       </c>
       <c r="E61" s="118" t="e">
         <f>_xll.qlRateHelperQuoteValue(C61,Trigger)</f>
@@ -6762,11 +6808,11 @@
       </c>
       <c r="J61" s="109">
         <f>_xll.qlRateHelperEarliestDate($C61,Trigger)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="K61" s="110">
         <f>_xll.qlRateHelperLatestDate($C61,Trigger)</f>
-        <v>45006</v>
+        <v>45092</v>
       </c>
       <c r="M61" s="125"/>
     </row>
@@ -6778,7 +6824,7 @@
       </c>
       <c r="C62" s="107" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00231#0001</v>
+        <v>obj_00426#0001</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C62),"LastFixing","D"),"Libor","")</f>
@@ -6786,7 +6832,7 @@
       </c>
       <c r="E62" s="121">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>2.6325000000000001E-2</v>
+        <v>2.6775000000000004E-2</v>
       </c>
       <c r="F62" s="121">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -6803,11 +6849,11 @@
       </c>
       <c r="J62" s="123">
         <f>_xll.qlRateHelperEarliestDate($C62,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K62" s="124">
         <f>_xll.qlRateHelperLatestDate($C62,Trigger)</f>
-        <v>42186</v>
+        <v>42311</v>
       </c>
       <c r="M62" s="125"/>
     </row>
@@ -6819,7 +6865,7 @@
       </c>
       <c r="C63" s="107" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00235#0003</v>
+        <v>obj_0044b#0001</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C63),"LastFixing","D"),"Libor","")</f>
@@ -6844,11 +6890,11 @@
       </c>
       <c r="J63" s="109">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K63" s="110">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>42278</v>
+        <v>42403</v>
       </c>
       <c r="M63" s="125"/>
     </row>
@@ -6860,7 +6906,7 @@
       </c>
       <c r="C64" s="107" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0022f#0003</v>
+        <v>obj_0041c#0001</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C64),"LastFixing","D"),"Libor","")</f>
@@ -6885,11 +6931,11 @@
       </c>
       <c r="J64" s="109">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K64" s="110">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>42373</v>
+        <v>42493</v>
       </c>
       <c r="M64" s="125"/>
     </row>
@@ -6901,7 +6947,7 @@
       </c>
       <c r="C65" s="107" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00239#0003</v>
+        <v>obj_0043e#0001</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C65),"LastFixing","D"),"Libor","")</f>
@@ -6926,11 +6972,11 @@
       </c>
       <c r="J65" s="109">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K65" s="110">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>42461</v>
+        <v>42585</v>
       </c>
       <c r="M65" s="125"/>
     </row>
@@ -6942,7 +6988,7 @@
       </c>
       <c r="C66" s="107" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00252#0003</v>
+        <v>obj_0042b#0001</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C66),"LastFixing","D"),"Libor","")</f>
@@ -6950,7 +6996,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>2.7400000000000001E-2</v>
+        <v>2.7225000000000003E-2</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -6967,11 +7013,11 @@
       </c>
       <c r="J66" s="109">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K66" s="110">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>42552</v>
+        <v>42677</v>
       </c>
       <c r="M66" s="125"/>
     </row>
@@ -6983,7 +7029,7 @@
       </c>
       <c r="C67" s="107" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0021c#0003</v>
+        <v>obj_0042f#0001</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C67),"LastFixing","D"),"Libor","")</f>
@@ -6991,7 +7037,7 @@
       </c>
       <c r="E67" s="108">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>2.8875000000000001E-2</v>
+        <v>2.8200000000000003E-2</v>
       </c>
       <c r="F67" s="108">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7008,11 +7054,11 @@
       </c>
       <c r="J67" s="109">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K67" s="110">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>42919</v>
+        <v>43042</v>
       </c>
       <c r="M67" s="125"/>
     </row>
@@ -7024,7 +7070,7 @@
       </c>
       <c r="C68" s="120" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0020b#0003</v>
+        <v>obj_0044e#0001</v>
       </c>
       <c r="D68" s="120" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C68),"LastFixing","D"),"Libor","")</f>
@@ -7032,7 +7078,7 @@
       </c>
       <c r="E68" s="121">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>3.1275000000000004E-2</v>
+        <v>3.0275E-2</v>
       </c>
       <c r="F68" s="121">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7049,11 +7095,11 @@
       </c>
       <c r="J68" s="123">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K68" s="124">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>43283</v>
+        <v>43409</v>
       </c>
       <c r="M68" s="125"/>
     </row>
@@ -7065,7 +7111,7 @@
       </c>
       <c r="C69" s="107" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00240#0003</v>
+        <v>obj_0043b#0001</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C69),"LastFixing","D"),"Libor","")</f>
@@ -7073,7 +7119,7 @@
       </c>
       <c r="E69" s="108">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>3.2899999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F69" s="108">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7090,11 +7136,11 @@
       </c>
       <c r="J69" s="109">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K69" s="110">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>43647</v>
+        <v>43773</v>
       </c>
       <c r="M69" s="125"/>
     </row>
@@ -7106,7 +7152,7 @@
       </c>
       <c r="C70" s="107" t="str">
         <f>Swaps!K14</f>
-        <v>obj_0021f#0003</v>
+        <v>obj_00435#0001</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C70),"LastFixing","D"),"Libor","")</f>
@@ -7114,7 +7160,7 @@
       </c>
       <c r="E70" s="108">
         <f>_xll.qlRateHelperQuoteValue($C70,Trigger)</f>
-        <v>3.4500000000000003E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="F70" s="108">
         <f>_xll.qlSwapRateHelperSpread($C70,Trigger)</f>
@@ -7131,11 +7177,11 @@
       </c>
       <c r="J70" s="109">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K70" s="110">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>44013</v>
+        <v>44138</v>
       </c>
       <c r="M70" s="125"/>
     </row>
@@ -7147,7 +7193,7 @@
       </c>
       <c r="C71" s="107" t="str">
         <f>Swaps!K15</f>
-        <v>obj_0023b#0003</v>
+        <v>obj_00444#0001</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C71),"LastFixing","D"),"Libor","")</f>
@@ -7155,7 +7201,7 @@
       </c>
       <c r="E71" s="108">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>3.5950000000000003E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="F71" s="108">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7172,11 +7218,11 @@
       </c>
       <c r="J71" s="109">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K71" s="110">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>44378</v>
+        <v>44503</v>
       </c>
       <c r="M71" s="125"/>
     </row>
@@ -7188,7 +7234,7 @@
       </c>
       <c r="C72" s="107" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0022d#0003</v>
+        <v>obj_00433#0001</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C72),"LastFixing","D"),"Libor","")</f>
@@ -7196,7 +7242,7 @@
       </c>
       <c r="E72" s="108">
         <f>_xll.qlRateHelperQuoteValue($C72,Trigger)</f>
-        <v>3.7175E-2</v>
+        <v>3.5250000000000004E-2</v>
       </c>
       <c r="F72" s="108">
         <f>_xll.qlSwapRateHelperSpread($C72,Trigger)</f>
@@ -7213,11 +7259,11 @@
       </c>
       <c r="J72" s="109">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K72" s="110">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>44743</v>
+        <v>44868</v>
       </c>
       <c r="M72" s="125"/>
     </row>
@@ -7229,7 +7275,7 @@
       </c>
       <c r="C73" s="107" t="str">
         <f>Swaps!K17</f>
-        <v>obj_0020c#0003</v>
+        <v>obj_00428#0001</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C73),"LastFixing","D"),"Libor","")</f>
@@ -7237,7 +7283,7 @@
       </c>
       <c r="E73" s="108">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>3.8224999999999995E-2</v>
+        <v>3.6074999999999996E-2</v>
       </c>
       <c r="F73" s="108">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7254,11 +7300,11 @@
       </c>
       <c r="J73" s="109">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K73" s="110">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>45110</v>
+        <v>45233</v>
       </c>
       <c r="M73" s="125"/>
     </row>
@@ -7270,7 +7316,7 @@
       </c>
       <c r="C74" s="107" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00257#0003</v>
+        <v>obj_00438#0001</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C74),"LastFixing","D"),"Libor","")</f>
@@ -7278,7 +7324,7 @@
       </c>
       <c r="E74" s="108">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>3.9149999999999997E-2</v>
+        <v>3.6849999999999994E-2</v>
       </c>
       <c r="F74" s="108">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7295,11 +7341,11 @@
       </c>
       <c r="J74" s="109">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K74" s="110">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>45474</v>
+        <v>45600</v>
       </c>
       <c r="M74" s="125"/>
     </row>
@@ -7311,7 +7357,7 @@
       </c>
       <c r="C75" s="107" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0023d#0003</v>
+        <v>obj_0045c#0001</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C75),"LastFixing","D"),"Libor","")</f>
@@ -7336,11 +7382,11 @@
       </c>
       <c r="J75" s="109">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K75" s="110">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>45839</v>
+        <v>45964</v>
       </c>
       <c r="M75" s="125"/>
     </row>
@@ -7352,7 +7398,7 @@
       </c>
       <c r="C76" s="107" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00228#0003</v>
+        <v>obj_00421#0001</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C76),"LastFixing","D"),"Libor","")</f>
@@ -7360,7 +7406,7 @@
       </c>
       <c r="E76" s="108">
         <f>_xll.qlRateHelperQuoteValue($C76,Trigger)</f>
-        <v>4.0750000000000001E-2</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="F76" s="108">
         <f>_xll.qlSwapRateHelperSpread($C76,Trigger)</f>
@@ -7377,11 +7423,11 @@
       </c>
       <c r="J76" s="109">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K76" s="110">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>46204</v>
+        <v>46329</v>
       </c>
       <c r="M76" s="125"/>
     </row>
@@ -7393,7 +7439,7 @@
       </c>
       <c r="C77" s="107" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00236#0003</v>
+        <v>obj_00415#0001</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C77),"LastFixing","D"),"Libor","")</f>
@@ -7418,11 +7464,11 @@
       </c>
       <c r="J77" s="109">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K77" s="110">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>46569</v>
+        <v>46694</v>
       </c>
       <c r="M77" s="125"/>
     </row>
@@ -7434,7 +7480,7 @@
       </c>
       <c r="C78" s="107" t="str">
         <f>Swaps!K22</f>
-        <v>obj_0021d#0003</v>
+        <v>obj_0045b#0001</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C78),"LastFixing","D"),"Libor","")</f>
@@ -7459,11 +7505,11 @@
       </c>
       <c r="J78" s="109">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K78" s="110">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>46937</v>
+        <v>47060</v>
       </c>
       <c r="M78" s="125"/>
     </row>
@@ -7475,7 +7521,7 @@
       </c>
       <c r="C79" s="107" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00255#0003</v>
+        <v>obj_0045d#0001</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C79),"LastFixing","D"),"Libor","")</f>
@@ -7483,7 +7529,7 @@
       </c>
       <c r="E79" s="108">
         <f>_xll.qlRateHelperQuoteValue($C79,Trigger)</f>
-        <v>4.2224999999999999E-2</v>
+        <v>3.9599999999999996E-2</v>
       </c>
       <c r="F79" s="108">
         <f>_xll.qlSwapRateHelperSpread($C79,Trigger)</f>
@@ -7500,11 +7546,11 @@
       </c>
       <c r="J79" s="109">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K79" s="110">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>47301</v>
+        <v>47427</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7515,7 +7561,7 @@
       </c>
       <c r="C80" s="107" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00234#0003</v>
+        <v>obj_00430#0001</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C80),"LastFixing","D"),"Libor","")</f>
@@ -7540,11 +7586,11 @@
       </c>
       <c r="J80" s="109">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K80" s="110">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>47665</v>
+        <v>47791</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7555,7 +7601,7 @@
       </c>
       <c r="C81" s="107" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0024c#0003</v>
+        <v>obj_00431#0001</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C81),"LastFixing","D"),"Libor","")</f>
@@ -7580,11 +7626,11 @@
       </c>
       <c r="J81" s="109">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K81" s="110">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>48030</v>
+        <v>48155</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7595,7 +7641,7 @@
       </c>
       <c r="C82" s="107" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00227#0003</v>
+        <v>obj_0041b#0001</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C82),"LastFixing","D"),"Libor","")</f>
@@ -7620,11 +7666,11 @@
       </c>
       <c r="J82" s="109">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K82" s="110">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>48396</v>
+        <v>48521</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,7 +7681,7 @@
       </c>
       <c r="C83" s="107" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0024b#0003</v>
+        <v>obj_0042e#0001</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C83),"LastFixing","D"),"Libor","")</f>
@@ -7660,11 +7706,11 @@
       </c>
       <c r="J83" s="109">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K83" s="110">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>48761</v>
+        <v>48886</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,7 +7721,7 @@
       </c>
       <c r="C84" s="107" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0022e#0003</v>
+        <v>obj_00414#0001</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C84),"LastFixing","D"),"Libor","")</f>
@@ -7683,7 +7729,7 @@
       </c>
       <c r="E84" s="108">
         <f>_xll.qlRateHelperQuoteValue($C84,Trigger)</f>
-        <v>4.3425000000000005E-2</v>
+        <v>4.1299999999999996E-2</v>
       </c>
       <c r="F84" s="108">
         <f>_xll.qlSwapRateHelperSpread($C84,Trigger)</f>
@@ -7700,11 +7746,11 @@
       </c>
       <c r="J84" s="109">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K84" s="110">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>49128</v>
+        <v>49251</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7715,7 +7761,7 @@
       </c>
       <c r="C85" s="107" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00245#0003</v>
+        <v>obj_00434#0001</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C85),"LastFixing","D"),"Libor","")</f>
@@ -7740,11 +7786,11 @@
       </c>
       <c r="J85" s="109">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K85" s="110">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>49492</v>
+        <v>49618</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7755,7 +7801,7 @@
       </c>
       <c r="C86" s="107" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00246#0003</v>
+        <v>obj_00417#0001</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C86),"LastFixing","D"),"Libor","")</f>
@@ -7780,11 +7826,11 @@
       </c>
       <c r="J86" s="109">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K86" s="110">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>49857</v>
+        <v>49982</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7841,7 @@
       </c>
       <c r="C87" s="107" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00216#0003</v>
+        <v>obj_00411#0001</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C87),"LastFixing","D"),"Libor","")</f>
@@ -7820,11 +7866,11 @@
       </c>
       <c r="J87" s="109">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K87" s="110">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>50222</v>
+        <v>50347</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7835,7 +7881,7 @@
       </c>
       <c r="C88" s="107" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0020a#0003</v>
+        <v>obj_0041f#0001</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C88),"LastFixing","D"),"Libor","")</f>
@@ -7860,11 +7906,11 @@
       </c>
       <c r="J88" s="109">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K88" s="110">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>50587</v>
+        <v>50712</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7875,7 +7921,7 @@
       </c>
       <c r="C89" s="107" t="str">
         <f>Swaps!K33</f>
-        <v>obj_0023e#0003</v>
+        <v>obj_00416#0001</v>
       </c>
       <c r="D89" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C89),"LastFixing","D"),"Libor","")</f>
@@ -7883,7 +7929,7 @@
       </c>
       <c r="E89" s="108">
         <f>_xll.qlRateHelperQuoteValue($C89,Trigger)</f>
-        <v>4.3875000000000004E-2</v>
+        <v>4.1974999999999998E-2</v>
       </c>
       <c r="F89" s="108">
         <f>_xll.qlSwapRateHelperSpread($C89,Trigger)</f>
@@ -7900,11 +7946,11 @@
       </c>
       <c r="J89" s="109">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K89" s="110">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>50952</v>
+        <v>51077</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7915,7 +7961,7 @@
       </c>
       <c r="C90" s="107" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0020d#0003</v>
+        <v>obj_00442#0001</v>
       </c>
       <c r="D90" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C90),"LastFixing","D"),"Libor","")</f>
@@ -7940,11 +7986,11 @@
       </c>
       <c r="J90" s="109">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K90" s="110">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>51319</v>
+        <v>51445</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7955,7 +8001,7 @@
       </c>
       <c r="C91" s="107" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00244#0003</v>
+        <v>obj_0045a#0001</v>
       </c>
       <c r="D91" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C91),"LastFixing","D"),"Libor","")</f>
@@ -7980,11 +8026,11 @@
       </c>
       <c r="J91" s="109">
         <f>_xll.qlRateHelperEarliestDate($C91,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K91" s="110">
         <f>_xll.qlRateHelperLatestDate($C91,Trigger)</f>
-        <v>51683</v>
+        <v>51809</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7995,7 +8041,7 @@
       </c>
       <c r="C92" s="107" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0023f#0003</v>
+        <v>obj_0041d#0001</v>
       </c>
       <c r="D92" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C92),"LastFixing","D"),"Libor","")</f>
@@ -8020,11 +8066,11 @@
       </c>
       <c r="J92" s="109">
         <f>_xll.qlRateHelperEarliestDate($C92,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K92" s="110">
         <f>_xll.qlRateHelperLatestDate($C92,Trigger)</f>
-        <v>52048</v>
+        <v>52173</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8035,7 +8081,7 @@
       </c>
       <c r="C93" s="107" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00243#0003</v>
+        <v>obj_00457#0001</v>
       </c>
       <c r="D93" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C93),"LastFixing","D"),"Libor","")</f>
@@ -8060,11 +8106,11 @@
       </c>
       <c r="J93" s="109">
         <f>_xll.qlRateHelperEarliestDate($C93,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K93" s="110">
         <f>_xll.qlRateHelperLatestDate($C93,Trigger)</f>
-        <v>52413</v>
+        <v>52538</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8075,7 +8121,7 @@
       </c>
       <c r="C94" s="107" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00212#0003</v>
+        <v>obj_00451#0001</v>
       </c>
       <c r="D94" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C94),"LastFixing","D"),"Libor","")</f>
@@ -8083,7 +8129,7 @@
       </c>
       <c r="E94" s="108">
         <f>_xll.qlRateHelperQuoteValue($C94,Trigger)</f>
-        <v>4.3950000000000003E-2</v>
+        <v>4.2199999999999994E-2</v>
       </c>
       <c r="F94" s="108">
         <f>_xll.qlSwapRateHelperSpread($C94,Trigger)</f>
@@ -8100,11 +8146,11 @@
       </c>
       <c r="J94" s="109">
         <f>_xll.qlRateHelperEarliestDate($C94,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K94" s="110">
         <f>_xll.qlRateHelperLatestDate($C94,Trigger)</f>
-        <v>52779</v>
+        <v>52904</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8161,7 @@
       </c>
       <c r="C95" s="107" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0021b#0003</v>
+        <v>obj_0042c#0001</v>
       </c>
       <c r="D95" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C95),"LastFixing","D"),"Libor","")</f>
@@ -8140,11 +8186,11 @@
       </c>
       <c r="J95" s="109">
         <f>_xll.qlRateHelperEarliestDate($C95,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K95" s="110">
         <f>_xll.qlRateHelperLatestDate($C95,Trigger)</f>
-        <v>54605</v>
+        <v>54730</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8155,7 +8201,7 @@
       </c>
       <c r="C96" s="107" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0021e#0003</v>
+        <v>obj_00412#0001</v>
       </c>
       <c r="D96" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C96),"LastFixing","D"),"Libor","")</f>
@@ -8163,7 +8209,7 @@
       </c>
       <c r="E96" s="108">
         <f>_xll.qlRateHelperQuoteValue($C96,Trigger)</f>
-        <v>4.3550000000000005E-2</v>
+        <v>4.1849999999999998E-2</v>
       </c>
       <c r="F96" s="108">
         <f>_xll.qlSwapRateHelperSpread($C96,Trigger)</f>
@@ -8180,11 +8226,11 @@
       </c>
       <c r="J96" s="109">
         <f>_xll.qlRateHelperEarliestDate($C96,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K96" s="110">
         <f>_xll.qlRateHelperLatestDate($C96,Trigger)</f>
-        <v>56431</v>
+        <v>56556</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8195,7 +8241,7 @@
       </c>
       <c r="C97" s="107" t="str">
         <f>Swaps!K41</f>
-        <v>obj_0024a#0003</v>
+        <v>obj_00454#0001</v>
       </c>
       <c r="D97" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C97),"LastFixing","D"),"Libor","")</f>
@@ -8220,11 +8266,11 @@
       </c>
       <c r="J97" s="109">
         <f>_xll.qlRateHelperEarliestDate($C97,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K97" s="110">
         <f>_xll.qlRateHelperLatestDate($C97,Trigger)</f>
-        <v>60084</v>
+        <v>60209</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,7 +8281,7 @@
       </c>
       <c r="C98" s="107" t="str">
         <f>Swaps!K42</f>
-        <v>obj_0024d#0003</v>
+        <v>obj_0044c#0001</v>
       </c>
       <c r="D98" s="107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(C98),"LastFixing","D"),"Libor","")</f>
@@ -8260,11 +8306,11 @@
       </c>
       <c r="J98" s="115">
         <f>_xll.qlRateHelperEarliestDate($C98,Trigger)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="K98" s="116">
         <f>_xll.qlRateHelperLatestDate($C98,Trigger)</f>
-        <v>63737</v>
+        <v>63863</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -8326,7 +8372,7 @@
       </c>
       <c r="J1" s="72">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.6249056124033918E-2</v>
+        <v>2.6247168643549656E-2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -8338,7 +8384,7 @@
       </c>
       <c r="D2" s="75" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_001e7</v>
+        <v>obj_003ed</v>
       </c>
       <c r="E2" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -8354,14 +8400,14 @@
       </c>
       <c r="H2" s="83">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I2" s="84">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="J2" s="72">
-        <v>2.6249056124033918E-2</v>
+        <v>2.6247168643549656E-2</v>
       </c>
       <c r="K2" s="77"/>
     </row>
@@ -8373,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="75" t="str">
-        <v>obj_001e8</v>
+        <v>obj_003ee</v>
       </c>
       <c r="E3" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -8389,14 +8435,14 @@
       </c>
       <c r="H3" s="83">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I3" s="84">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41822</v>
+        <v>41947</v>
       </c>
       <c r="J3" s="72">
-        <v>2.6248112338557436E-2</v>
+        <v>2.6246225039024948E-2</v>
       </c>
       <c r="K3" s="77"/>
     </row>
@@ -8408,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="75" t="str">
-        <v>obj_001f3</v>
+        <v>obj_003f2</v>
       </c>
       <c r="E4" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -8424,14 +8470,14 @@
       </c>
       <c r="H4" s="83">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I4" s="84">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41827</v>
+        <v>41950</v>
       </c>
       <c r="J4" s="72">
-        <v>2.6243394768099917E-2</v>
+        <v>2.6243394768099691E-2</v>
       </c>
       <c r="K4" s="77"/>
     </row>
@@ -8443,7 +8489,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="75" t="str">
-        <v>obj_001fd</v>
+        <v>obj_00408</v>
       </c>
       <c r="E5" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -8459,20 +8505,20 @@
       </c>
       <c r="H5" s="83">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I5" s="84">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41834</v>
+        <v>41957</v>
       </c>
       <c r="J5" s="72">
-        <v>2.6236793966322329E-2</v>
+        <v>2.623679396632116E-2</v>
       </c>
       <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="75" t="str">
-        <v>obj_001ff</v>
+        <v>obj_0040c</v>
       </c>
       <c r="E6" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -8488,20 +8534,20 @@
       </c>
       <c r="H6" s="83">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I6" s="84">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41851</v>
+        <v>41971</v>
       </c>
       <c r="J6" s="72">
-        <v>2.6220781860683422E-2</v>
+        <v>2.6223605633075079E-2</v>
       </c>
       <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="75" t="str">
-        <v>obj_00206</v>
+        <v>obj_00409</v>
       </c>
       <c r="E7" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -8517,20 +8563,20 @@
       </c>
       <c r="H7" s="83">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I7" s="84">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41880</v>
+        <v>42004</v>
       </c>
       <c r="J7" s="72">
-        <v>2.6193527123962577E-2</v>
+        <v>2.6192588652085007E-2</v>
       </c>
       <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="75" t="str">
-        <v>obj_00205</v>
+        <v>obj_00407</v>
       </c>
       <c r="E8" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
@@ -8538,7 +8584,7 @@
       </c>
       <c r="F8" s="76">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.6750000000000003E-2</v>
+        <v>2.6749999999999999E-2</v>
       </c>
       <c r="G8" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8546,20 +8592,20 @@
       </c>
       <c r="H8" s="83">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I8" s="84">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41912</v>
+        <v>42034</v>
       </c>
       <c r="J8" s="72">
-        <v>2.6660222840895125E-2</v>
+        <v>2.6661194364881825E-2</v>
       </c>
       <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="75" t="str">
-        <v>obj_00201</v>
+        <v>obj_00402</v>
       </c>
       <c r="E9" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
@@ -8575,20 +8621,20 @@
       </c>
       <c r="H9" s="83">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I9" s="84">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41943</v>
+        <v>42062</v>
       </c>
       <c r="J9" s="72">
-        <v>2.7125644022131301E-2</v>
+        <v>2.7129664342992355E-2</v>
       </c>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="75" t="str">
-        <v>obj_00207</v>
+        <v>obj_0040b</v>
       </c>
       <c r="E10" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
@@ -8604,20 +8650,20 @@
       </c>
       <c r="H10" s="83">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I10" s="84">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41971</v>
+        <v>42094</v>
       </c>
       <c r="J10" s="72">
-        <v>2.7097546156212779E-2</v>
+        <v>2.70975461562123E-2</v>
       </c>
       <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="75" t="str">
-        <v>obj_00203</v>
+        <v>obj_00403</v>
       </c>
       <c r="E11" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
@@ -8633,20 +8679,20 @@
       </c>
       <c r="H11" s="83">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I11" s="84">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42004</v>
+        <v>42124</v>
       </c>
       <c r="J11" s="72">
-        <v>2.7064530162451316E-2</v>
+        <v>2.7067527188878636E-2</v>
       </c>
       <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="75" t="str">
-        <v>obj_00231</v>
+        <v>obj_00426</v>
       </c>
       <c r="E12" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
@@ -8654,7 +8700,7 @@
       </c>
       <c r="F12" s="76">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.6325000000000001E-2</v>
+        <v>2.6775000000000004E-2</v>
       </c>
       <c r="G12" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8662,20 +8708,20 @@
       </c>
       <c r="H12" s="83">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I12" s="84">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42186</v>
+        <v>42311</v>
       </c>
       <c r="J12" s="72">
-        <v>2.6233228799472933E-2</v>
+        <v>2.6679878450490455E-2</v>
       </c>
       <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="75" t="str">
-        <v>obj_00252</v>
+        <v>obj_0042b</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
@@ -8683,7 +8729,7 @@
       </c>
       <c r="F13" s="76">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.7400000000000001E-2</v>
+        <v>2.7225000000000003E-2</v>
       </c>
       <c r="G13" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8691,20 +8737,20 @@
       </c>
       <c r="H13" s="83">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I13" s="84">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42552</v>
+        <v>42677</v>
       </c>
       <c r="J13" s="72">
-        <v>2.7319172153558023E-2</v>
+        <v>2.7134915183738346E-2</v>
       </c>
       <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="75" t="str">
-        <v>obj_0021c</v>
+        <v>obj_0042f</v>
       </c>
       <c r="E14" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
@@ -8712,7 +8758,7 @@
       </c>
       <c r="F14" s="76">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.8875000000000001E-2</v>
+        <v>2.8200000000000003E-2</v>
       </c>
       <c r="G14" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8720,20 +8766,20 @@
       </c>
       <c r="H14" s="83">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I14" s="84">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42919</v>
+        <v>43042</v>
       </c>
       <c r="J14" s="72">
-        <v>2.8824165650756874E-2</v>
+        <v>2.8129281203539344E-2</v>
       </c>
       <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="75" t="str">
-        <v>obj_0020b</v>
+        <v>obj_0044e</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
@@ -8741,7 +8787,7 @@
       </c>
       <c r="F15" s="76">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.1275000000000004E-2</v>
+        <v>3.0275E-2</v>
       </c>
       <c r="G15" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8749,20 +8795,20 @@
       </c>
       <c r="H15" s="83">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I15" s="84">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43283</v>
+        <v>43409</v>
       </c>
       <c r="J15" s="72">
-        <v>3.1186083115662889E-2</v>
+        <v>3.0159274801029895E-2</v>
       </c>
       <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="75" t="str">
-        <v>obj_00240</v>
+        <v>obj_0043b</v>
       </c>
       <c r="E16" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
@@ -8770,7 +8816,7 @@
       </c>
       <c r="F16" s="76">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.2899999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="G16" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8778,19 +8824,19 @@
       </c>
       <c r="H16" s="83">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I16" s="84">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43647</v>
+        <v>43773</v>
       </c>
       <c r="J16" s="72">
-        <v>3.2873118616616216E-2</v>
+        <v>3.1637373268977628E-2</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="75" t="str">
-        <v>obj_0023b</v>
+        <v>obj_00444</v>
       </c>
       <c r="E17" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
@@ -8798,7 +8844,7 @@
       </c>
       <c r="F17" s="76">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>3.5950000000000003E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="G17" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8806,19 +8852,19 @@
       </c>
       <c r="H17" s="83">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I17" s="84">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44378</v>
+        <v>44503</v>
       </c>
       <c r="J17" s="72">
-        <v>3.6120584750176571E-2</v>
+        <v>3.4395635991187709E-2</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="75" t="str">
-        <v>obj_00257</v>
+        <v>obj_00438</v>
       </c>
       <c r="E18" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
@@ -8826,7 +8872,7 @@
       </c>
       <c r="F18" s="76">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>3.9149999999999997E-2</v>
+        <v>3.6849999999999994E-2</v>
       </c>
       <c r="G18" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8834,19 +8880,19 @@
       </c>
       <c r="H18" s="83">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I18" s="84">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45474</v>
+        <v>45600</v>
       </c>
       <c r="J18" s="72">
-        <v>3.9658338154086509E-2</v>
+        <v>3.718444776281115E-2</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="75" t="str">
-        <v>obj_00228</v>
+        <v>obj_00421</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
@@ -8854,7 +8900,7 @@
       </c>
       <c r="F19" s="76">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>4.0750000000000001E-2</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="G19" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8862,19 +8908,19 @@
       </c>
       <c r="H19" s="83">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I19" s="84">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>46204</v>
+        <v>46329</v>
       </c>
       <c r="J19" s="72">
-        <v>4.1501847654894258E-2</v>
+        <v>3.8630720496416901E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="75" t="str">
-        <v>obj_00255</v>
+        <v>obj_0045d</v>
       </c>
       <c r="E20" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
@@ -8882,7 +8928,7 @@
       </c>
       <c r="F20" s="76">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>4.2224999999999999E-2</v>
+        <v>3.9599999999999996E-2</v>
       </c>
       <c r="G20" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8890,19 +8936,19 @@
       </c>
       <c r="H20" s="83">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I20" s="84">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>47301</v>
+        <v>47427</v>
       </c>
       <c r="J20" s="72">
-        <v>4.3225607689703162E-2</v>
+        <v>4.0368885461983722E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="75" t="str">
-        <v>obj_0022e</v>
+        <v>obj_00414</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
@@ -8910,7 +8956,7 @@
       </c>
       <c r="F21" s="76">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>4.3425000000000005E-2</v>
+        <v>4.1299999999999996E-2</v>
       </c>
       <c r="G21" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8918,19 +8964,19 @@
       </c>
       <c r="H21" s="83">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I21" s="84">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>49128</v>
+        <v>49251</v>
       </c>
       <c r="J21" s="72">
-        <v>4.4617551209608232E-2</v>
+        <v>4.2508879219579396E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="75" t="str">
-        <v>obj_00212</v>
+        <v>obj_00451</v>
       </c>
       <c r="E22" s="75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
@@ -8938,7 +8984,7 @@
       </c>
       <c r="F22" s="76">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.3950000000000003E-2</v>
+        <v>4.2199999999999994E-2</v>
       </c>
       <c r="G22" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8946,14 +8992,14 @@
       </c>
       <c r="H22" s="83">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41821</v>
+        <v>41946</v>
       </c>
       <c r="I22" s="84">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>52779</v>
+        <v>52904</v>
       </c>
       <c r="J22" s="72">
-        <v>4.4960729122119091E-2</v>
+        <v>4.3481067070813298E-2</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
@@ -11992,7 +12038,7 @@
       </c>
       <c r="J3" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00209#0000</v>
+        <v>obj_00401#0001</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -12022,7 +12068,7 @@
       </c>
       <c r="H4" s="50" t="str">
         <f>_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e6#0000</v>
+        <v>obj_003ec#0001</v>
       </c>
       <c r="I4" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12030,7 +12076,7 @@
       </c>
       <c r="J4" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e7#0000</v>
+        <v>obj_003ed#0001</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="47"/>
@@ -12057,7 +12103,7 @@
       </c>
       <c r="H5" s="50" t="str">
         <f>_xll.qlIborIndex(,,"2D",C5,Currency,D5,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e5#0000</v>
+        <v>obj_003eb#0001</v>
       </c>
       <c r="I5" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12065,7 +12111,7 @@
       </c>
       <c r="J5" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e8#0000</v>
+        <v>obj_003ee#0001</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="47"/>
@@ -12092,7 +12138,7 @@
       </c>
       <c r="H6" s="50" t="str">
         <f>_xll.qlIborIndex(,,"1W",C6,Currency,D6,E6,F6,G6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001eb#0000</v>
+        <v>obj_003f1#0001</v>
       </c>
       <c r="I6" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12100,7 +12146,7 @@
       </c>
       <c r="J6" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f3#0000</v>
+        <v>obj_003f2#0001</v>
       </c>
       <c r="K6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12130,7 +12176,7 @@
       </c>
       <c r="H7" s="50" t="str">
         <f>_xll.qlIborIndex(,,B7,C7,Currency,D7,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f6#0000</v>
+        <v>obj_003f9#0001</v>
       </c>
       <c r="I7" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12138,7 +12184,7 @@
       </c>
       <c r="J7" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001fd#0000</v>
+        <v>obj_00408#0001</v>
       </c>
       <c r="K7" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12168,7 +12214,7 @@
       </c>
       <c r="H8" s="50" t="str">
         <f>_xll.qlIborIndex(,,B8,C8,Currency,D8,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ef#0000</v>
+        <v>obj_003fa#0001</v>
       </c>
       <c r="I8" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12176,7 +12222,7 @@
       </c>
       <c r="J8" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00208#0000</v>
+        <v>obj_0040d#0001</v>
       </c>
       <c r="K8" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12206,7 +12252,7 @@
       </c>
       <c r="H9" s="50" t="str">
         <f>_xll.qlIborIndex(,,B9,C9,Currency,D9,E9,F9,G9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ec#0000</v>
+        <v>obj_003f3#0001</v>
       </c>
       <c r="I9" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12214,7 +12260,7 @@
       </c>
       <c r="J9" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ff#0000</v>
+        <v>obj_0040c#0001</v>
       </c>
       <c r="K9" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -12244,7 +12290,7 @@
       </c>
       <c r="H10" s="50" t="str">
         <f>_xll.qlIborIndex(,,B10,C10,Currency,D10,E10,F10,G10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f7#0000</v>
+        <v>obj_003fc#0001</v>
       </c>
       <c r="I10" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12252,7 +12298,7 @@
       </c>
       <c r="J10" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00206#0000</v>
+        <v>obj_00409#0001</v>
       </c>
       <c r="K10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -12282,7 +12328,7 @@
       </c>
       <c r="H11" s="50" t="str">
         <f>_xll.qlIborIndex(,,B11,C11,Currency,D11,E11,F11,G11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f5#0000</v>
+        <v>obj_003f7#0001</v>
       </c>
       <c r="I11" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12290,7 +12336,7 @@
       </c>
       <c r="J11" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00205#0000</v>
+        <v>obj_00407#0001</v>
       </c>
       <c r="K11" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -12320,7 +12366,7 @@
       </c>
       <c r="H12" s="50" t="str">
         <f>_xll.qlIborIndex(,,B12,C12,Currency,D12,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ee#0000</v>
+        <v>obj_003f8#0001</v>
       </c>
       <c r="I12" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12328,7 +12374,7 @@
       </c>
       <c r="J12" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00201#0000</v>
+        <v>obj_00402#0001</v>
       </c>
       <c r="K12" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -12358,7 +12404,7 @@
       </c>
       <c r="H13" s="50" t="str">
         <f>_xll.qlIborIndex(,,B13,C13,Currency,D13,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f4#0000</v>
+        <v>obj_003f4#0001</v>
       </c>
       <c r="I13" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12366,7 +12412,7 @@
       </c>
       <c r="J13" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00207#0000</v>
+        <v>obj_0040b#0001</v>
       </c>
       <c r="K13" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -12396,7 +12442,7 @@
       </c>
       <c r="H14" s="50" t="str">
         <f>_xll.qlIborIndex(,,B14,C14,Currency,D14,E14,F14,G14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f1#0000</v>
+        <v>obj_003fd#0001</v>
       </c>
       <c r="I14" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12404,7 +12450,7 @@
       </c>
       <c r="J14" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00203#0000</v>
+        <v>obj_00403#0001</v>
       </c>
       <c r="K14" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -12434,7 +12480,7 @@
       </c>
       <c r="H15" s="50" t="str">
         <f>_xll.qlIborIndex(,,B15,C15,Currency,D15,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f0#0000</v>
+        <v>obj_003fb#0001</v>
       </c>
       <c r="I15" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12442,7 +12488,7 @@
       </c>
       <c r="J15" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00204#0000</v>
+        <v>obj_00405#0001</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -12472,7 +12518,7 @@
       </c>
       <c r="H16" s="50" t="str">
         <f>_xll.qlIborIndex(,,B16,C16,Currency,D16,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ed#0000</v>
+        <v>obj_003f6#0001</v>
       </c>
       <c r="I16" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12480,7 +12526,7 @@
       </c>
       <c r="J16" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001fb#0000</v>
+        <v>obj_00404#0001</v>
       </c>
       <c r="K16" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -12510,7 +12556,7 @@
       </c>
       <c r="H17" s="50" t="str">
         <f>_xll.qlIborIndex(,,B17,C17,Currency,D17,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f2#0000</v>
+        <v>obj_003ff#0001</v>
       </c>
       <c r="I17" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12518,7 +12564,7 @@
       </c>
       <c r="J17" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001fe#0000</v>
+        <v>obj_0040a#0001</v>
       </c>
       <c r="K17" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -12548,7 +12594,7 @@
       </c>
       <c r="H18" s="50" t="str">
         <f>_xll.qlIborIndex(,,B18,C18,Currency,D18,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001fa#0000</v>
+        <v>obj_003f5#0001</v>
       </c>
       <c r="I18" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12556,7 +12602,7 @@
       </c>
       <c r="J18" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00202#0000</v>
+        <v>obj_0040f#0001</v>
       </c>
       <c r="K18" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -12586,7 +12632,7 @@
       </c>
       <c r="H19" s="50" t="str">
         <f>_xll.qlIborIndex(,,B19,C19,Currency,D19,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f9#0000</v>
+        <v>obj_00400#0001</v>
       </c>
       <c r="I19" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12594,7 +12640,7 @@
       </c>
       <c r="J19" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001fc#0000</v>
+        <v>obj_00406#0001</v>
       </c>
       <c r="K19" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -12624,7 +12670,7 @@
       </c>
       <c r="H20" s="50" t="str">
         <f>_xll.qlIborIndex(,,B20,C20,Currency,D20,E20,F20,G20,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f8#0000</v>
+        <v>obj_003fe#0001</v>
       </c>
       <c r="I20" s="50" t="str">
         <f t="shared" si="0"/>
@@ -12632,7 +12678,7 @@
       </c>
       <c r="J20" s="49" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00200#0000</v>
+        <v>obj_0040e#0001</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="47"/>
@@ -12751,7 +12797,7 @@
       </c>
       <c r="D3" s="135" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>N4</v>
+        <v>X4</v>
       </c>
       <c r="E3" s="135" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -12759,15 +12805,15 @@
       </c>
       <c r="F3" s="136" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>AUDFUT3MN4_Quote</v>
+        <v>AUDFUT3MX4_Quote</v>
       </c>
       <c r="G3" s="136" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT3MN4ConvAdj_Quote</v>
+        <v>AUDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="137" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021a#0000</v>
+        <v>obj_00440#0001</v>
       </c>
       <c r="I3" s="53" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -12785,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="139" t="str">
-        <v>Q4</v>
+        <v>Z4</v>
       </c>
       <c r="E4" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12793,15 +12839,15 @@
       </c>
       <c r="F4" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MQ4_Quote</v>
+        <v>AUDFUT3MZ4_Quote</v>
       </c>
       <c r="G4" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MQ4ConvAdj_Quote</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0000</v>
+        <v>obj_0044f#0001</v>
       </c>
       <c r="I4" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -12819,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="139" t="str">
-        <v>U4</v>
+        <v>F5</v>
       </c>
       <c r="E5" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12827,15 +12873,15 @@
       </c>
       <c r="F5" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU4_Quote</v>
+        <v>AUDFUT3MF5_Quote</v>
       </c>
       <c r="G5" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MU4ConvAdj_Quote</v>
+        <v>AUDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0000</v>
+        <v>obj_00452#0001</v>
       </c>
       <c r="I5" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -12853,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="139" t="str">
-        <v>V4</v>
+        <v>G5</v>
       </c>
       <c r="E6" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12861,15 +12907,15 @@
       </c>
       <c r="F6" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MV4_Quote</v>
+        <v>AUDFUT3MG5_Quote</v>
       </c>
       <c r="G6" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MV4ConvAdj_Quote</v>
+        <v>AUDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00215#0000</v>
+        <v>obj_00432#0001</v>
       </c>
       <c r="I6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -12887,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="139" t="str">
-        <v>X4</v>
+        <v>H5</v>
       </c>
       <c r="E7" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12895,15 +12941,15 @@
       </c>
       <c r="F7" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MX4_Quote</v>
+        <v>AUDFUT3MH5_Quote</v>
       </c>
       <c r="G7" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MX4ConvAdj_Quote</v>
+        <v>AUDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00222#0000</v>
+        <v>obj_00429#0001</v>
       </c>
       <c r="I7" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -12921,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="139" t="str">
-        <v>Z4</v>
+        <v>J5</v>
       </c>
       <c r="E8" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12929,15 +12975,15 @@
       </c>
       <c r="F8" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ4_Quote</v>
+        <v>AUDFUT3MJ5_Quote</v>
       </c>
       <c r="G8" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MZ4ConvAdj_Quote</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00211#0000</v>
+        <v>obj_00424#0001</v>
       </c>
       <c r="I8" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -12955,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="139" t="str">
-        <v>F5</v>
+        <v>K5</v>
       </c>
       <c r="E9" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12963,15 +13009,15 @@
       </c>
       <c r="F9" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MF5_Quote</v>
+        <v>AUDFUT3MK5_Quote</v>
       </c>
       <c r="G9" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MF5ConvAdj_Quote</v>
+        <v>AUDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00220#0000</v>
+        <v>obj_00420#0001</v>
       </c>
       <c r="I9" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -12989,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="139" t="str">
-        <v>G5</v>
+        <v>M5</v>
       </c>
       <c r="E10" s="135" t="str">
         <f t="shared" si="0"/>
@@ -12997,15 +13043,15 @@
       </c>
       <c r="F10" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MG5_Quote</v>
+        <v>AUDFUT3MM5_Quote</v>
       </c>
       <c r="G10" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MG5ConvAdj_Quote</v>
+        <v>AUDFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00214#0000</v>
+        <v>obj_00446#0001</v>
       </c>
       <c r="I10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13023,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="139" t="str">
-        <v>H5</v>
+        <v>N5</v>
       </c>
       <c r="E11" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13031,15 +13077,15 @@
       </c>
       <c r="F11" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH5_Quote</v>
+        <v>AUDFUT3MN5_Quote</v>
       </c>
       <c r="G11" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MH5ConvAdj_Quote</v>
+        <v>AUDFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00225#0000</v>
+        <v>obj_0045e#0001</v>
       </c>
       <c r="I11" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -13057,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="139" t="str">
-        <v>J5</v>
+        <v>Q5</v>
       </c>
       <c r="E12" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13065,15 +13111,15 @@
       </c>
       <c r="F12" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MJ5_Quote</v>
+        <v>AUDFUT3MQ5_Quote</v>
       </c>
       <c r="G12" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MJ5ConvAdj_Quote</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00224#0000</v>
+        <v>obj_00459#0001</v>
       </c>
       <c r="I12" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -13091,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="139" t="str">
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="E13" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13099,15 +13145,15 @@
       </c>
       <c r="F13" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MK5_Quote</v>
+        <v>AUDFUT3MU5_Quote</v>
       </c>
       <c r="G13" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MK5ConvAdj_Quote</v>
+        <v>AUDFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00217#0000</v>
+        <v>obj_0041a#0001</v>
       </c>
       <c r="I13" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -13125,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="139" t="str">
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="E14" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13133,15 +13179,15 @@
       </c>
       <c r="F14" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM5_Quote</v>
+        <v>AUDFUT3MV5_Quote</v>
       </c>
       <c r="G14" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MM5ConvAdj_Quote</v>
+        <v>AUDFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00250#0000</v>
+        <v>obj_00423#0001</v>
       </c>
       <c r="I14" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -13159,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="139" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E15" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13167,15 +13213,15 @@
       </c>
       <c r="F15" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU5_Quote</v>
+        <v>AUDFUT3MZ5_Quote</v>
       </c>
       <c r="G15" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MU5ConvAdj_Quote</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00237#0000</v>
+        <v>obj_00436#0001</v>
       </c>
       <c r="I15" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -13193,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="139" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E16" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13201,15 +13247,15 @@
       </c>
       <c r="F16" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ5_Quote</v>
+        <v>AUDFUT3MH6_Quote</v>
       </c>
       <c r="G16" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MZ5ConvAdj_Quote</v>
+        <v>AUDFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022c#0000</v>
+        <v>obj_00447#0001</v>
       </c>
       <c r="I16" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -13227,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="139" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E17" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13235,15 +13281,15 @@
       </c>
       <c r="F17" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH6_Quote</v>
+        <v>AUDFUT3MM6_Quote</v>
       </c>
       <c r="G17" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MH6ConvAdj_Quote</v>
+        <v>AUDFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00226#0000</v>
+        <v>obj_00413#0001</v>
       </c>
       <c r="I17" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -13261,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="139" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E18" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13269,15 +13315,15 @@
       </c>
       <c r="F18" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM6_Quote</v>
+        <v>AUDFUT3MU6_Quote</v>
       </c>
       <c r="G18" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MM6ConvAdj_Quote</v>
+        <v>AUDFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023c#0000</v>
+        <v>obj_00448#0001</v>
       </c>
       <c r="I18" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -13295,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="139" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E19" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13303,15 +13349,15 @@
       </c>
       <c r="F19" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="G19" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MU6ConvAdj_Quote</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00213#0000</v>
+        <v>obj_00455#0001</v>
       </c>
       <c r="I19" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -13329,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="139" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E20" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13337,15 +13383,15 @@
       </c>
       <c r="F20" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="G20" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MZ6ConvAdj_Quote</v>
+        <v>AUDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0020f#0000</v>
+        <v>obj_0044a#0001</v>
       </c>
       <c r="I20" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -13363,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="139" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E21" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13371,15 +13417,15 @@
       </c>
       <c r="F21" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="G21" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MH7ConvAdj_Quote</v>
+        <v>AUDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00242#0000</v>
+        <v>obj_00441#0001</v>
       </c>
       <c r="I21" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -13397,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="139" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E22" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13405,15 +13451,15 @@
       </c>
       <c r="F22" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM7_Quote</v>
+        <v>AUDFUT3MU7_Quote</v>
       </c>
       <c r="G22" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MM7ConvAdj_Quote</v>
+        <v>AUDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00218#0000</v>
+        <v>obj_00439#0001</v>
       </c>
       <c r="I22" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -13431,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="139" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E23" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13439,15 +13485,15 @@
       </c>
       <c r="F23" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU7_Quote</v>
+        <v>AUDFUT3MZ7_Quote</v>
       </c>
       <c r="G23" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MU7ConvAdj_Quote</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00219#0000</v>
+        <v>obj_0043d#0001</v>
       </c>
       <c r="I23" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -13465,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="139" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E24" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13473,15 +13519,15 @@
       </c>
       <c r="F24" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ7_Quote</v>
+        <v>AUDFUT3MH8_Quote</v>
       </c>
       <c r="G24" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MZ7ConvAdj_Quote</v>
+        <v>AUDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00253#0000</v>
+        <v>obj_00445#0001</v>
       </c>
       <c r="I24" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -13499,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="139" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E25" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13507,15 +13553,15 @@
       </c>
       <c r="F25" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH8_Quote</v>
+        <v>AUDFUT3MM8_Quote</v>
       </c>
       <c r="G25" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MH8ConvAdj_Quote</v>
+        <v>AUDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00241#0000</v>
+        <v>obj_00450#0001</v>
       </c>
       <c r="I25" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -13533,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="139" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E26" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13541,15 +13587,15 @@
       </c>
       <c r="F26" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM8_Quote</v>
+        <v>AUDFUT3MU8_Quote</v>
       </c>
       <c r="G26" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MM8ConvAdj_Quote</v>
+        <v>AUDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00449#0001</v>
       </c>
       <c r="I26" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -13567,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="139" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E27" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13575,15 +13621,15 @@
       </c>
       <c r="F27" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU8_Quote</v>
+        <v>AUDFUT3MZ8_Quote</v>
       </c>
       <c r="G27" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MU8ConvAdj_Quote</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00256#0000</v>
+        <v>obj_00419#0001</v>
       </c>
       <c r="I27" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -13601,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="139" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E28" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13609,15 +13655,15 @@
       </c>
       <c r="F28" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ8_Quote</v>
+        <v>AUDFUT3MH9_Quote</v>
       </c>
       <c r="G28" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MZ8ConvAdj_Quote</v>
+        <v>AUDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0000</v>
+        <v>obj_00456#0001</v>
       </c>
       <c r="I28" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -13635,7 +13681,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="139" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E29" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13643,15 +13689,15 @@
       </c>
       <c r="F29" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH9_Quote</v>
+        <v>AUDFUT3MM9_Quote</v>
       </c>
       <c r="G29" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MH9ConvAdj_Quote</v>
+        <v>AUDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024f#0000</v>
+        <v>obj_0041e#0001</v>
       </c>
       <c r="I29" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -13669,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="139" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E30" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13677,15 +13723,15 @@
       </c>
       <c r="F30" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM9_Quote</v>
+        <v>AUDFUT3MU9_Quote</v>
       </c>
       <c r="G30" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MM9ConvAdj_Quote</v>
+        <v>AUDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0020e#0000</v>
+        <v>obj_00458#0001</v>
       </c>
       <c r="I30" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -13703,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="139" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E31" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13711,15 +13757,15 @@
       </c>
       <c r="F31" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU9_Quote</v>
+        <v>AUDFUT3MZ9_Quote</v>
       </c>
       <c r="G31" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MU9ConvAdj_Quote</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00238#0000</v>
+        <v>obj_00422#0001</v>
       </c>
       <c r="I31" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -13737,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="139" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E32" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13745,15 +13791,15 @@
       </c>
       <c r="F32" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ9_Quote</v>
+        <v>AUDFUT3MH0_Quote</v>
       </c>
       <c r="G32" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MZ9ConvAdj_Quote</v>
+        <v>AUDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00233#0000</v>
+        <v>obj_0042d#0001</v>
       </c>
       <c r="I32" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -13771,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="139" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E33" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13779,15 +13825,15 @@
       </c>
       <c r="F33" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH0_Quote</v>
+        <v>AUDFUT3MM0_Quote</v>
       </c>
       <c r="G33" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MH0ConvAdj_Quote</v>
+        <v>AUDFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00230#0000</v>
+        <v>obj_0043a#0001</v>
       </c>
       <c r="I33" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -13805,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="139" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E34" s="135" t="str">
         <f t="shared" si="0"/>
@@ -13813,15 +13859,15 @@
       </c>
       <c r="F34" s="136" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM0_Quote</v>
+        <v>AUDFUT3MU0_Quote</v>
       </c>
       <c r="G34" s="136" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT3MM0ConvAdj_Quote</v>
+        <v>AUDFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023a#0000</v>
+        <v>obj_0042a#0001</v>
       </c>
       <c r="I34" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -13839,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="139" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E35" s="135" t="str">
         <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13847,15 +13893,15 @@
       </c>
       <c r="F35" s="136" t="str">
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>AUDFUT3MU0_Quote</v>
+        <v>AUDFUT3MZ0_Quote</v>
       </c>
       <c r="G35" s="136" t="str">
         <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT3MU0ConvAdj_Quote</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00221#0000</v>
+        <v>obj_00425#0001</v>
       </c>
       <c r="I35" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -13873,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="139" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E36" s="135" t="str">
         <f t="shared" si="3"/>
@@ -13881,15 +13927,15 @@
       </c>
       <c r="F36" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MZ0_Quote</v>
+        <v>AUDFUT3MH1_Quote</v>
       </c>
       <c r="G36" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MZ0ConvAdj_Quote</v>
+        <v>AUDFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00248#0000</v>
+        <v>obj_0044d#0001</v>
       </c>
       <c r="I36" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -13907,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="139" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E37" s="135" t="str">
         <f t="shared" si="3"/>
@@ -13915,15 +13961,15 @@
       </c>
       <c r="F37" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MH1_Quote</v>
+        <v>AUDFUT3MM1_Quote</v>
       </c>
       <c r="G37" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MH1ConvAdj_Quote</v>
+        <v>AUDFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024e#0000</v>
+        <v>obj_00418#0001</v>
       </c>
       <c r="I37" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -13941,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="139" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E38" s="135" t="str">
         <f t="shared" si="3"/>
@@ -13949,15 +13995,15 @@
       </c>
       <c r="F38" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MM1_Quote</v>
+        <v>AUDFUT3MU1_Quote</v>
       </c>
       <c r="G38" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MM1ConvAdj_Quote</v>
+        <v>AUDFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00223#0000</v>
+        <v>obj_00443#0001</v>
       </c>
       <c r="I38" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -13975,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="139" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E39" s="135" t="str">
         <f t="shared" si="3"/>
@@ -13983,15 +14029,15 @@
       </c>
       <c r="F39" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MU1_Quote</v>
+        <v>AUDFUT3MZ1_Quote</v>
       </c>
       <c r="G39" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MU1ConvAdj_Quote</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00249#0000</v>
+        <v>obj_00427#0001</v>
       </c>
       <c r="I39" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -14009,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="139" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E40" s="135" t="str">
         <f t="shared" si="3"/>
@@ -14017,15 +14063,15 @@
       </c>
       <c r="F40" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MZ1_Quote</v>
+        <v>AUDFUT3MH2_Quote</v>
       </c>
       <c r="G40" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MZ1ConvAdj_Quote</v>
+        <v>AUDFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00210#0000</v>
+        <v>obj_00410#0001</v>
       </c>
       <c r="I40" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -14042,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="139" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E41" s="135" t="str">
         <f t="shared" si="3"/>
@@ -14050,15 +14096,15 @@
       </c>
       <c r="F41" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MH2_Quote</v>
+        <v>AUDFUT3MM2_Quote</v>
       </c>
       <c r="G41" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MH2ConvAdj_Quote</v>
+        <v>AUDFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00258#0000</v>
+        <v>obj_0043c#0001</v>
       </c>
       <c r="I41" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -14075,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="139" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E42" s="135" t="str">
         <f t="shared" si="3"/>
@@ -14083,15 +14129,15 @@
       </c>
       <c r="F42" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MM2_Quote</v>
+        <v>AUDFUT3MU2_Quote</v>
       </c>
       <c r="G42" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MM2ConvAdj_Quote</v>
+        <v>AUDFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0000</v>
+        <v>obj_00453#0001</v>
       </c>
       <c r="I42" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -14108,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="139" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E43" s="135" t="str">
         <f t="shared" si="3"/>
@@ -14116,15 +14162,15 @@
       </c>
       <c r="F43" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MU2_Quote</v>
+        <v>AUDFUT3MZ2_Quote</v>
       </c>
       <c r="G43" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MU2ConvAdj_Quote</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00247#0000</v>
+        <v>obj_00437#0001</v>
       </c>
       <c r="I43" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -14141,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="139" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E44" s="135" t="str">
         <f t="shared" si="3"/>
@@ -14149,15 +14195,15 @@
       </c>
       <c r="F44" s="136" t="str">
         <f t="shared" si="4"/>
-        <v>AUDFUT3MZ2_Quote</v>
+        <v>AUDFUT3MH3_Quote</v>
       </c>
       <c r="G44" s="136" t="str">
         <f t="shared" si="5"/>
-        <v>AUDFUT3MZ2ConvAdj_Quote</v>
+        <v>AUDFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00251#0000</v>
+        <v>obj_0043f#0001</v>
       </c>
       <c r="I44" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -14281,7 +14327,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="167" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IndexTenor,NDays,Currency,Calendar,"mf",TRUE,"Actual/365 (fixed)",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ea#0000</v>
+        <v>obj_003ef#0001</v>
       </c>
       <c r="L3" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -14302,7 +14348,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="168" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"6M",NDays,Currency,Calendar,"mf",TRUE,"Actual/365 (fixed)",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e9#0000</v>
+        <v>obj_003f0#0001</v>
       </c>
       <c r="L4" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -14360,7 +14406,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00231#0001</v>
+        <v>obj_00426#0001</v>
       </c>
       <c r="L6" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14403,7 +14449,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00235#0003</v>
+        <v>obj_0044b#0001</v>
       </c>
       <c r="L7" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14446,7 +14492,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0022f#0003</v>
+        <v>obj_0041c#0001</v>
       </c>
       <c r="L8" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14489,7 +14535,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00239#0003</v>
+        <v>obj_0043e#0001</v>
       </c>
       <c r="L9" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14532,7 +14578,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00252#0003</v>
+        <v>obj_0042b#0001</v>
       </c>
       <c r="L10" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14575,7 +14621,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0021c#0003</v>
+        <v>obj_0042f#0001</v>
       </c>
       <c r="L11" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14618,7 +14664,7 @@
       </c>
       <c r="K12" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020b#0003</v>
+        <v>obj_0044e#0001</v>
       </c>
       <c r="L12" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -14660,7 +14706,7 @@
       </c>
       <c r="K13" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00240#0003</v>
+        <v>obj_0043b#0001</v>
       </c>
       <c r="L13" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -14702,7 +14748,7 @@
       </c>
       <c r="K14" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0021f#0003</v>
+        <v>obj_00435#0001</v>
       </c>
       <c r="L14" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -14743,7 +14789,7 @@
       </c>
       <c r="K15" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0023b#0003</v>
+        <v>obj_00444#0001</v>
       </c>
       <c r="L15" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -14784,7 +14830,7 @@
       </c>
       <c r="K16" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0022d#0003</v>
+        <v>obj_00433#0001</v>
       </c>
       <c r="L16" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -14825,7 +14871,7 @@
       </c>
       <c r="K17" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020c#0003</v>
+        <v>obj_00428#0001</v>
       </c>
       <c r="L17" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -14866,7 +14912,7 @@
       </c>
       <c r="K18" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00257#0003</v>
+        <v>obj_00438#0001</v>
       </c>
       <c r="L18" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -14907,7 +14953,7 @@
       </c>
       <c r="K19" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0023d#0003</v>
+        <v>obj_0045c#0001</v>
       </c>
       <c r="L19" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -14947,7 +14993,7 @@
       </c>
       <c r="K20" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00228#0003</v>
+        <v>obj_00421#0001</v>
       </c>
       <c r="L20" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -14987,7 +15033,7 @@
       </c>
       <c r="K21" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00236#0003</v>
+        <v>obj_00415#0001</v>
       </c>
       <c r="L21" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -15027,7 +15073,7 @@
       </c>
       <c r="K22" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0021d#0003</v>
+        <v>obj_0045b#0001</v>
       </c>
       <c r="L22" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -15067,7 +15113,7 @@
       </c>
       <c r="K23" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00255#0003</v>
+        <v>obj_0045d#0001</v>
       </c>
       <c r="L23" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -15107,7 +15153,7 @@
       </c>
       <c r="K24" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00234#0003</v>
+        <v>obj_00430#0001</v>
       </c>
       <c r="L24" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -15147,7 +15193,7 @@
       </c>
       <c r="K25" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0024c#0003</v>
+        <v>obj_00431#0001</v>
       </c>
       <c r="L25" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -15187,7 +15233,7 @@
       </c>
       <c r="K26" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00227#0003</v>
+        <v>obj_0041b#0001</v>
       </c>
       <c r="L26" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -15227,7 +15273,7 @@
       </c>
       <c r="K27" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0024b#0003</v>
+        <v>obj_0042e#0001</v>
       </c>
       <c r="L27" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15267,7 +15313,7 @@
       </c>
       <c r="K28" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0022e#0003</v>
+        <v>obj_00414#0001</v>
       </c>
       <c r="L28" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15307,7 +15353,7 @@
       </c>
       <c r="K29" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00245#0003</v>
+        <v>obj_00434#0001</v>
       </c>
       <c r="L29" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15347,7 +15393,7 @@
       </c>
       <c r="K30" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00246#0003</v>
+        <v>obj_00417#0001</v>
       </c>
       <c r="L30" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15387,7 +15433,7 @@
       </c>
       <c r="K31" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00216#0003</v>
+        <v>obj_00411#0001</v>
       </c>
       <c r="L31" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15427,7 +15473,7 @@
       </c>
       <c r="K32" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020a#0003</v>
+        <v>obj_0041f#0001</v>
       </c>
       <c r="L32" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15467,7 +15513,7 @@
       </c>
       <c r="K33" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0023e#0003</v>
+        <v>obj_00416#0001</v>
       </c>
       <c r="L33" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15507,7 +15553,7 @@
       </c>
       <c r="K34" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0020d#0003</v>
+        <v>obj_00442#0001</v>
       </c>
       <c r="L34" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -15547,7 +15593,7 @@
       </c>
       <c r="K35" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00244#0003</v>
+        <v>obj_0045a#0001</v>
       </c>
       <c r="L35" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -15587,7 +15633,7 @@
       </c>
       <c r="K36" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0023f#0003</v>
+        <v>obj_0041d#0001</v>
       </c>
       <c r="L36" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -15627,7 +15673,7 @@
       </c>
       <c r="K37" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00243#0003</v>
+        <v>obj_00457#0001</v>
       </c>
       <c r="L37" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -15667,7 +15713,7 @@
       </c>
       <c r="K38" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00212#0003</v>
+        <v>obj_00451#0001</v>
       </c>
       <c r="L38" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -15707,7 +15753,7 @@
       </c>
       <c r="K39" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0021b#0003</v>
+        <v>obj_0042c#0001</v>
       </c>
       <c r="L39" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -15747,7 +15793,7 @@
       </c>
       <c r="K40" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0021e#0003</v>
+        <v>obj_00412#0001</v>
       </c>
       <c r="L40" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -15787,7 +15833,7 @@
       </c>
       <c r="K41" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0024a#0003</v>
+        <v>obj_00454#0001</v>
       </c>
       <c r="L41" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -15827,7 +15873,7 @@
       </c>
       <c r="K42" s="150" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0024d#0003</v>
+        <v>obj_0044c#0001</v>
       </c>
       <c r="L42" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/AUD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_YCSTDBootstrapping.xlsx
@@ -2505,9 +2505,9 @@
       <c r="C14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="21" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_AUDYCSTD#0001</v>
+      <c r="D14" s="21" t="e">
+        <f ca="1">_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2547,9 +2547,9 @@
       <c r="C15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="20" t="str">
-        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v/>
+      <c r="D15" s="20" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>105</v>
@@ -2841,13 +2841,13 @@
     <row r="23" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="9">
-        <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41943</v>
-      </c>
-      <c r="D23" s="8">
-        <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.3481067070813298E-2</v>
+      <c r="C23" s="9" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(YieldCurve)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="8" t="e">
+        <f ca="1">MAX(_xll.ohPack(Selected!J1:J126))</f>
+        <v>#NAME?</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2880,13 +2880,13 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="7">
-        <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52904</v>
-      </c>
-      <c r="D24" s="6">
-        <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.6192588652085007E-2</v>
+      <c r="C24" s="7" t="e">
+        <f ca="1">MAX(_xll.ohPack(Selected!I2:I126))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="6" t="e">
+        <f ca="1">MIN(_xll.ohPack(Selected!J1:J126))</f>
+        <v>#NAME?</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2922,9 +2922,9 @@
       <c r="C25" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="68" t="str">
-        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v/>
+      <c r="D25" s="68" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2961,9 +2961,9 @@
         <f>[1]BBSW!$J$13</f>
         <v>AUDSTD#0000</v>
       </c>
-      <c r="D26" s="6" t="b">
-        <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>1</v>
+      <c r="D26" s="6" t="e">
+        <f ca="1">_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2999,9 +2999,9 @@
       <c r="C27" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="42" t="b">
-        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
-        <v>1</v>
+      <c r="D27" s="42" t="e">
+        <f ca="1">_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4405,8 +4405,7 @@
       </c>
       <c r="F3" s="108"/>
       <c r="G3" s="62" t="b">
-        <f t="shared" ref="G3:G4" si="0">IF(ISERROR(E3),FALSE,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="62">
         <v>10</v>
@@ -4443,8 +4442,7 @@
       </c>
       <c r="F4" s="108"/>
       <c r="G4" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="62">
         <v>10</v>
@@ -4465,7 +4463,7 @@
     <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="107"/>
       <c r="B5" s="107" t="str">
-        <f t="shared" ref="B5:B19" si="1">SUBSTITUTE(SUBSTITUTE(D5,"AUD",""),"D_Quote","")</f>
+        <f t="shared" ref="B5:B19" si="0">SUBSTITUTE(SUBSTITUTE(D5,"AUD",""),"D_Quote","")</f>
         <v>SW</v>
       </c>
       <c r="C5" s="107" t="str">
@@ -4482,8 +4480,7 @@
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="62" t="b">
-        <f t="shared" ref="G5:G13" si="2">IF(ISERROR(E5),FALSE,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="62">
         <v>10</v>
@@ -4509,7 +4506,7 @@
     <row r="6" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="107"/>
       <c r="B6" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2W</v>
       </c>
       <c r="C6" s="107" t="str">
@@ -4526,8 +4523,7 @@
       </c>
       <c r="F6" s="108"/>
       <c r="G6" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="62">
         <v>10</v>
@@ -4547,7 +4543,7 @@
     <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107"/>
       <c r="B7" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3W</v>
       </c>
       <c r="C7" s="107" t="str">
@@ -4584,7 +4580,7 @@
     <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="107"/>
       <c r="B8" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1M</v>
       </c>
       <c r="C8" s="107" t="str">
@@ -4601,8 +4597,7 @@
       </c>
       <c r="F8" s="108"/>
       <c r="G8" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="62">
         <v>10</v>
@@ -4622,7 +4617,7 @@
     <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107"/>
       <c r="B9" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2M</v>
       </c>
       <c r="C9" s="107" t="str">
@@ -4639,8 +4634,7 @@
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="62">
         <v>10</v>
@@ -4660,7 +4654,7 @@
     <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="107"/>
       <c r="B10" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3M</v>
       </c>
       <c r="C10" s="107" t="str">
@@ -4677,8 +4671,7 @@
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="62">
         <v>10</v>
@@ -4698,7 +4691,7 @@
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="107"/>
       <c r="B11" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4M</v>
       </c>
       <c r="C11" s="107" t="str">
@@ -4715,8 +4708,7 @@
       </c>
       <c r="F11" s="108"/>
       <c r="G11" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="62">
         <v>10</v>
@@ -4736,7 +4728,7 @@
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
       <c r="B12" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5M</v>
       </c>
       <c r="C12" s="107" t="str">
@@ -4753,8 +4745,7 @@
       </c>
       <c r="F12" s="108"/>
       <c r="G12" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="62">
         <v>10</v>
@@ -4774,7 +4765,7 @@
     <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="107"/>
       <c r="B13" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6M</v>
       </c>
       <c r="C13" s="107" t="str">
@@ -4791,8 +4782,7 @@
       </c>
       <c r="F13" s="108"/>
       <c r="G13" s="62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="62">
         <v>10</v>
@@ -4812,7 +4802,7 @@
     <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107"/>
       <c r="B14" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7M</v>
       </c>
       <c r="C14" s="107" t="str">
@@ -4849,7 +4839,7 @@
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107"/>
       <c r="B15" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8M</v>
       </c>
       <c r="C15" s="107" t="str">
@@ -4886,7 +4876,7 @@
     <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="107"/>
       <c r="B16" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9M</v>
       </c>
       <c r="C16" s="107" t="str">
@@ -4923,7 +4913,7 @@
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="107"/>
       <c r="B17" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10M</v>
       </c>
       <c r="C17" s="107" t="str">
@@ -4960,7 +4950,7 @@
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107"/>
       <c r="B18" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11M</v>
       </c>
       <c r="C18" s="107" t="str">
@@ -4997,7 +4987,7 @@
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="107"/>
       <c r="B19" s="107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1Y</v>
       </c>
       <c r="C19" s="107" t="str">
@@ -5078,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="107" t="str">
-        <f t="shared" ref="B21:B61" si="3">SUBSTITUTE(SUBSTITUTE(D21,"AUDFUT3M",""),"_Quote","")</f>
+        <f t="shared" ref="B21:B61" si="1">SUBSTITUTE(SUBSTITUTE(D21,"AUDFUT3M",""),"_Quote","")</f>
         <v>Z4</v>
       </c>
       <c r="C21" s="107" t="str">
@@ -5120,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>F5</v>
       </c>
       <c r="C22" s="107" t="str">
@@ -5162,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>G5</v>
       </c>
       <c r="C23" s="107" t="str">
@@ -5204,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H5</v>
       </c>
       <c r="C24" s="107" t="str">
@@ -5246,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>J5</v>
       </c>
       <c r="C25" s="107" t="str">
@@ -5288,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>K5</v>
       </c>
       <c r="C26" s="107" t="str">
@@ -5330,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M5</v>
       </c>
       <c r="C27" s="107" t="str">
@@ -5372,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>N5</v>
       </c>
       <c r="C28" s="107" t="str">
@@ -5414,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Q5</v>
       </c>
       <c r="C29" s="107" t="str">
@@ -5456,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U5</v>
       </c>
       <c r="C30" s="107" t="str">
@@ -5498,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>V5</v>
       </c>
       <c r="C31" s="107" t="str">
@@ -5540,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z5</v>
       </c>
       <c r="C32" s="107" t="str">
@@ -5582,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H6</v>
       </c>
       <c r="C33" s="107" t="str">
@@ -5624,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M6</v>
       </c>
       <c r="C34" s="107" t="str">
@@ -5666,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U6</v>
       </c>
       <c r="C35" s="107" t="str">
@@ -5708,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z6</v>
       </c>
       <c r="C36" s="107" t="str">
@@ -5750,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H7</v>
       </c>
       <c r="C37" s="107" t="str">
@@ -5792,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M7</v>
       </c>
       <c r="C38" s="107" t="str">
@@ -5834,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U7</v>
       </c>
       <c r="C39" s="107" t="str">
@@ -5876,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z7</v>
       </c>
       <c r="C40" s="107" t="str">
@@ -5918,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H8</v>
       </c>
       <c r="C41" s="107" t="str">
@@ -5961,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M8</v>
       </c>
       <c r="C42" s="107" t="str">
@@ -6004,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U8</v>
       </c>
       <c r="C43" s="107" t="str">
@@ -6047,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z8</v>
       </c>
       <c r="C44" s="107" t="str">
@@ -6090,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H9</v>
       </c>
       <c r="C45" s="107" t="str">
@@ -6133,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M9</v>
       </c>
       <c r="C46" s="107" t="str">
@@ -6176,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U9</v>
       </c>
       <c r="C47" s="107" t="str">
@@ -6219,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z9</v>
       </c>
       <c r="C48" s="107" t="str">
@@ -6262,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H0</v>
       </c>
       <c r="C49" s="107" t="str">
@@ -6305,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M0</v>
       </c>
       <c r="C50" s="107" t="str">
@@ -6348,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U0</v>
       </c>
       <c r="C51" s="107" t="str">
@@ -6391,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z0</v>
       </c>
       <c r="C52" s="107" t="str">
@@ -6434,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H1</v>
       </c>
       <c r="C53" s="107" t="str">
@@ -6477,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M1</v>
       </c>
       <c r="C54" s="107" t="str">
@@ -6520,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U1</v>
       </c>
       <c r="C55" s="107" t="str">
@@ -6563,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z1</v>
       </c>
       <c r="C56" s="107" t="str">
@@ -6606,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H2</v>
       </c>
       <c r="C57" s="107" t="str">
@@ -6649,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M2</v>
       </c>
       <c r="C58" s="107" t="str">
@@ -6692,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>U2</v>
       </c>
       <c r="C59" s="107" t="str">
@@ -6735,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Z2</v>
       </c>
       <c r="C60" s="107" t="str">
@@ -6778,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>H3</v>
       </c>
       <c r="C61" s="112" t="str">
@@ -6860,7 +6850,7 @@
     <row r="63" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="107"/>
       <c r="B63" s="107" t="str">
-        <f t="shared" ref="B63:B67" si="4">SUBSTITUTE(SUBSTITUTE(D63,"AUDQM3AB",""),"_Quote","")</f>
+        <f t="shared" ref="B63:B67" si="2">SUBSTITUTE(SUBSTITUTE(D63,"AUDQM3AB",""),"_Quote","")</f>
         <v>15M</v>
       </c>
       <c r="C63" s="107" t="str">
@@ -6901,7 +6891,7 @@
     <row r="64" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="107"/>
       <c r="B64" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18M</v>
       </c>
       <c r="C64" s="107" t="str">
@@ -6942,7 +6932,7 @@
     <row r="65" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="107"/>
       <c r="B65" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21M</v>
       </c>
       <c r="C65" s="107" t="str">
@@ -6983,7 +6973,7 @@
     <row r="66" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="107"/>
       <c r="B66" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2Y</v>
       </c>
       <c r="C66" s="107" t="str">
@@ -7024,7 +7014,7 @@
     <row r="67" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="107"/>
       <c r="B67" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3Y</v>
       </c>
       <c r="C67" s="107" t="str">
@@ -7106,7 +7096,7 @@
     <row r="69" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="107"/>
       <c r="B69" s="107" t="str">
-        <f t="shared" ref="B69:B98" si="5">SUBSTITUTE(SUBSTITUTE(D69,"AUDSM6AB",""),"_Quote","")</f>
+        <f t="shared" ref="B69:B98" si="3">SUBSTITUTE(SUBSTITUTE(D69,"AUDSM6AB",""),"_Quote","")</f>
         <v>5Y</v>
       </c>
       <c r="C69" s="107" t="str">
@@ -7147,7 +7137,7 @@
     <row r="70" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="107"/>
       <c r="B70" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6Y</v>
       </c>
       <c r="C70" s="107" t="str">
@@ -7188,7 +7178,7 @@
     <row r="71" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="107"/>
       <c r="B71" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7Y</v>
       </c>
       <c r="C71" s="107" t="str">
@@ -7229,7 +7219,7 @@
     <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="107"/>
       <c r="B72" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8Y</v>
       </c>
       <c r="C72" s="107" t="str">
@@ -7270,7 +7260,7 @@
     <row r="73" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="107"/>
       <c r="B73" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9Y</v>
       </c>
       <c r="C73" s="107" t="str">
@@ -7311,7 +7301,7 @@
     <row r="74" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="107"/>
       <c r="B74" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10Y</v>
       </c>
       <c r="C74" s="107" t="str">
@@ -7352,7 +7342,7 @@
     <row r="75" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="107"/>
       <c r="B75" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11Y</v>
       </c>
       <c r="C75" s="107" t="str">
@@ -7393,7 +7383,7 @@
     <row r="76" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="107"/>
       <c r="B76" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12Y</v>
       </c>
       <c r="C76" s="107" t="str">
@@ -7434,7 +7424,7 @@
     <row r="77" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="107"/>
       <c r="B77" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13Y</v>
       </c>
       <c r="C77" s="107" t="str">
@@ -7475,7 +7465,7 @@
     <row r="78" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="107"/>
       <c r="B78" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14Y</v>
       </c>
       <c r="C78" s="107" t="str">
@@ -7516,7 +7506,7 @@
     <row r="79" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="107"/>
       <c r="B79" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15Y</v>
       </c>
       <c r="C79" s="107" t="str">
@@ -7556,7 +7546,7 @@
     <row r="80" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="107"/>
       <c r="B80" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16Y</v>
       </c>
       <c r="C80" s="107" t="str">
@@ -7596,7 +7586,7 @@
     <row r="81" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="107"/>
       <c r="B81" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17Y</v>
       </c>
       <c r="C81" s="107" t="str">
@@ -7636,7 +7626,7 @@
     <row r="82" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="107"/>
       <c r="B82" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18Y</v>
       </c>
       <c r="C82" s="107" t="str">
@@ -7676,7 +7666,7 @@
     <row r="83" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="107"/>
       <c r="B83" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19Y</v>
       </c>
       <c r="C83" s="107" t="str">
@@ -7716,7 +7706,7 @@
     <row r="84" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="107"/>
       <c r="B84" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20Y</v>
       </c>
       <c r="C84" s="107" t="str">
@@ -7756,7 +7746,7 @@
     <row r="85" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="107"/>
       <c r="B85" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21Y</v>
       </c>
       <c r="C85" s="107" t="str">
@@ -7796,7 +7786,7 @@
     <row r="86" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="107"/>
       <c r="B86" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22Y</v>
       </c>
       <c r="C86" s="107" t="str">
@@ -7836,7 +7826,7 @@
     <row r="87" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="107"/>
       <c r="B87" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>23Y</v>
       </c>
       <c r="C87" s="107" t="str">
@@ -7876,7 +7866,7 @@
     <row r="88" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="107"/>
       <c r="B88" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24Y</v>
       </c>
       <c r="C88" s="107" t="str">
@@ -7916,7 +7906,7 @@
     <row r="89" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="107"/>
       <c r="B89" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25Y</v>
       </c>
       <c r="C89" s="107" t="str">
@@ -7956,7 +7946,7 @@
     <row r="90" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="107"/>
       <c r="B90" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26Y</v>
       </c>
       <c r="C90" s="107" t="str">
@@ -7996,7 +7986,7 @@
     <row r="91" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="107"/>
       <c r="B91" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27Y</v>
       </c>
       <c r="C91" s="107" t="str">
@@ -8036,7 +8026,7 @@
     <row r="92" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="107"/>
       <c r="B92" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28Y</v>
       </c>
       <c r="C92" s="107" t="str">
@@ -8076,7 +8066,7 @@
     <row r="93" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="107"/>
       <c r="B93" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29Y</v>
       </c>
       <c r="C93" s="107" t="str">
@@ -8116,7 +8106,7 @@
     <row r="94" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="107"/>
       <c r="B94" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30Y</v>
       </c>
       <c r="C94" s="107" t="str">
@@ -8156,7 +8146,7 @@
     <row r="95" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="107"/>
       <c r="B95" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>35Y</v>
       </c>
       <c r="C95" s="107" t="str">
@@ -8196,7 +8186,7 @@
     <row r="96" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="107"/>
       <c r="B96" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>40Y</v>
       </c>
       <c r="C96" s="107" t="str">
@@ -8236,7 +8226,7 @@
     <row r="97" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="107"/>
       <c r="B97" s="107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>50Y</v>
       </c>
       <c r="C97" s="107" t="str">
@@ -8276,7 +8266,7 @@
     <row r="98" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="112"/>
       <c r="B98" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60Y</v>
       </c>
       <c r="C98" s="107" t="str">
@@ -8370,9 +8360,9 @@
       <c r="I1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="72">
-        <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.6247168643549656E-2</v>
+      <c r="J1" s="72" t="e">
+        <f t="array" aca="1" ref="J1:J126" ca="1">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -8382,32 +8372,33 @@
       <c r="B2" s="74">
         <v>0</v>
       </c>
-      <c r="D2" s="75" t="str">
-        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_003ed</v>
-      </c>
-      <c r="E2" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
-        <v>AUDTND_Quote</v>
-      </c>
-      <c r="F2" s="76">
-        <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.6249999999999999E-2</v>
+      <c r="D2" s="75" t="e">
+        <f t="array" aca="1" ref="D2:D126" ca="1">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41943</v>
-      </c>
-      <c r="I2" s="84">
-        <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41946</v>
-      </c>
-      <c r="J2" s="72">
-        <v>2.6247168643549656E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="77"/>
     </row>
@@ -8418,31 +8409,33 @@
       <c r="B3" s="79">
         <v>0</v>
       </c>
-      <c r="D3" s="75" t="str">
-        <v>obj_003ee</v>
-      </c>
-      <c r="E3" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSND_Quote</v>
-      </c>
-      <c r="F3" s="76">
-        <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.6249999999999999E-2</v>
+      <c r="D3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41943</v>
-      </c>
-      <c r="I3" s="84">
-        <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41947</v>
-      </c>
-      <c r="J3" s="72">
-        <v>2.6246225039024948E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J3" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="77"/>
     </row>
@@ -8453,31 +8446,33 @@
       <c r="B4" s="79">
         <v>2</v>
       </c>
-      <c r="D4" s="75" t="str">
-        <v>obj_003f2</v>
-      </c>
-      <c r="E4" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSWD_Quote</v>
-      </c>
-      <c r="F4" s="76">
-        <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.6249999999999999E-2</v>
+      <c r="D4" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G4" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41943</v>
-      </c>
-      <c r="I4" s="84">
-        <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41950</v>
-      </c>
-      <c r="J4" s="72">
-        <v>2.6243394768099691E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="77"/>
     </row>
@@ -8488,3430 +8483,3674 @@
       <c r="B5" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="75" t="str">
-        <v>obj_00408</v>
-      </c>
-      <c r="E5" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>AUD2WD_Quote</v>
-      </c>
-      <c r="F5" s="76">
-        <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.6249999999999999E-2</v>
+      <c r="D5" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41943</v>
-      </c>
-      <c r="I5" s="84">
-        <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41957</v>
-      </c>
-      <c r="J5" s="72">
-        <v>2.623679396632116E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="75" t="str">
-        <v>obj_0040c</v>
-      </c>
-      <c r="E6" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>AUD1MD_Quote</v>
-      </c>
-      <c r="F6" s="76">
-        <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.6249999999999999E-2</v>
+      <c r="D6" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G6" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41943</v>
-      </c>
-      <c r="I6" s="84">
-        <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41971</v>
-      </c>
-      <c r="J6" s="72">
-        <v>2.6223605633075079E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="75" t="str">
-        <v>obj_00409</v>
-      </c>
-      <c r="E7" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>AUD2MD_Quote</v>
-      </c>
-      <c r="F7" s="76">
-        <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.6249999999999999E-2</v>
+      <c r="D7" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G7" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41943</v>
-      </c>
-      <c r="I7" s="84">
-        <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42004</v>
-      </c>
-      <c r="J7" s="72">
-        <v>2.6192588652085007E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="75" t="str">
-        <v>obj_00407</v>
-      </c>
-      <c r="E8" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>AUD3MD_Quote</v>
-      </c>
-      <c r="F8" s="76">
-        <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.6749999999999999E-2</v>
+      <c r="D8" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G8" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41943</v>
-      </c>
-      <c r="I8" s="84">
-        <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42034</v>
-      </c>
-      <c r="J8" s="72">
-        <v>2.6661194364881825E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="75" t="str">
-        <v>obj_00402</v>
-      </c>
-      <c r="E9" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>AUD4MD_Quote</v>
-      </c>
-      <c r="F9" s="76">
-        <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.725E-2</v>
+      <c r="D9" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G9" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41943</v>
-      </c>
-      <c r="I9" s="84">
-        <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42062</v>
-      </c>
-      <c r="J9" s="72">
-        <v>2.7129664342992355E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="75" t="str">
-        <v>obj_0040b</v>
-      </c>
-      <c r="E10" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>AUD5MD_Quote</v>
-      </c>
-      <c r="F10" s="76">
-        <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.725E-2</v>
+      <c r="D10" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G10" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41943</v>
-      </c>
-      <c r="I10" s="84">
-        <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42094</v>
-      </c>
-      <c r="J10" s="72">
-        <v>2.70975461562123E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="75" t="str">
-        <v>obj_00403</v>
-      </c>
-      <c r="E11" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>AUD6MD_Quote</v>
-      </c>
-      <c r="F11" s="76">
-        <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.725E-2</v>
+      <c r="D11" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G11" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41943</v>
-      </c>
-      <c r="I11" s="84">
-        <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42124</v>
-      </c>
-      <c r="J11" s="72">
-        <v>2.7067527188878636E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="75" t="str">
-        <v>obj_00426</v>
-      </c>
-      <c r="E12" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>AUDQM3AB1Y_Quote</v>
-      </c>
-      <c r="F12" s="76">
-        <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.6775000000000004E-2</v>
+      <c r="D12" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G12" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41946</v>
-      </c>
-      <c r="I12" s="84">
-        <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42311</v>
-      </c>
-      <c r="J12" s="72">
-        <v>2.6679878450490455E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="75" t="str">
-        <v>obj_0042b</v>
-      </c>
-      <c r="E13" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>AUDQM3AB2Y_Quote</v>
-      </c>
-      <c r="F13" s="76">
-        <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.7225000000000003E-2</v>
+      <c r="D13" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F13" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G13" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41946</v>
-      </c>
-      <c r="I13" s="84">
-        <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42677</v>
-      </c>
-      <c r="J13" s="72">
-        <v>2.7134915183738346E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J13" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="75" t="str">
-        <v>obj_0042f</v>
-      </c>
-      <c r="E14" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>AUDQM3AB3Y_Quote</v>
-      </c>
-      <c r="F14" s="76">
-        <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.8200000000000003E-2</v>
+      <c r="D14" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G14" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41946</v>
-      </c>
-      <c r="I14" s="84">
-        <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43042</v>
-      </c>
-      <c r="J14" s="72">
-        <v>2.8129281203539344E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="75" t="str">
-        <v>obj_0044e</v>
-      </c>
-      <c r="E15" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB4Y_Quote</v>
-      </c>
-      <c r="F15" s="76">
-        <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.0275E-2</v>
+      <c r="D15" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F15" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G15" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41946</v>
-      </c>
-      <c r="I15" s="84">
-        <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43409</v>
-      </c>
-      <c r="J15" s="72">
-        <v>3.0159274801029895E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="75" t="str">
-        <v>obj_0043b</v>
-      </c>
-      <c r="E16" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB5Y_Quote</v>
-      </c>
-      <c r="F16" s="76">
-        <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.1699999999999999E-2</v>
+      <c r="D16" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F16" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G16" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41946</v>
-      </c>
-      <c r="I16" s="84">
-        <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43773</v>
-      </c>
-      <c r="J16" s="72">
-        <v>3.1637373268977628E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D16)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I16" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D16)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="75" t="str">
-        <v>obj_00444</v>
-      </c>
-      <c r="E17" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB7Y_Quote</v>
-      </c>
-      <c r="F17" s="76">
-        <f>_xll.qlRateHelperRate($D17)</f>
-        <v>3.4299999999999997E-2</v>
+      <c r="D17" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F17" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G17" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41946</v>
-      </c>
-      <c r="I17" s="84">
-        <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44503</v>
-      </c>
-      <c r="J17" s="72">
-        <v>3.4395635991187709E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="75" t="str">
-        <v>obj_00438</v>
-      </c>
-      <c r="E18" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB10Y_Quote</v>
-      </c>
-      <c r="F18" s="76">
-        <f>_xll.qlRateHelperRate($D18)</f>
-        <v>3.6849999999999994E-2</v>
+      <c r="D18" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G18" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41946</v>
-      </c>
-      <c r="I18" s="84">
-        <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45600</v>
-      </c>
-      <c r="J18" s="72">
-        <v>3.718444776281115E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J18" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="75" t="str">
-        <v>obj_00421</v>
-      </c>
-      <c r="E19" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB12Y_Quote</v>
-      </c>
-      <c r="F19" s="76">
-        <f>_xll.qlRateHelperRate($D19)</f>
-        <v>3.8124999999999999E-2</v>
+      <c r="D19" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F19" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G19" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41946</v>
-      </c>
-      <c r="I19" s="84">
-        <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>46329</v>
-      </c>
-      <c r="J19" s="72">
-        <v>3.8630720496416901E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I19" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J19" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="75" t="str">
-        <v>obj_0045d</v>
-      </c>
-      <c r="E20" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB15Y_Quote</v>
-      </c>
-      <c r="F20" s="76">
-        <f>_xll.qlRateHelperRate($D20)</f>
-        <v>3.9599999999999996E-2</v>
+      <c r="D20" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G20" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41946</v>
-      </c>
-      <c r="I20" s="84">
-        <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>47427</v>
-      </c>
-      <c r="J20" s="72">
-        <v>4.0368885461983722E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="75" t="str">
-        <v>obj_00414</v>
-      </c>
-      <c r="E21" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB20Y_Quote</v>
-      </c>
-      <c r="F21" s="76">
-        <f>_xll.qlRateHelperRate($D21)</f>
-        <v>4.1299999999999996E-2</v>
+      <c r="D21" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G21" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41946</v>
-      </c>
-      <c r="I21" s="84">
-        <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>49251</v>
-      </c>
-      <c r="J21" s="72">
-        <v>4.2508879219579396E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D22" s="75" t="str">
-        <v>obj_00451</v>
-      </c>
-      <c r="E22" s="75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>AUDSM6AB30Y_Quote</v>
-      </c>
-      <c r="F22" s="76">
-        <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.2199999999999994E-2</v>
+      <c r="D22" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="75" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="76" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G22" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="83">
-        <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41946</v>
-      </c>
-      <c r="I22" s="84">
-        <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>52904</v>
-      </c>
-      <c r="J22" s="72">
-        <v>4.3481067070813298E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="83" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="84" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E23" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F23" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D23)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G23" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
       <c r="H23" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I23" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J23" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E24" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F24" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D24)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G24" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
         <v>0</v>
       </c>
       <c r="H24" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I24" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J24" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E25" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F25" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G25" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
         <v>0</v>
       </c>
       <c r="H25" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J25" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E26" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F26" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G26" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
       <c r="H26" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J26" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F27" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G27" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
         <v>0</v>
       </c>
       <c r="H27" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J27" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E28" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F28" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G28" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>0</v>
       </c>
       <c r="H28" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J28" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E29" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F29" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G29" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>0</v>
       </c>
       <c r="H29" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J29" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E30" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F30" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G30" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>0</v>
       </c>
       <c r="H30" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J30" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E31" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F31" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G31" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>0</v>
       </c>
       <c r="H31" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J31" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E32" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F32" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G32" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>0</v>
       </c>
       <c r="H32" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J32" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E33" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F33" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G33" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>0</v>
       </c>
       <c r="H33" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J33" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E34" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F34" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G34" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>0</v>
       </c>
       <c r="H34" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J34" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E35" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F35" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G35" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>0</v>
       </c>
       <c r="H35" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J35" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E36" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F36" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G36" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>0</v>
       </c>
       <c r="H36" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J36" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E37" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F37" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G37" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>0</v>
       </c>
       <c r="H37" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J37" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E38" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F38" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G38" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>0</v>
       </c>
       <c r="H38" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J38" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E39" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F39" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G39" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>0</v>
       </c>
       <c r="H39" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J39" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E40" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F40" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D40)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G40" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>0</v>
       </c>
       <c r="H40" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I40" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J40" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E41" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F41" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D41)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G41" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>0</v>
       </c>
       <c r="H41" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I41" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J41" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E42" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F42" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D42)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G42" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>0</v>
       </c>
       <c r="H42" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I42" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J42" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E43" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F43" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D43)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G43" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>0</v>
       </c>
       <c r="H43" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I43" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J43" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E44" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F44" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D44)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G44" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>0</v>
       </c>
       <c r="H44" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I44" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J44" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E45" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F45" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D45)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G45" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>0</v>
       </c>
       <c r="H45" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I45" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J45" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E46" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F46" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D46)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G46" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>0</v>
       </c>
       <c r="H46" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I46" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J46" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E47" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F47" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D47)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G47" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>0</v>
       </c>
       <c r="H47" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I47" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J47" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E48" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F48" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D48)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G48" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>0</v>
       </c>
       <c r="H48" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I48" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J48" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E49" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F49" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D49)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G49" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>0</v>
       </c>
       <c r="H49" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I49" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J49" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E50" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F50" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D50)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G50" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>0</v>
       </c>
       <c r="H50" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I50" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J50" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E51" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F51" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D51)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G51" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>0</v>
       </c>
       <c r="H51" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I51" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J51" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E52" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F52" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D52)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G52" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>0</v>
       </c>
       <c r="H52" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I52" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J52" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E53" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F53" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G53" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>0</v>
       </c>
       <c r="H53" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I53" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J53" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E54" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F54" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G54" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>0</v>
       </c>
       <c r="H54" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I54" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J54" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E55" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F55" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G55" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>0</v>
       </c>
       <c r="H55" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I55" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J55" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E56" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F56" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G56" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>0</v>
       </c>
       <c r="H56" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I56" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J56" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E57" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F57" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G57" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>0</v>
       </c>
       <c r="H57" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I57" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J57" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E58" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F58" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G58" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>0</v>
       </c>
       <c r="H58" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I58" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J58" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E59" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F59" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G59" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>0</v>
       </c>
       <c r="H59" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I59" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J59" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E60" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F60" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G60" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>0</v>
       </c>
       <c r="H60" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I60" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J60" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E61" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F61" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G61" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>0</v>
       </c>
       <c r="H61" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I61" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J61" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E62" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F62" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G62" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>0</v>
       </c>
       <c r="H62" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I62" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J62" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E63" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F63" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G63" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>0</v>
       </c>
       <c r="H63" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I63" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J63" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E64" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F64" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G64" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>0</v>
       </c>
       <c r="H64" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I64" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J64" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E65" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F65" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G65" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>0</v>
       </c>
       <c r="H65" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I65" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J65" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E66" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F66" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G66" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>0</v>
       </c>
       <c r="H66" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I66" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J66" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E67" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F67" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G67" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>0</v>
       </c>
       <c r="H67" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I67" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J67" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E68" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F68" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G68" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>0</v>
       </c>
       <c r="H68" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I68" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J68" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E69" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F69" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G69" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>0</v>
       </c>
       <c r="H69" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I69" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J69" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E70" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F70" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G70" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>0</v>
       </c>
       <c r="H70" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I70" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J70" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E71" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F71" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G71" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>0</v>
       </c>
       <c r="H71" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I71" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J71" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E72" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F72" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G72" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>0</v>
       </c>
       <c r="H72" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I72" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J72" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E73" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F73" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G73" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>0</v>
       </c>
       <c r="H73" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I73" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J73" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E74" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F74" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G74" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>0</v>
       </c>
       <c r="H74" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I74" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J74" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E75" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F75" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G75" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>0</v>
       </c>
       <c r="H75" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I75" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J75" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E76" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F76" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G76" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>0</v>
       </c>
       <c r="H76" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I76" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J76" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E77" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F77" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G77" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>0</v>
       </c>
       <c r="H77" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I77" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J77" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E78" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F78" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G78" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>0</v>
       </c>
       <c r="H78" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I78" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J78" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E79" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F79" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G79" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>0</v>
       </c>
       <c r="H79" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I79" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J79" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E80" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F80" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G80" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>0</v>
       </c>
       <c r="H80" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I80" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J80" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E81" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F81" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G81" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>0</v>
       </c>
       <c r="H81" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I81" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J81" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E82" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F82" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G82" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>0</v>
       </c>
       <c r="H82" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I82" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J82" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E83" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F83" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G83" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>0</v>
       </c>
       <c r="H83" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I83" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J83" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E84" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F84" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G84" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>0</v>
       </c>
       <c r="H84" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I84" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J84" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E85" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F85" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G85" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>0</v>
       </c>
       <c r="H85" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I85" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J85" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E86" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F86" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G86" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>0</v>
       </c>
       <c r="H86" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I86" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J86" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E87" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F87" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G87" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>0</v>
       </c>
       <c r="H87" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I87" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J87" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E88" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F88" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G88" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>0</v>
       </c>
       <c r="H88" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I88" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J88" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E89" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F89" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G89" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>0</v>
       </c>
       <c r="H89" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I89" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J89" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E90" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F90" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G90" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>0</v>
       </c>
       <c r="H90" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I90" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J90" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E91" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F91" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G91" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>0</v>
       </c>
       <c r="H91" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I91" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J91" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E92" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F92" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G92" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>0</v>
       </c>
       <c r="H92" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I92" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J92" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E93" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F93" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G93" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>0</v>
       </c>
       <c r="H93" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I93" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J93" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E94" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F94" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G94" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>0</v>
       </c>
       <c r="H94" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I94" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J94" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E95" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F95" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G95" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>0</v>
       </c>
       <c r="H95" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I95" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J95" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E96" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F96" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G96" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>0</v>
       </c>
       <c r="H96" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I96" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J96" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E97" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F97" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G97" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>0</v>
       </c>
       <c r="H97" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I97" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J97" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E98" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F98" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G98" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>0</v>
       </c>
       <c r="H98" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I98" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J98" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E99" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F99" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G99" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>0</v>
       </c>
       <c r="H99" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I99" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J99" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E100" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F100" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G100" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>0</v>
       </c>
       <c r="H100" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I100" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J100" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E101" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F101" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G101" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>0</v>
       </c>
       <c r="H101" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I101" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J101" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E102" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F102" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G102" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>0</v>
       </c>
       <c r="H102" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I102" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J102" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E103" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F103" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G103" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>0</v>
       </c>
       <c r="H103" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I103" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J103" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E104" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F104" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G104" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>0</v>
       </c>
       <c r="H104" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I104" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J104" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E105" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F105" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G105" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>0</v>
       </c>
       <c r="H105" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I105" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J105" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E106" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F106" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G106" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>0</v>
       </c>
       <c r="H106" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I106" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J106" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E107" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F107" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G107" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>0</v>
       </c>
       <c r="H107" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I107" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J107" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E108" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F108" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G108" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>0</v>
       </c>
       <c r="H108" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I108" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J108" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E109" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F109" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G109" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>0</v>
       </c>
       <c r="H109" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I109" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J109" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E110" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F110" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G110" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>0</v>
       </c>
       <c r="H110" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I110" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J110" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E111" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F111" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G111" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>0</v>
       </c>
       <c r="H111" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I111" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J111" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E112" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F112" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G112" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>0</v>
       </c>
       <c r="H112" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I112" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J112" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E113" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F113" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G113" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>0</v>
       </c>
       <c r="H113" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I113" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J113" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E114" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F114" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G114" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>0</v>
       </c>
       <c r="H114" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I114" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J114" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E115" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F115" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G115" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>0</v>
       </c>
       <c r="H115" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I115" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J115" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E116" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F116" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G116" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>0</v>
       </c>
       <c r="H116" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I116" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J116" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E117" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F117" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G117" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>0</v>
       </c>
       <c r="H117" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I117" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J117" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E118" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F118" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G118" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>0</v>
       </c>
       <c r="H118" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I118" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J118" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E119" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F119" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G119" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>0</v>
       </c>
       <c r="H119" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I119" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J119" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E120" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F120" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G120" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>0</v>
       </c>
       <c r="H120" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I120" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J120" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E121" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F121" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G121" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>0</v>
       </c>
       <c r="H121" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I121" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J121" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D122" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E122" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F122" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G122" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>0</v>
       </c>
       <c r="H122" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I122" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J122" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E123" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F123" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G123" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>0</v>
       </c>
       <c r="H123" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I123" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J123" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E124" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F124" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G124" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>0</v>
       </c>
       <c r="H124" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I124" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J124" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="75" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E125" s="75" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F125" s="76" t="e">
-        <f>_xll.qlRateHelperRate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G125" s="76">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>0</v>
       </c>
       <c r="H125" s="83" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I125" s="84" t="e">
-        <f>_xll.qlRateHelperLatestDate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J125" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="80" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E126" s="80" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F126" s="81" t="e">
-        <f>_xll.qlRateHelperRate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G126" s="81">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>0</v>
       </c>
       <c r="H126" s="85" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I126" s="86" t="e">
-        <f>_xll.qlRateHelperLatestDate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J126" s="72" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
